--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7302,28 +7302,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1313.428850926311</v>
+        <v>1528.776318873974</v>
       </c>
       <c r="AB2" t="n">
-        <v>1797.091298228771</v>
+        <v>2091.739204334542</v>
       </c>
       <c r="AC2" t="n">
-        <v>1625.579426959295</v>
+        <v>1892.106550447264</v>
       </c>
       <c r="AD2" t="n">
-        <v>1313428.850926311</v>
+        <v>1528776.318873974</v>
       </c>
       <c r="AE2" t="n">
-        <v>1797091.298228771</v>
+        <v>2091739.204334541</v>
       </c>
       <c r="AF2" t="n">
         <v>3.606287457589264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.52213541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1625579.426959295</v>
+        <v>1892106.550447264</v>
       </c>
     </row>
     <row r="3">
@@ -7408,28 +7408,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>690.4272298911851</v>
+        <v>837.1867181088487</v>
       </c>
       <c r="AB3" t="n">
-        <v>944.6729954367793</v>
+        <v>1145.475801787854</v>
       </c>
       <c r="AC3" t="n">
-        <v>854.5147306091686</v>
+        <v>1036.153198950606</v>
       </c>
       <c r="AD3" t="n">
-        <v>690427.2298911851</v>
+        <v>837186.7181088487</v>
       </c>
       <c r="AE3" t="n">
-        <v>944672.9954367792</v>
+        <v>1145475.801787854</v>
       </c>
       <c r="AF3" t="n">
         <v>5.611093025963641e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.96875</v>
       </c>
       <c r="AH3" t="n">
-        <v>854514.7306091686</v>
+        <v>1036153.198950606</v>
       </c>
     </row>
     <row r="4">
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>582.4887024930491</v>
+        <v>709.7053135887968</v>
       </c>
       <c r="AB4" t="n">
-        <v>796.9867403388999</v>
+        <v>971.0501200408801</v>
       </c>
       <c r="AC4" t="n">
-        <v>720.92344441887</v>
+        <v>878.3744594615807</v>
       </c>
       <c r="AD4" t="n">
-        <v>582488.7024930491</v>
+        <v>709705.3135887968</v>
       </c>
       <c r="AE4" t="n">
-        <v>796986.7403388999</v>
+        <v>971050.1200408801</v>
       </c>
       <c r="AF4" t="n">
         <v>6.372658777586376e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.62890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>720923.4444188699</v>
+        <v>878374.4594615807</v>
       </c>
     </row>
     <row r="5">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>540.2184146650103</v>
+        <v>657.5791846827052</v>
       </c>
       <c r="AB5" t="n">
-        <v>739.1506676990914</v>
+        <v>899.7288508290587</v>
       </c>
       <c r="AC5" t="n">
-        <v>668.6071653783671</v>
+        <v>813.8599920833058</v>
       </c>
       <c r="AD5" t="n">
-        <v>540218.4146650103</v>
+        <v>657579.1846827052</v>
       </c>
       <c r="AE5" t="n">
-        <v>739150.6676990914</v>
+        <v>899728.8508290587</v>
       </c>
       <c r="AF5" t="n">
         <v>6.774777066192492e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.1640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>668607.1653783671</v>
+        <v>813859.9920833057</v>
       </c>
     </row>
     <row r="6">
@@ -7726,28 +7726,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>512.5713964270575</v>
+        <v>620.1778105931847</v>
       </c>
       <c r="AB6" t="n">
-        <v>701.3227976455621</v>
+        <v>848.5546407676055</v>
       </c>
       <c r="AC6" t="n">
-        <v>634.3895341509973</v>
+        <v>767.5697768066628</v>
       </c>
       <c r="AD6" t="n">
-        <v>512571.3964270575</v>
+        <v>620177.8105931848</v>
       </c>
       <c r="AE6" t="n">
-        <v>701322.7976455621</v>
+        <v>848554.6407676055</v>
       </c>
       <c r="AF6" t="n">
         <v>7.023569676409227e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH6" t="n">
-        <v>634389.5341509973</v>
+        <v>767569.7768066628</v>
       </c>
     </row>
     <row r="7">
@@ -7832,28 +7832,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>490.8771670833644</v>
+        <v>608.2710914899831</v>
       </c>
       <c r="AB7" t="n">
-        <v>671.63979597567</v>
+        <v>832.2633424032309</v>
       </c>
       <c r="AC7" t="n">
-        <v>607.5394365001254</v>
+        <v>752.8332970932031</v>
       </c>
       <c r="AD7" t="n">
-        <v>490877.1670833644</v>
+        <v>608271.091489983</v>
       </c>
       <c r="AE7" t="n">
-        <v>671639.79597567</v>
+        <v>832263.342403231</v>
       </c>
       <c r="AF7" t="n">
         <v>7.193529744435193e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.81640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>607539.4365001253</v>
+        <v>752833.2970932031</v>
       </c>
     </row>
     <row r="8">
@@ -7938,28 +7938,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>481.8982626977932</v>
+        <v>589.4705114451398</v>
       </c>
       <c r="AB8" t="n">
-        <v>659.3544628740267</v>
+        <v>806.5395593628227</v>
       </c>
       <c r="AC8" t="n">
-        <v>596.4265983471298</v>
+        <v>729.5645558026151</v>
       </c>
       <c r="AD8" t="n">
-        <v>481898.2626977932</v>
+        <v>589470.5114451398</v>
       </c>
       <c r="AE8" t="n">
-        <v>659354.4628740267</v>
+        <v>806539.5593628227</v>
       </c>
       <c r="AF8" t="n">
         <v>7.330703189409341e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.41276041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>596426.5983471298</v>
+        <v>729564.5558026151</v>
       </c>
     </row>
     <row r="9">
@@ -8044,28 +8044,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>475.938089034983</v>
+        <v>583.5103377823297</v>
       </c>
       <c r="AB9" t="n">
-        <v>651.1994903242655</v>
+        <v>798.3845868130614</v>
       </c>
       <c r="AC9" t="n">
-        <v>589.0499249319417</v>
+        <v>722.1878823874273</v>
       </c>
       <c r="AD9" t="n">
-        <v>475938.089034983</v>
+        <v>583510.3377823296</v>
       </c>
       <c r="AE9" t="n">
-        <v>651199.4903242656</v>
+        <v>798384.5868130615</v>
       </c>
       <c r="AF9" t="n">
         <v>7.415080528145636e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.16536458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>589049.9249319418</v>
+        <v>722187.8823874273</v>
       </c>
     </row>
     <row r="10">
@@ -8150,28 +8150,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>461.0479981932605</v>
+        <v>568.6875667483115</v>
       </c>
       <c r="AB10" t="n">
-        <v>630.826211130175</v>
+        <v>778.1034175498122</v>
       </c>
       <c r="AC10" t="n">
-        <v>570.6210429100582</v>
+        <v>703.842319453863</v>
       </c>
       <c r="AD10" t="n">
-        <v>461047.9981932605</v>
+        <v>568687.5667483115</v>
       </c>
       <c r="AE10" t="n">
-        <v>630826.211130175</v>
+        <v>778103.4175498122</v>
       </c>
       <c r="AF10" t="n">
         <v>7.485475336462774e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.97005208333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>570621.0429100583</v>
+        <v>703842.319453863</v>
       </c>
     </row>
     <row r="11">
@@ -8256,28 +8256,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>456.4927853084764</v>
+        <v>564.1323538635276</v>
       </c>
       <c r="AB11" t="n">
-        <v>624.593567899404</v>
+        <v>771.8707743190415</v>
       </c>
       <c r="AC11" t="n">
-        <v>564.9832344016625</v>
+        <v>698.2045109454671</v>
       </c>
       <c r="AD11" t="n">
-        <v>456492.7853084764</v>
+        <v>564132.3538635275</v>
       </c>
       <c r="AE11" t="n">
-        <v>624593.567899404</v>
+        <v>771870.7743190415</v>
       </c>
       <c r="AF11" t="n">
         <v>7.554905832337211e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.77473958333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>564983.2344016625</v>
+        <v>698204.510945467</v>
       </c>
     </row>
     <row r="12">
@@ -8362,28 +8362,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>453.5959660408825</v>
+        <v>561.2355345959335</v>
       </c>
       <c r="AB12" t="n">
-        <v>620.6300119788356</v>
+        <v>767.907218398473</v>
       </c>
       <c r="AC12" t="n">
-        <v>561.3979546952673</v>
+        <v>694.619231239072</v>
       </c>
       <c r="AD12" t="n">
-        <v>453595.9660408825</v>
+        <v>561235.5345959335</v>
       </c>
       <c r="AE12" t="n">
-        <v>620630.0119788356</v>
+        <v>767907.218398473</v>
       </c>
       <c r="AF12" t="n">
         <v>7.589621080274431e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.67708333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>561397.9546952674</v>
+        <v>694619.2312390719</v>
       </c>
     </row>
     <row r="13">
@@ -8468,28 +8468,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>449.1536839182703</v>
+        <v>556.7932524733213</v>
       </c>
       <c r="AB13" t="n">
-        <v>614.5518855990218</v>
+        <v>761.8290920186593</v>
       </c>
       <c r="AC13" t="n">
-        <v>555.8999161664391</v>
+        <v>689.1211927102436</v>
       </c>
       <c r="AD13" t="n">
-        <v>449153.6839182703</v>
+        <v>556793.2524733213</v>
       </c>
       <c r="AE13" t="n">
-        <v>614551.8855990218</v>
+        <v>761829.0920186592</v>
       </c>
       <c r="AF13" t="n">
         <v>7.650854920385913e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.51432291666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>555899.9161664391</v>
+        <v>689121.1927102436</v>
       </c>
     </row>
     <row r="14">
@@ -8574,28 +8574,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>446.4478975340351</v>
+        <v>544.2657904298143</v>
       </c>
       <c r="AB14" t="n">
-        <v>610.8497092972408</v>
+        <v>744.6884657781131</v>
       </c>
       <c r="AC14" t="n">
-        <v>552.551070374863</v>
+        <v>673.6164437810753</v>
       </c>
       <c r="AD14" t="n">
-        <v>446447.8975340351</v>
+        <v>544265.7904298143</v>
       </c>
       <c r="AE14" t="n">
-        <v>610849.7092972408</v>
+        <v>744688.4657781131</v>
       </c>
       <c r="AF14" t="n">
         <v>7.686052324544482e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.42317708333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>552551.070374863</v>
+        <v>673616.4437810753</v>
       </c>
     </row>
     <row r="15">
@@ -8680,28 +8680,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>445.0168556047807</v>
+        <v>542.8347485005597</v>
       </c>
       <c r="AB15" t="n">
-        <v>608.8916945965207</v>
+        <v>742.730451077393</v>
       </c>
       <c r="AC15" t="n">
-        <v>550.7799258490887</v>
+        <v>671.8452992553009</v>
       </c>
       <c r="AD15" t="n">
-        <v>445016.8556047807</v>
+        <v>542834.7485005597</v>
       </c>
       <c r="AE15" t="n">
-        <v>608891.6945965206</v>
+        <v>742730.451077393</v>
       </c>
       <c r="AF15" t="n">
         <v>7.703168870402417e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.37760416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>550779.9258490887</v>
+        <v>671845.2992553009</v>
       </c>
     </row>
     <row r="16">
@@ -8786,28 +8786,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>441.5423420370958</v>
+        <v>539.360234932875</v>
       </c>
       <c r="AB16" t="n">
-        <v>604.137711848494</v>
+        <v>737.9764683293663</v>
       </c>
       <c r="AC16" t="n">
-        <v>546.4796565422769</v>
+        <v>667.5450299484892</v>
       </c>
       <c r="AD16" t="n">
-        <v>441542.3420370958</v>
+        <v>539360.2349328749</v>
       </c>
       <c r="AE16" t="n">
-        <v>604137.7118484939</v>
+        <v>737976.4683293663</v>
       </c>
       <c r="AF16" t="n">
         <v>7.740777055667736e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.2734375</v>
       </c>
       <c r="AH16" t="n">
-        <v>546479.6565422768</v>
+        <v>667545.0299484892</v>
       </c>
     </row>
     <row r="17">
@@ -8892,28 +8892,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>440.0100765067502</v>
+        <v>537.8279694025293</v>
       </c>
       <c r="AB17" t="n">
-        <v>602.0411985510907</v>
+        <v>735.879955031963</v>
       </c>
       <c r="AC17" t="n">
-        <v>544.5832315315029</v>
+        <v>665.6486049377153</v>
       </c>
       <c r="AD17" t="n">
-        <v>440010.0765067502</v>
+        <v>537827.9694025293</v>
       </c>
       <c r="AE17" t="n">
-        <v>602041.1985510907</v>
+        <v>735879.9550319631</v>
       </c>
       <c r="AF17" t="n">
         <v>7.759581148300396e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20.22786458333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>544583.2315315029</v>
+        <v>665648.6049377152</v>
       </c>
     </row>
     <row r="18">
@@ -8998,28 +8998,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>437.5515918530603</v>
+        <v>535.3694847488395</v>
       </c>
       <c r="AB18" t="n">
-        <v>598.6773913872241</v>
+        <v>732.5161478680964</v>
       </c>
       <c r="AC18" t="n">
-        <v>541.5404614022227</v>
+        <v>662.605834808435</v>
       </c>
       <c r="AD18" t="n">
-        <v>437551.5918530603</v>
+        <v>535369.4847488394</v>
       </c>
       <c r="AE18" t="n">
-        <v>598677.3913872241</v>
+        <v>732516.1478680964</v>
       </c>
       <c r="AF18" t="n">
         <v>7.779590631486432e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20.17578125</v>
       </c>
       <c r="AH18" t="n">
-        <v>541540.4614022227</v>
+        <v>662605.8348084351</v>
       </c>
     </row>
     <row r="19">
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>435.8472628023704</v>
+        <v>533.6651556981494</v>
       </c>
       <c r="AB19" t="n">
-        <v>596.345453190379</v>
+        <v>730.1842096712512</v>
       </c>
       <c r="AC19" t="n">
-        <v>539.4310801139887</v>
+        <v>660.4964535202009</v>
       </c>
       <c r="AD19" t="n">
-        <v>435847.2628023704</v>
+        <v>533665.1556981495</v>
       </c>
       <c r="AE19" t="n">
-        <v>596345.453190379</v>
+        <v>730184.2096712512</v>
       </c>
       <c r="AF19" t="n">
         <v>7.799117958451118e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20.12369791666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>539431.0801139887</v>
+        <v>660496.4535202009</v>
       </c>
     </row>
     <row r="20">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>433.5294746014503</v>
+        <v>531.3473674972294</v>
       </c>
       <c r="AB20" t="n">
-        <v>593.1741531202813</v>
+        <v>727.0129096011535</v>
       </c>
       <c r="AC20" t="n">
-        <v>536.5624444716336</v>
+        <v>657.6278178778458</v>
       </c>
       <c r="AD20" t="n">
-        <v>433529.4746014503</v>
+        <v>531347.3674972294</v>
       </c>
       <c r="AE20" t="n">
-        <v>593174.1531202813</v>
+        <v>727012.9096011536</v>
       </c>
       <c r="AF20" t="n">
         <v>7.81985067596918e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>20.07161458333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>536562.4444716336</v>
+        <v>657627.8178778458</v>
       </c>
     </row>
     <row r="21">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>431.944540300098</v>
+        <v>529.7624331958771</v>
       </c>
       <c r="AB21" t="n">
-        <v>591.0055760868046</v>
+        <v>724.8443325676769</v>
       </c>
       <c r="AC21" t="n">
-        <v>534.600833386615</v>
+        <v>655.6662067928272</v>
       </c>
       <c r="AD21" t="n">
-        <v>431944.540300098</v>
+        <v>529762.4331958771</v>
       </c>
       <c r="AE21" t="n">
-        <v>591005.5760868046</v>
+        <v>724844.3325676769</v>
       </c>
       <c r="AF21" t="n">
         <v>7.817922051083778e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>20.078125</v>
       </c>
       <c r="AH21" t="n">
-        <v>534600.833386615</v>
+        <v>655666.2067928272</v>
       </c>
     </row>
     <row r="22">
@@ -9422,28 +9422,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>431.6686213219181</v>
+        <v>529.4865142176972</v>
       </c>
       <c r="AB22" t="n">
-        <v>590.6280515681729</v>
+        <v>724.4668080490451</v>
       </c>
       <c r="AC22" t="n">
-        <v>534.2593392781823</v>
+        <v>655.3247126843945</v>
       </c>
       <c r="AD22" t="n">
-        <v>431668.6213219182</v>
+        <v>529486.5142176972</v>
       </c>
       <c r="AE22" t="n">
-        <v>590628.0515681729</v>
+        <v>724466.808049045</v>
       </c>
       <c r="AF22" t="n">
         <v>7.837449378048463e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>20.02604166666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>534259.3392781824</v>
+        <v>655324.7126843946</v>
       </c>
     </row>
     <row r="23">
@@ -9528,28 +9528,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>418.0709487239859</v>
+        <v>525.6763518602562</v>
       </c>
       <c r="AB23" t="n">
-        <v>572.0231160327049</v>
+        <v>719.2535758190944</v>
       </c>
       <c r="AC23" t="n">
-        <v>517.4300326780284</v>
+        <v>650.609024021653</v>
       </c>
       <c r="AD23" t="n">
-        <v>418070.9487239859</v>
+        <v>525676.3518602562</v>
       </c>
       <c r="AE23" t="n">
-        <v>572023.1160327049</v>
+        <v>719253.5758190944</v>
       </c>
       <c r="AF23" t="n">
         <v>7.8584231736772e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>19.97395833333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>517430.0326780284</v>
+        <v>650609.024021653</v>
       </c>
     </row>
     <row r="24">
@@ -9634,28 +9634,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>418.1666810776156</v>
+        <v>525.7720842138858</v>
       </c>
       <c r="AB24" t="n">
-        <v>572.1541012623543</v>
+        <v>719.3845610487438</v>
       </c>
       <c r="AC24" t="n">
-        <v>517.548516861199</v>
+        <v>650.7275082048236</v>
       </c>
       <c r="AD24" t="n">
-        <v>418166.6810776156</v>
+        <v>525772.0842138858</v>
       </c>
       <c r="AE24" t="n">
-        <v>572154.1012623543</v>
+        <v>719384.5610487438</v>
       </c>
       <c r="AF24" t="n">
         <v>7.855289158238424e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>19.98046875</v>
       </c>
       <c r="AH24" t="n">
-        <v>517548.5168611991</v>
+        <v>650727.5082048236</v>
       </c>
     </row>
     <row r="25">
@@ -9740,28 +9740,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>415.13522757343</v>
+        <v>522.7406307097003</v>
       </c>
       <c r="AB25" t="n">
-        <v>568.0063328396377</v>
+        <v>715.2367926260273</v>
       </c>
       <c r="AC25" t="n">
-        <v>513.7966056353171</v>
+        <v>646.9755969789417</v>
       </c>
       <c r="AD25" t="n">
-        <v>415135.22757343</v>
+        <v>522740.6307097003</v>
       </c>
       <c r="AE25" t="n">
-        <v>568006.3328396378</v>
+        <v>715236.7926260273</v>
       </c>
       <c r="AF25" t="n">
         <v>7.874093250871083e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>19.93489583333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>513796.605635317</v>
+        <v>646975.5969789417</v>
       </c>
     </row>
     <row r="26">
@@ -9846,28 +9846,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>414.3278584658813</v>
+        <v>521.9332616021516</v>
       </c>
       <c r="AB26" t="n">
-        <v>566.9016548080784</v>
+        <v>714.1321145944679</v>
       </c>
       <c r="AC26" t="n">
-        <v>512.7973565246643</v>
+        <v>645.9763478682891</v>
       </c>
       <c r="AD26" t="n">
-        <v>414327.8584658813</v>
+        <v>521933.2616021516</v>
       </c>
       <c r="AE26" t="n">
-        <v>566901.6548080784</v>
+        <v>714132.1145944679</v>
       </c>
       <c r="AF26" t="n">
         <v>7.873611094649734e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>19.93489583333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>512797.3565246643</v>
+        <v>645976.3478682891</v>
       </c>
     </row>
     <row r="27">
@@ -9952,28 +9952,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>412.4886283371098</v>
+        <v>520.09403147338</v>
       </c>
       <c r="AB27" t="n">
-        <v>564.3851390047868</v>
+        <v>711.6155987911762</v>
       </c>
       <c r="AC27" t="n">
-        <v>510.5210134576866</v>
+        <v>643.7000048013113</v>
       </c>
       <c r="AD27" t="n">
-        <v>412488.6283371098</v>
+        <v>520094.03147338</v>
       </c>
       <c r="AE27" t="n">
-        <v>564385.1390047867</v>
+        <v>711615.5987911762</v>
       </c>
       <c r="AF27" t="n">
         <v>7.895790280831843e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>20</v>
+        <v>19.87630208333333</v>
       </c>
       <c r="AH27" t="n">
-        <v>510521.0134576866</v>
+        <v>643700.0048013113</v>
       </c>
     </row>
     <row r="28">
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>411.4275692870936</v>
+        <v>519.0329724233638</v>
       </c>
       <c r="AB28" t="n">
-        <v>562.9333512019329</v>
+        <v>710.1638109883223</v>
       </c>
       <c r="AC28" t="n">
-        <v>509.2077822451403</v>
+        <v>642.386773588765</v>
       </c>
       <c r="AD28" t="n">
-        <v>411427.5692870936</v>
+        <v>519032.9724233638</v>
       </c>
       <c r="AE28" t="n">
-        <v>562933.3512019329</v>
+        <v>710163.8109883224</v>
       </c>
       <c r="AF28" t="n">
         <v>7.895549202721169e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>20</v>
+        <v>19.87630208333333</v>
       </c>
       <c r="AH28" t="n">
-        <v>509207.7822451403</v>
+        <v>642386.7735887649</v>
       </c>
     </row>
     <row r="29">
@@ -10164,28 +10164,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>411.7203158986805</v>
+        <v>519.3257190349507</v>
       </c>
       <c r="AB29" t="n">
-        <v>563.333900030975</v>
+        <v>710.5643598173646</v>
       </c>
       <c r="AC29" t="n">
-        <v>509.5701032561125</v>
+        <v>642.7490945997371</v>
       </c>
       <c r="AD29" t="n">
-        <v>411720.3158986805</v>
+        <v>519325.7190349507</v>
       </c>
       <c r="AE29" t="n">
-        <v>563333.900030975</v>
+        <v>710564.3598173646</v>
       </c>
       <c r="AF29" t="n">
         <v>7.891933031061042e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>20</v>
+        <v>19.88932291666667</v>
       </c>
       <c r="AH29" t="n">
-        <v>509570.1032561125</v>
+        <v>642749.0945997371</v>
       </c>
     </row>
     <row r="30">
@@ -10270,28 +10270,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>412.4701659443923</v>
+        <v>520.0755690806626</v>
       </c>
       <c r="AB30" t="n">
-        <v>564.3598779445673</v>
+        <v>711.5903377309569</v>
       </c>
       <c r="AC30" t="n">
-        <v>510.4981632776006</v>
+        <v>643.6771546212251</v>
       </c>
       <c r="AD30" t="n">
-        <v>412470.1659443923</v>
+        <v>520075.5690806626</v>
       </c>
       <c r="AE30" t="n">
-        <v>564359.8779445674</v>
+        <v>711590.3377309568</v>
       </c>
       <c r="AF30" t="n">
         <v>7.892174109171718e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>20</v>
+        <v>19.88932291666667</v>
       </c>
       <c r="AH30" t="n">
-        <v>510498.1632776006</v>
+        <v>643677.1546212251</v>
       </c>
     </row>
   </sheetData>
@@ -10567,28 +10567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>966.9268293799912</v>
+        <v>1150.823097813264</v>
       </c>
       <c r="AB2" t="n">
-        <v>1322.99194575878</v>
+        <v>1574.606933159966</v>
       </c>
       <c r="AC2" t="n">
-        <v>1196.727451286419</v>
+        <v>1424.328657433889</v>
       </c>
       <c r="AD2" t="n">
-        <v>966926.8293799912</v>
+        <v>1150823.097813264</v>
       </c>
       <c r="AE2" t="n">
-        <v>1322991.94575878</v>
+        <v>1574606.933159966</v>
       </c>
       <c r="AF2" t="n">
         <v>4.663434424048632e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.82291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1196727.451286419</v>
+        <v>1424328.657433889</v>
       </c>
     </row>
     <row r="3">
@@ -10673,28 +10673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>584.180907604882</v>
+        <v>719.6402648688339</v>
       </c>
       <c r="AB3" t="n">
-        <v>799.3020900277302</v>
+        <v>984.6435586813437</v>
       </c>
       <c r="AC3" t="n">
-        <v>723.017820383012</v>
+        <v>890.6705593967096</v>
       </c>
       <c r="AD3" t="n">
-        <v>584180.907604882</v>
+        <v>719640.2648688339</v>
       </c>
       <c r="AE3" t="n">
-        <v>799302.0900277302</v>
+        <v>984643.5586813437</v>
       </c>
       <c r="AF3" t="n">
         <v>6.630734267623195e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.8984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>723017.8203830121</v>
+        <v>890670.5593967095</v>
       </c>
     </row>
     <row r="4">
@@ -10779,28 +10779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>511.2426732296937</v>
+        <v>627.3077778045059</v>
       </c>
       <c r="AB4" t="n">
-        <v>699.5047799477986</v>
+        <v>858.3101764580884</v>
       </c>
       <c r="AC4" t="n">
-        <v>632.7450255107046</v>
+        <v>776.3942578628263</v>
       </c>
       <c r="AD4" t="n">
-        <v>511242.6732296937</v>
+        <v>627307.7778045059</v>
       </c>
       <c r="AE4" t="n">
-        <v>699504.7799477986</v>
+        <v>858310.1764580884</v>
       </c>
       <c r="AF4" t="n">
         <v>7.353501976311088e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.35286458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>632745.0255107046</v>
+        <v>776394.2578628263</v>
       </c>
     </row>
     <row r="5">
@@ -10885,28 +10885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>477.7530806643625</v>
+        <v>584.1718015078474</v>
       </c>
       <c r="AB5" t="n">
-        <v>653.6828419433622</v>
+        <v>799.2896306640348</v>
       </c>
       <c r="AC5" t="n">
-        <v>591.2962689579176</v>
+        <v>723.0065501235009</v>
       </c>
       <c r="AD5" t="n">
-        <v>477753.0806643625</v>
+        <v>584171.8015078474</v>
       </c>
       <c r="AE5" t="n">
-        <v>653682.8419433621</v>
+        <v>799289.6306640347</v>
       </c>
       <c r="AF5" t="n">
         <v>7.738098808160338e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.19401041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>591296.2689579176</v>
+        <v>723006.5501235009</v>
       </c>
     </row>
     <row r="6">
@@ -10991,28 +10991,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>455.3795534419904</v>
+        <v>561.8655940931795</v>
       </c>
       <c r="AB6" t="n">
-        <v>623.070394947354</v>
+        <v>768.7692935988682</v>
       </c>
       <c r="AC6" t="n">
-        <v>563.6054309383694</v>
+        <v>695.3990311922718</v>
       </c>
       <c r="AD6" t="n">
-        <v>455379.5534419903</v>
+        <v>561865.5940931796</v>
       </c>
       <c r="AE6" t="n">
-        <v>623070.394947354</v>
+        <v>768769.2935988682</v>
       </c>
       <c r="AF6" t="n">
         <v>7.957566959119582e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.58203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>563605.4309383694</v>
+        <v>695399.0311922717</v>
       </c>
     </row>
     <row r="7">
@@ -11097,28 +11097,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>446.3830212785541</v>
+        <v>552.7675767032581</v>
       </c>
       <c r="AB7" t="n">
-        <v>610.7609427423532</v>
+        <v>756.3209848297781</v>
       </c>
       <c r="AC7" t="n">
-        <v>552.4707755753891</v>
+        <v>684.1387715407924</v>
       </c>
       <c r="AD7" t="n">
-        <v>446383.021278554</v>
+        <v>552767.5767032581</v>
       </c>
       <c r="AE7" t="n">
-        <v>610760.9427423532</v>
+        <v>756320.9848297781</v>
       </c>
       <c r="AF7" t="n">
         <v>8.113463205774525e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.16536458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>552470.7755753892</v>
+        <v>684138.7715407924</v>
       </c>
     </row>
     <row r="8">
@@ -11203,28 +11203,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>429.1241300019175</v>
+        <v>535.576005234326</v>
       </c>
       <c r="AB8" t="n">
-        <v>587.1465662891135</v>
+        <v>732.7987183073799</v>
       </c>
       <c r="AC8" t="n">
-        <v>531.1101220678612</v>
+        <v>662.8614371215835</v>
       </c>
       <c r="AD8" t="n">
-        <v>429124.1300019175</v>
+        <v>535576.005234326</v>
       </c>
       <c r="AE8" t="n">
-        <v>587146.5662891135</v>
+        <v>732798.7183073799</v>
       </c>
       <c r="AF8" t="n">
         <v>8.239288095206686e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.84635416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>531110.1220678611</v>
+        <v>662861.4371215835</v>
       </c>
     </row>
     <row r="9">
@@ -11309,28 +11309,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>423.5760369739475</v>
+        <v>530.0279122063559</v>
       </c>
       <c r="AB9" t="n">
-        <v>579.555420643655</v>
+        <v>725.2075726619215</v>
       </c>
       <c r="AC9" t="n">
-        <v>524.2434647085654</v>
+        <v>655.9947797622879</v>
       </c>
       <c r="AD9" t="n">
-        <v>423576.0369739474</v>
+        <v>530027.9122063559</v>
       </c>
       <c r="AE9" t="n">
-        <v>579555.420643655</v>
+        <v>725207.5726619215</v>
       </c>
       <c r="AF9" t="n">
         <v>8.336360546592506e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.59895833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>524243.4647085654</v>
+        <v>655994.7797622879</v>
       </c>
     </row>
     <row r="10">
@@ -11415,28 +11415,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>420.0426717501067</v>
+        <v>526.39306175603</v>
       </c>
       <c r="AB10" t="n">
-        <v>574.720914463324</v>
+        <v>720.2342099175011</v>
       </c>
       <c r="AC10" t="n">
-        <v>519.8703570128132</v>
+        <v>651.4960677780365</v>
       </c>
       <c r="AD10" t="n">
-        <v>420042.6717501067</v>
+        <v>526393.06175603</v>
       </c>
       <c r="AE10" t="n">
-        <v>574720.914463324</v>
+        <v>720234.2099175011</v>
       </c>
       <c r="AF10" t="n">
         <v>8.388062178308866e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.47526041666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>519870.3570128132</v>
+        <v>651496.0677780365</v>
       </c>
     </row>
     <row r="11">
@@ -11521,28 +11521,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>416.2256498876867</v>
+        <v>512.9638215810635</v>
       </c>
       <c r="AB11" t="n">
-        <v>569.4982967560412</v>
+        <v>701.859731053849</v>
       </c>
       <c r="AC11" t="n">
-        <v>515.1461786095234</v>
+        <v>634.8752233883881</v>
       </c>
       <c r="AD11" t="n">
-        <v>416225.6498876867</v>
+        <v>512963.8215810634</v>
       </c>
       <c r="AE11" t="n">
-        <v>569498.2967560412</v>
+        <v>701859.731053849</v>
       </c>
       <c r="AF11" t="n">
         <v>8.442137864542815e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.34505208333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>515146.1786095235</v>
+        <v>634875.2233883882</v>
       </c>
     </row>
     <row r="12">
@@ -11627,28 +11627,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>412.9447670605306</v>
+        <v>509.6829387539073</v>
       </c>
       <c r="AB12" t="n">
-        <v>565.0092481295911</v>
+        <v>697.3706824273989</v>
       </c>
       <c r="AC12" t="n">
-        <v>511.0855584835625</v>
+        <v>630.8146032624272</v>
       </c>
       <c r="AD12" t="n">
-        <v>412944.7670605306</v>
+        <v>509682.9387539073</v>
       </c>
       <c r="AE12" t="n">
-        <v>565009.2481295911</v>
+        <v>697370.682427399</v>
       </c>
       <c r="AF12" t="n">
         <v>8.48012273682422e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.25390625</v>
       </c>
       <c r="AH12" t="n">
-        <v>511085.5584835625</v>
+        <v>630814.6032624273</v>
       </c>
     </row>
     <row r="13">
@@ -11733,28 +11733,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>410.1160542715674</v>
+        <v>506.8542259649441</v>
       </c>
       <c r="AB13" t="n">
-        <v>561.138878497731</v>
+        <v>693.5003127955387</v>
       </c>
       <c r="AC13" t="n">
-        <v>507.5845714972691</v>
+        <v>627.3136162761338</v>
       </c>
       <c r="AD13" t="n">
-        <v>410116.0542715674</v>
+        <v>506854.2259649441</v>
       </c>
       <c r="AE13" t="n">
-        <v>561138.8784977309</v>
+        <v>693500.3127955387</v>
       </c>
       <c r="AF13" t="n">
         <v>8.518107609105629e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.16276041666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>507584.5714972691</v>
+        <v>627313.6162761338</v>
       </c>
     </row>
     <row r="14">
@@ -11839,28 +11839,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>407.5844116752491</v>
+        <v>504.3225833686258</v>
       </c>
       <c r="AB14" t="n">
-        <v>557.6749734092596</v>
+        <v>690.0364077070674</v>
       </c>
       <c r="AC14" t="n">
-        <v>504.45125664882</v>
+        <v>624.1803014276848</v>
       </c>
       <c r="AD14" t="n">
-        <v>407584.4116752491</v>
+        <v>504322.5833686258</v>
       </c>
       <c r="AE14" t="n">
-        <v>557674.9734092596</v>
+        <v>690036.4077070674</v>
       </c>
       <c r="AF14" t="n">
         <v>8.553982210704737e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.078125</v>
       </c>
       <c r="AH14" t="n">
-        <v>504451.2566488201</v>
+        <v>624180.3014276847</v>
       </c>
     </row>
     <row r="15">
@@ -11945,28 +11945,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>404.078509382781</v>
+        <v>500.8166810761578</v>
       </c>
       <c r="AB15" t="n">
-        <v>552.8780432232115</v>
+        <v>685.2394775210194</v>
       </c>
       <c r="AC15" t="n">
-        <v>500.1121387471947</v>
+        <v>619.8411835260594</v>
       </c>
       <c r="AD15" t="n">
-        <v>404078.509382781</v>
+        <v>500816.6810761578</v>
       </c>
       <c r="AE15" t="n">
-        <v>552878.0432232115</v>
+        <v>685239.4775210194</v>
       </c>
       <c r="AF15" t="n">
         <v>8.576140052868891e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.02604166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>500112.1387471947</v>
+        <v>619841.1835260594</v>
       </c>
     </row>
     <row r="16">
@@ -12051,28 +12051,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>391.2938398391873</v>
+        <v>497.711549652815</v>
       </c>
       <c r="AB16" t="n">
-        <v>535.385494333853</v>
+        <v>680.9908997188716</v>
       </c>
       <c r="AC16" t="n">
-        <v>484.28905417289</v>
+        <v>615.9980840264324</v>
       </c>
       <c r="AD16" t="n">
-        <v>391293.8398391873</v>
+        <v>497711.549652815</v>
       </c>
       <c r="AE16" t="n">
-        <v>535385.494333853</v>
+        <v>680990.8997188716</v>
       </c>
       <c r="AF16" t="n">
         <v>8.61729033117375e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.92838541666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>484289.05417289</v>
+        <v>615998.0840264324</v>
       </c>
     </row>
     <row r="17">
@@ -12157,28 +12157,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>389.4127839464369</v>
+        <v>495.8304937600646</v>
       </c>
       <c r="AB17" t="n">
-        <v>532.8117506750629</v>
+        <v>678.4171560600814</v>
       </c>
       <c r="AC17" t="n">
-        <v>481.9609449966228</v>
+        <v>613.6699748501652</v>
       </c>
       <c r="AD17" t="n">
-        <v>389412.7839464369</v>
+        <v>495830.4937600646</v>
       </c>
       <c r="AE17" t="n">
-        <v>532811.7506750629</v>
+        <v>678417.1560600814</v>
       </c>
       <c r="AF17" t="n">
         <v>8.633644928961577e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.88932291666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>481960.9449966228</v>
+        <v>613669.9748501652</v>
       </c>
     </row>
     <row r="18">
@@ -12263,28 +12263,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>386.0563730399991</v>
+        <v>492.4740828536268</v>
       </c>
       <c r="AB18" t="n">
-        <v>528.2193611984759</v>
+        <v>673.8247665834946</v>
       </c>
       <c r="AC18" t="n">
-        <v>477.8068467262223</v>
+        <v>609.5158765797646</v>
       </c>
       <c r="AD18" t="n">
-        <v>386056.3730399991</v>
+        <v>492474.0828536268</v>
       </c>
       <c r="AE18" t="n">
-        <v>528219.3611984759</v>
+        <v>673824.7665834946</v>
       </c>
       <c r="AF18" t="n">
         <v>8.657913041808033e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.83723958333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>477806.8467262223</v>
+        <v>609515.8765797646</v>
       </c>
     </row>
     <row r="19">
@@ -12369,28 +12369,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>384.8558355986437</v>
+        <v>491.2735454122714</v>
       </c>
       <c r="AB19" t="n">
-        <v>526.5767329072396</v>
+        <v>672.1821382922582</v>
       </c>
       <c r="AC19" t="n">
-        <v>476.3209885736582</v>
+        <v>608.0300184272006</v>
       </c>
       <c r="AD19" t="n">
-        <v>384855.8355986437</v>
+        <v>491273.5454122714</v>
       </c>
       <c r="AE19" t="n">
-        <v>526576.7329072396</v>
+        <v>672182.1382922581</v>
       </c>
       <c r="AF19" t="n">
         <v>8.65158222976113e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.85026041666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>476320.9885736582</v>
+        <v>608030.0184272006</v>
       </c>
     </row>
     <row r="20">
@@ -12475,28 +12475,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>383.9226039012362</v>
+        <v>490.340313714864</v>
       </c>
       <c r="AB20" t="n">
-        <v>525.2998441275699</v>
+        <v>670.9052495125886</v>
       </c>
       <c r="AC20" t="n">
-        <v>475.1659642669956</v>
+        <v>606.874994120538</v>
       </c>
       <c r="AD20" t="n">
-        <v>383922.6039012363</v>
+        <v>490340.313714864</v>
       </c>
       <c r="AE20" t="n">
-        <v>525299.8441275699</v>
+        <v>670905.2495125886</v>
       </c>
       <c r="AF20" t="n">
         <v>8.672157368913561e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.8046875</v>
       </c>
       <c r="AH20" t="n">
-        <v>475165.9642669956</v>
+        <v>606874.994120538</v>
       </c>
     </row>
     <row r="21">
@@ -12581,28 +12581,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>384.4948874097302</v>
+        <v>490.9125972233579</v>
       </c>
       <c r="AB21" t="n">
-        <v>526.0828676712579</v>
+        <v>671.6882730562763</v>
       </c>
       <c r="AC21" t="n">
-        <v>475.8742571426544</v>
+        <v>607.5832869961968</v>
       </c>
       <c r="AD21" t="n">
-        <v>384494.8874097302</v>
+        <v>490912.5972233579</v>
       </c>
       <c r="AE21" t="n">
-        <v>526082.8676712578</v>
+        <v>671688.2730562764</v>
       </c>
       <c r="AF21" t="n">
         <v>8.670574665901833e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>19.8046875</v>
       </c>
       <c r="AH21" t="n">
-        <v>475874.2571426544</v>
+        <v>607583.2869961967</v>
       </c>
     </row>
     <row r="22">
@@ -12687,28 +12687,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>385.3449891237645</v>
+        <v>491.7626989373922</v>
       </c>
       <c r="AB22" t="n">
-        <v>527.2460143402404</v>
+        <v>672.8514197252591</v>
       </c>
       <c r="AC22" t="n">
-        <v>476.9263947260358</v>
+        <v>608.6354245795782</v>
       </c>
       <c r="AD22" t="n">
-        <v>385344.9891237645</v>
+        <v>491762.6989373922</v>
       </c>
       <c r="AE22" t="n">
-        <v>527246.0143402404</v>
+        <v>672851.4197252591</v>
       </c>
       <c r="AF22" t="n">
         <v>8.670310882066548e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>20</v>
+        <v>19.8046875</v>
       </c>
       <c r="AH22" t="n">
-        <v>476926.3947260358</v>
+        <v>608635.4245795782</v>
       </c>
     </row>
   </sheetData>
@@ -12984,28 +12984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>487.894297816352</v>
+        <v>609.4482406250925</v>
       </c>
       <c r="AB2" t="n">
-        <v>667.5585026496391</v>
+        <v>833.8739697820422</v>
       </c>
       <c r="AC2" t="n">
-        <v>603.8476560809996</v>
+        <v>754.2902084555104</v>
       </c>
       <c r="AD2" t="n">
-        <v>487894.297816352</v>
+        <v>609448.2406250924</v>
       </c>
       <c r="AE2" t="n">
-        <v>667558.502649639</v>
+        <v>833873.9697820422</v>
       </c>
       <c r="AF2" t="n">
         <v>9.214198954044564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>603847.6560809996</v>
+        <v>754290.2084555104</v>
       </c>
     </row>
     <row r="3">
@@ -13090,28 +13090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>375.4259087050957</v>
+        <v>487.6233587442523</v>
       </c>
       <c r="AB3" t="n">
-        <v>513.6742909124738</v>
+        <v>667.187791858204</v>
       </c>
       <c r="AC3" t="n">
-        <v>464.6499375341817</v>
+        <v>603.5123254072033</v>
       </c>
       <c r="AD3" t="n">
-        <v>375425.9087050956</v>
+        <v>487623.3587442523</v>
       </c>
       <c r="AE3" t="n">
-        <v>513674.2909124738</v>
+        <v>667187.7918582041</v>
       </c>
       <c r="AF3" t="n">
         <v>1.094945507449578e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.89453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>464649.9375341818</v>
+        <v>603512.3254072033</v>
       </c>
     </row>
     <row r="4">
@@ -13196,28 +13196,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>347.8524507797264</v>
+        <v>450.7285844979373</v>
       </c>
       <c r="AB4" t="n">
-        <v>475.9470693238729</v>
+        <v>616.7067340518322</v>
       </c>
       <c r="AC4" t="n">
-        <v>430.523349023509</v>
+        <v>557.8491089072621</v>
       </c>
       <c r="AD4" t="n">
-        <v>347852.4507797264</v>
+        <v>450728.5844979374</v>
       </c>
       <c r="AE4" t="n">
-        <v>475947.0693238729</v>
+        <v>616706.7340518322</v>
       </c>
       <c r="AF4" t="n">
         <v>1.153523748222713e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.78125</v>
       </c>
       <c r="AH4" t="n">
-        <v>430523.349023509</v>
+        <v>557849.1089072621</v>
       </c>
     </row>
     <row r="5">
@@ -13302,28 +13302,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>337.2290827369507</v>
+        <v>430.7165803265115</v>
       </c>
       <c r="AB5" t="n">
-        <v>461.4117084978263</v>
+        <v>589.325427077173</v>
       </c>
       <c r="AC5" t="n">
-        <v>417.3752226341932</v>
+        <v>533.0810354403586</v>
       </c>
       <c r="AD5" t="n">
-        <v>337229.0827369507</v>
+        <v>430716.5803265115</v>
       </c>
       <c r="AE5" t="n">
-        <v>461411.7084978264</v>
+        <v>589325.427077173</v>
       </c>
       <c r="AF5" t="n">
         <v>1.183641284962138e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.25390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>417375.2226341932</v>
+        <v>533081.0354403586</v>
       </c>
     </row>
     <row r="6">
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>320.6103936678476</v>
+        <v>423.4523619672778</v>
       </c>
       <c r="AB6" t="n">
-        <v>438.6732849486619</v>
+        <v>579.3862030433734</v>
       </c>
       <c r="AC6" t="n">
-        <v>396.8069223149832</v>
+        <v>524.0903969985563</v>
       </c>
       <c r="AD6" t="n">
-        <v>320610.3936678476</v>
+        <v>423452.3619672778</v>
       </c>
       <c r="AE6" t="n">
-        <v>438673.2849486619</v>
+        <v>579386.2030433734</v>
       </c>
       <c r="AF6" t="n">
         <v>1.200798708092422e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.9609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>396806.9223149832</v>
+        <v>524090.3969985563</v>
       </c>
     </row>
     <row r="7">
@@ -13514,28 +13514,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>318.2172630030357</v>
+        <v>421.0592313024658</v>
       </c>
       <c r="AB7" t="n">
-        <v>435.3988979955926</v>
+        <v>576.1118160903039</v>
       </c>
       <c r="AC7" t="n">
-        <v>393.8450382570837</v>
+        <v>521.1285129406568</v>
       </c>
       <c r="AD7" t="n">
-        <v>318217.2630030357</v>
+        <v>421059.2313024658</v>
       </c>
       <c r="AE7" t="n">
-        <v>435398.8979955926</v>
+        <v>576111.8160903039</v>
       </c>
       <c r="AF7" t="n">
         <v>1.206211028264421e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.86979166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>393845.0382570837</v>
+        <v>521128.5129406569</v>
       </c>
     </row>
     <row r="8">
@@ -13620,28 +13620,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>319.1441728697796</v>
+        <v>421.9861411692098</v>
       </c>
       <c r="AB8" t="n">
-        <v>436.6671369676488</v>
+        <v>577.3800550623604</v>
       </c>
       <c r="AC8" t="n">
-        <v>394.9922382816316</v>
+        <v>522.2757129652048</v>
       </c>
       <c r="AD8" t="n">
-        <v>319144.1728697796</v>
+        <v>421986.1411692097</v>
       </c>
       <c r="AE8" t="n">
-        <v>436667.1369676489</v>
+        <v>577380.0550623604</v>
       </c>
       <c r="AF8" t="n">
         <v>1.206358302282706e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.86979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>394992.2382816316</v>
+        <v>522275.7129652047</v>
       </c>
     </row>
   </sheetData>
@@ -13917,28 +13917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>620.1036107484356</v>
+        <v>762.2406774491337</v>
       </c>
       <c r="AB2" t="n">
-        <v>848.4531172665537</v>
+        <v>1042.931322571271</v>
       </c>
       <c r="AC2" t="n">
-        <v>767.4779425660622</v>
+        <v>943.3954209083734</v>
       </c>
       <c r="AD2" t="n">
-        <v>620103.6107484356</v>
+        <v>762240.6774491337</v>
       </c>
       <c r="AE2" t="n">
-        <v>848453.1172665537</v>
+        <v>1042931.322571272</v>
       </c>
       <c r="AF2" t="n">
         <v>7.127208564780871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.12760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>767477.9425660622</v>
+        <v>943395.4209083733</v>
       </c>
     </row>
     <row r="3">
@@ -14023,28 +14023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>450.6728688914043</v>
+        <v>564.3622252066657</v>
       </c>
       <c r="AB3" t="n">
-        <v>616.6305015009746</v>
+        <v>772.1852944319311</v>
       </c>
       <c r="AC3" t="n">
-        <v>557.7801518840653</v>
+        <v>698.4890137002143</v>
       </c>
       <c r="AD3" t="n">
-        <v>450672.8688914043</v>
+        <v>564362.2252066657</v>
       </c>
       <c r="AE3" t="n">
-        <v>616630.5015009745</v>
+        <v>772185.2944319311</v>
       </c>
       <c r="AF3" t="n">
         <v>8.954207405034725e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.18359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>557780.1518840652</v>
+        <v>698489.0137002143</v>
       </c>
     </row>
     <row r="4">
@@ -14129,28 +14129,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>404.406124203527</v>
+        <v>508.7143956167947</v>
       </c>
       <c r="AB4" t="n">
-        <v>553.3263002743021</v>
+        <v>696.0454789780939</v>
       </c>
       <c r="AC4" t="n">
-        <v>500.5176147744619</v>
+        <v>629.6158753703893</v>
       </c>
       <c r="AD4" t="n">
-        <v>404406.124203527</v>
+        <v>508714.3956167947</v>
       </c>
       <c r="AE4" t="n">
-        <v>553326.300274302</v>
+        <v>696045.4789780939</v>
       </c>
       <c r="AF4" t="n">
         <v>9.592222183280443e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>500517.6147744619</v>
+        <v>629615.8753703893</v>
       </c>
     </row>
     <row r="5">
@@ -14235,28 +14235,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>380.9998912473723</v>
+        <v>485.2739972418592</v>
       </c>
       <c r="AB5" t="n">
-        <v>521.3008597335711</v>
+        <v>663.9732918041153</v>
       </c>
       <c r="AC5" t="n">
-        <v>471.5486373309502</v>
+        <v>600.6046127266977</v>
       </c>
       <c r="AD5" t="n">
-        <v>380999.8912473723</v>
+        <v>485273.9972418592</v>
       </c>
       <c r="AE5" t="n">
-        <v>521300.8597335711</v>
+        <v>663973.2918041153</v>
       </c>
       <c r="AF5" t="n">
         <v>9.932114114119991e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.8984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>471548.6373309502</v>
+        <v>600604.6127266977</v>
       </c>
     </row>
     <row r="6">
@@ -14341,28 +14341,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>372.6163301050871</v>
+        <v>476.8904360995741</v>
       </c>
       <c r="AB6" t="n">
-        <v>509.8301015220822</v>
+        <v>652.5025335926265</v>
       </c>
       <c r="AC6" t="n">
-        <v>461.1726321838555</v>
+        <v>590.228607579603</v>
       </c>
       <c r="AD6" t="n">
-        <v>372616.3301050871</v>
+        <v>476890.4360995741</v>
       </c>
       <c r="AE6" t="n">
-        <v>509830.1015220822</v>
+        <v>652502.5335926265</v>
       </c>
       <c r="AF6" t="n">
         <v>1.012342289320416e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.5078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>461172.6321838555</v>
+        <v>590228.607579603</v>
       </c>
     </row>
     <row r="7">
@@ -14447,28 +14447,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>366.1334841801713</v>
+        <v>460.8918656572558</v>
       </c>
       <c r="AB7" t="n">
-        <v>500.9599857246352</v>
+        <v>630.6125837063319</v>
       </c>
       <c r="AC7" t="n">
-        <v>453.1490677888311</v>
+        <v>570.4278037877187</v>
       </c>
       <c r="AD7" t="n">
-        <v>366133.4841801713</v>
+        <v>460891.8656572558</v>
       </c>
       <c r="AE7" t="n">
-        <v>500959.9857246352</v>
+        <v>630612.5837063319</v>
       </c>
       <c r="AF7" t="n">
         <v>1.026052751821449e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>453149.0677888311</v>
+        <v>570427.8037877188</v>
       </c>
     </row>
     <row r="8">
@@ -14553,28 +14553,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>360.6674850532651</v>
+        <v>455.4258665303496</v>
       </c>
       <c r="AB8" t="n">
-        <v>493.4811645763397</v>
+        <v>623.1337625580363</v>
       </c>
       <c r="AC8" t="n">
-        <v>446.3840148343375</v>
+        <v>563.6627508332252</v>
       </c>
       <c r="AD8" t="n">
-        <v>360667.4850532651</v>
+        <v>455425.8665303496</v>
       </c>
       <c r="AE8" t="n">
-        <v>493481.1645763397</v>
+        <v>623133.7625580364</v>
       </c>
       <c r="AF8" t="n">
         <v>1.03619211711291e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.03255208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>446384.0148343375</v>
+        <v>563662.7508332252</v>
       </c>
     </row>
     <row r="9">
@@ -14659,28 +14659,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>345.9712575533699</v>
+        <v>450.211198129076</v>
       </c>
       <c r="AB9" t="n">
-        <v>473.3731377591841</v>
+        <v>615.9988231964805</v>
       </c>
       <c r="AC9" t="n">
-        <v>428.1950698748184</v>
+        <v>557.208760070386</v>
       </c>
       <c r="AD9" t="n">
-        <v>345971.2575533699</v>
+        <v>450211.198129076</v>
       </c>
       <c r="AE9" t="n">
-        <v>473373.1377591841</v>
+        <v>615998.8231964805</v>
       </c>
       <c r="AF9" t="n">
         <v>1.044227085834445e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.87630208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>428195.0698748184</v>
+        <v>557208.760070386</v>
       </c>
     </row>
     <row r="10">
@@ -14765,28 +14765,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>343.008556626193</v>
+        <v>447.2484972018991</v>
       </c>
       <c r="AB10" t="n">
-        <v>469.3194396454805</v>
+        <v>611.9451250827768</v>
       </c>
       <c r="AC10" t="n">
-        <v>424.5282510196856</v>
+        <v>553.5419412152532</v>
       </c>
       <c r="AD10" t="n">
-        <v>343008.5566261929</v>
+        <v>447248.4972018991</v>
       </c>
       <c r="AE10" t="n">
-        <v>469319.4396454805</v>
+        <v>611945.1250827769</v>
       </c>
       <c r="AF10" t="n">
         <v>1.047256141503278e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.82421875</v>
       </c>
       <c r="AH10" t="n">
-        <v>424528.2510196856</v>
+        <v>553541.9412152532</v>
       </c>
     </row>
     <row r="11">
@@ -14871,28 +14871,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>342.5037640557475</v>
+        <v>437.3294653405364</v>
       </c>
       <c r="AB11" t="n">
-        <v>468.6287601807206</v>
+        <v>598.3734680932587</v>
       </c>
       <c r="AC11" t="n">
-        <v>423.9034890336676</v>
+        <v>541.2655441208743</v>
       </c>
       <c r="AD11" t="n">
-        <v>342503.7640557475</v>
+        <v>437329.4653405364</v>
       </c>
       <c r="AE11" t="n">
-        <v>468628.7601807206</v>
+        <v>598373.4680932587</v>
       </c>
       <c r="AF11" t="n">
         <v>1.049360538073204e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.77864583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>423903.4890336676</v>
+        <v>541265.5441208744</v>
       </c>
     </row>
     <row r="12">
@@ -14977,28 +14977,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>343.3627054001453</v>
+        <v>438.1884066849341</v>
       </c>
       <c r="AB12" t="n">
-        <v>469.8040016219433</v>
+        <v>599.5487095344814</v>
       </c>
       <c r="AC12" t="n">
-        <v>424.9665670812018</v>
+        <v>542.3286221684086</v>
       </c>
       <c r="AD12" t="n">
-        <v>343362.7054001453</v>
+        <v>438188.4066849342</v>
       </c>
       <c r="AE12" t="n">
-        <v>469804.0016219433</v>
+        <v>599548.7095344814</v>
       </c>
       <c r="AF12" t="n">
         <v>1.049424307666232e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.77864583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>424966.5670812018</v>
+        <v>542328.6221684086</v>
       </c>
     </row>
   </sheetData>
@@ -15274,28 +15274,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>404.70977120099</v>
+        <v>515.6573696874117</v>
       </c>
       <c r="AB2" t="n">
-        <v>553.741763492191</v>
+        <v>705.5451624039102</v>
       </c>
       <c r="AC2" t="n">
-        <v>500.8934267659417</v>
+        <v>638.208922342935</v>
       </c>
       <c r="AD2" t="n">
-        <v>404709.77120099</v>
+        <v>515657.3696874116</v>
       </c>
       <c r="AE2" t="n">
-        <v>553741.763492191</v>
+        <v>705545.1624039102</v>
       </c>
       <c r="AF2" t="n">
         <v>1.143370793263773e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.01041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>500893.4267659417</v>
+        <v>638208.922342935</v>
       </c>
     </row>
     <row r="3">
@@ -15380,28 +15380,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>335.8697168021817</v>
+        <v>428.3489943250299</v>
       </c>
       <c r="AB3" t="n">
-        <v>459.5517640548828</v>
+        <v>586.0859914594231</v>
       </c>
       <c r="AC3" t="n">
-        <v>415.6927886784358</v>
+        <v>530.1507670113903</v>
       </c>
       <c r="AD3" t="n">
-        <v>335869.7168021817</v>
+        <v>428348.9943250299</v>
       </c>
       <c r="AE3" t="n">
-        <v>459551.7640548828</v>
+        <v>586085.9914594231</v>
       </c>
       <c r="AF3" t="n">
         <v>1.303112930426137e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.06770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>415692.7886784358</v>
+        <v>530150.7670113903</v>
       </c>
     </row>
     <row r="4">
@@ -15486,28 +15486,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>311.9097817151965</v>
+        <v>404.3548938192638</v>
       </c>
       <c r="AB4" t="n">
-        <v>426.7687238311357</v>
+        <v>553.2562046024282</v>
       </c>
       <c r="AC4" t="n">
-        <v>386.0385158023571</v>
+        <v>500.4542089351316</v>
       </c>
       <c r="AD4" t="n">
-        <v>311909.7817151964</v>
+        <v>404354.8938192638</v>
       </c>
       <c r="AE4" t="n">
-        <v>426768.7238311357</v>
+        <v>553256.2046024281</v>
       </c>
       <c r="AF4" t="n">
         <v>1.357850336454845e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.22135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>386038.5158023571</v>
+        <v>500454.2089351316</v>
       </c>
     </row>
     <row r="5">
@@ -15592,28 +15592,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>310.0051057489225</v>
+        <v>402.4502178529899</v>
       </c>
       <c r="AB5" t="n">
-        <v>424.1626621457065</v>
+        <v>550.6501429169988</v>
       </c>
       <c r="AC5" t="n">
-        <v>383.6811729865547</v>
+        <v>498.0968661193293</v>
       </c>
       <c r="AD5" t="n">
-        <v>310005.1057489225</v>
+        <v>402450.2178529899</v>
       </c>
       <c r="AE5" t="n">
-        <v>424162.6621457065</v>
+        <v>550650.1429169988</v>
       </c>
       <c r="AF5" t="n">
         <v>1.365019334162766e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.11067708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>383681.1729865547</v>
+        <v>498096.8661193292</v>
       </c>
     </row>
     <row r="6">
@@ -15698,28 +15698,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>311.1119330595977</v>
+        <v>403.5570451636651</v>
       </c>
       <c r="AB6" t="n">
-        <v>425.677072101947</v>
+        <v>552.1645528732394</v>
       </c>
       <c r="AC6" t="n">
-        <v>385.0510497820594</v>
+        <v>499.466742914834</v>
       </c>
       <c r="AD6" t="n">
-        <v>311111.9330595977</v>
+        <v>403557.0451636651</v>
       </c>
       <c r="AE6" t="n">
-        <v>425677.072101947</v>
+        <v>552164.5528732394</v>
       </c>
       <c r="AF6" t="n">
         <v>1.364850651863756e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.1171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>385051.0497820594</v>
+        <v>499466.7429148339</v>
       </c>
     </row>
   </sheetData>
@@ -15995,28 +15995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1049.070437877717</v>
+        <v>1243.113361208986</v>
       </c>
       <c r="AB2" t="n">
-        <v>1435.384454825612</v>
+        <v>1700.882543097057</v>
       </c>
       <c r="AC2" t="n">
-        <v>1298.39337703179</v>
+        <v>1538.552700387516</v>
       </c>
       <c r="AD2" t="n">
-        <v>1049070.437877717</v>
+        <v>1243113.361208986</v>
       </c>
       <c r="AE2" t="n">
-        <v>1435384.454825612</v>
+        <v>1700882.543097057</v>
       </c>
       <c r="AF2" t="n">
         <v>4.362352503855581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.41796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1298393.37703179</v>
+        <v>1538552.700387516</v>
       </c>
     </row>
     <row r="3">
@@ -16101,28 +16101,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>613.6001218333757</v>
+        <v>739.7488751104195</v>
       </c>
       <c r="AB3" t="n">
-        <v>839.554756819287</v>
+        <v>1012.157046343154</v>
       </c>
       <c r="AC3" t="n">
-        <v>759.4288291509554</v>
+        <v>915.5581984114993</v>
       </c>
       <c r="AD3" t="n">
-        <v>613600.1218333758</v>
+        <v>739748.8751104195</v>
       </c>
       <c r="AE3" t="n">
-        <v>839554.7568192871</v>
+        <v>1012157.046343154</v>
       </c>
       <c r="AF3" t="n">
         <v>6.358321189457528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.35416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>759428.8291509554</v>
+        <v>915558.1984114994</v>
       </c>
     </row>
     <row r="4">
@@ -16207,28 +16207,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>526.4815114261158</v>
+        <v>642.9886558120372</v>
       </c>
       <c r="AB4" t="n">
-        <v>720.3552306582367</v>
+        <v>879.7654455395061</v>
       </c>
       <c r="AC4" t="n">
-        <v>651.6055384691299</v>
+        <v>795.8018661757728</v>
       </c>
       <c r="AD4" t="n">
-        <v>526481.5114261159</v>
+        <v>642988.6558120372</v>
       </c>
       <c r="AE4" t="n">
-        <v>720355.2306582367</v>
+        <v>879765.4455395062</v>
       </c>
       <c r="AF4" t="n">
         <v>7.078558535641979e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>651605.5384691299</v>
+        <v>795801.8661757729</v>
       </c>
     </row>
     <row r="5">
@@ -16313,28 +16313,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>491.2525338556225</v>
+        <v>607.6240275962776</v>
       </c>
       <c r="AB5" t="n">
-        <v>672.1533893534867</v>
+        <v>831.378001037419</v>
       </c>
       <c r="AC5" t="n">
-        <v>608.0040132467961</v>
+        <v>752.0324514647599</v>
       </c>
       <c r="AD5" t="n">
-        <v>491252.5338556225</v>
+        <v>607624.0275962777</v>
       </c>
       <c r="AE5" t="n">
-        <v>672153.3893534867</v>
+        <v>831378.0010374191</v>
       </c>
       <c r="AF5" t="n">
         <v>7.462101654231984e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.4609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>608004.0132467961</v>
+        <v>752032.4514647599</v>
       </c>
     </row>
     <row r="6">
@@ -16419,28 +16419,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>466.6780410587881</v>
+        <v>573.4762567458826</v>
       </c>
       <c r="AB6" t="n">
-        <v>638.5294841587512</v>
+        <v>784.6555144665814</v>
       </c>
       <c r="AC6" t="n">
-        <v>577.5891263723988</v>
+        <v>709.7690934368213</v>
       </c>
       <c r="AD6" t="n">
-        <v>466678.0410587881</v>
+        <v>573476.2567458826</v>
       </c>
       <c r="AE6" t="n">
-        <v>638529.4841587512</v>
+        <v>784655.5144665814</v>
       </c>
       <c r="AF6" t="n">
         <v>7.707157391747209e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.74479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>577589.1263723988</v>
+        <v>709769.0934368214</v>
       </c>
     </row>
     <row r="7">
@@ -16525,28 +16525,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>456.4869614348162</v>
+        <v>563.1836918954253</v>
       </c>
       <c r="AB7" t="n">
-        <v>624.5855994185309</v>
+        <v>770.5727731622718</v>
       </c>
       <c r="AC7" t="n">
-        <v>564.97602642142</v>
+        <v>697.0303891973435</v>
       </c>
       <c r="AD7" t="n">
-        <v>456486.9614348162</v>
+        <v>563183.6918954253</v>
       </c>
       <c r="AE7" t="n">
-        <v>624585.5994185309</v>
+        <v>770572.7731622718</v>
       </c>
       <c r="AF7" t="n">
         <v>7.877048974478354e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>564976.02642142</v>
+        <v>697030.3891973435</v>
       </c>
     </row>
     <row r="8">
@@ -16631,28 +16631,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>450.3352121917908</v>
+        <v>547.3913447911349</v>
       </c>
       <c r="AB8" t="n">
-        <v>616.1685047082011</v>
+        <v>748.9649871449986</v>
       </c>
       <c r="AC8" t="n">
-        <v>557.3622474167776</v>
+        <v>677.4848199508407</v>
       </c>
       <c r="AD8" t="n">
-        <v>450335.2121917909</v>
+        <v>547391.3447911349</v>
       </c>
       <c r="AE8" t="n">
-        <v>616168.5047082012</v>
+        <v>748964.9871449986</v>
       </c>
       <c r="AF8" t="n">
         <v>7.978726512628053e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.00260416666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>557362.2474167775</v>
+        <v>677484.8199508407</v>
       </c>
     </row>
     <row r="9">
@@ -16737,28 +16737,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>435.3004861555508</v>
+        <v>542.0645364238644</v>
       </c>
       <c r="AB9" t="n">
-        <v>595.5973292601171</v>
+        <v>741.6766129346997</v>
       </c>
       <c r="AC9" t="n">
-        <v>538.7543560816325</v>
+        <v>670.8920379458752</v>
       </c>
       <c r="AD9" t="n">
-        <v>435300.4861555508</v>
+        <v>542064.5364238644</v>
       </c>
       <c r="AE9" t="n">
-        <v>595597.3292601171</v>
+        <v>741676.6129346997</v>
       </c>
       <c r="AF9" t="n">
         <v>8.064701949949572e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.78125</v>
       </c>
       <c r="AH9" t="n">
-        <v>538754.3560816325</v>
+        <v>670892.0379458752</v>
       </c>
     </row>
     <row r="10">
@@ -16843,28 +16843,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>430.3594111022182</v>
+        <v>537.1234613705319</v>
       </c>
       <c r="AB10" t="n">
-        <v>588.8367323873008</v>
+        <v>734.9160160618833</v>
       </c>
       <c r="AC10" t="n">
-        <v>532.6389810858005</v>
+        <v>664.7766629500431</v>
       </c>
       <c r="AD10" t="n">
-        <v>430359.4111022182</v>
+        <v>537123.4613705319</v>
       </c>
       <c r="AE10" t="n">
-        <v>588836.7323873008</v>
+        <v>734916.0160618833</v>
       </c>
       <c r="AF10" t="n">
         <v>8.140895750689599e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.5859375</v>
       </c>
       <c r="AH10" t="n">
-        <v>532638.9810858006</v>
+        <v>664776.6629500431</v>
       </c>
     </row>
     <row r="11">
@@ -16949,28 +16949,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>426.6140668806289</v>
+        <v>523.6360340611923</v>
       </c>
       <c r="AB11" t="n">
-        <v>583.7121871903969</v>
+        <v>716.4619229939466</v>
       </c>
       <c r="AC11" t="n">
-        <v>528.0035152901447</v>
+        <v>648.083802624028</v>
       </c>
       <c r="AD11" t="n">
-        <v>426614.0668806289</v>
+        <v>523636.0340611923</v>
       </c>
       <c r="AE11" t="n">
-        <v>583712.1871903969</v>
+        <v>716461.9229939466</v>
       </c>
       <c r="AF11" t="n">
         <v>8.198298512733606e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.44270833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>528003.5152901447</v>
+        <v>648083.8026240279</v>
       </c>
     </row>
     <row r="12">
@@ -17055,28 +17055,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>423.8269749404227</v>
+        <v>520.8489421209861</v>
       </c>
       <c r="AB12" t="n">
-        <v>579.8987650399881</v>
+        <v>712.6485008435379</v>
       </c>
       <c r="AC12" t="n">
-        <v>524.5540407975994</v>
+        <v>644.6343281314827</v>
       </c>
       <c r="AD12" t="n">
-        <v>423826.9749404227</v>
+        <v>520848.9421209861</v>
       </c>
       <c r="AE12" t="n">
-        <v>579898.7650399881</v>
+        <v>712648.500843538</v>
       </c>
       <c r="AF12" t="n">
         <v>8.232791652257808e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.35807291666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>524554.0407975995</v>
+        <v>644634.3281314827</v>
       </c>
     </row>
     <row r="13">
@@ -17161,28 +17161,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>420.9933256440469</v>
+        <v>518.0152928246101</v>
       </c>
       <c r="AB13" t="n">
-        <v>576.0216410609028</v>
+        <v>708.7713768644523</v>
       </c>
       <c r="AC13" t="n">
-        <v>521.0469440895002</v>
+        <v>641.1272314233834</v>
       </c>
       <c r="AD13" t="n">
-        <v>420993.3256440469</v>
+        <v>518015.2928246101</v>
       </c>
       <c r="AE13" t="n">
-        <v>576021.6410609027</v>
+        <v>708771.3768644524</v>
       </c>
       <c r="AF13" t="n">
         <v>8.265740322848089e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.2734375</v>
       </c>
       <c r="AH13" t="n">
-        <v>521046.9440895002</v>
+        <v>641127.2314233833</v>
       </c>
     </row>
     <row r="14">
@@ -17267,28 +17267,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>417.3759665161078</v>
+        <v>514.3979336966712</v>
       </c>
       <c r="AB14" t="n">
-        <v>571.0722107154348</v>
+        <v>703.8219465189846</v>
       </c>
       <c r="AC14" t="n">
-        <v>516.5698804296347</v>
+        <v>636.650167763518</v>
       </c>
       <c r="AD14" t="n">
-        <v>417375.9665161078</v>
+        <v>514397.9336966712</v>
       </c>
       <c r="AE14" t="n">
-        <v>571072.2107154349</v>
+        <v>703821.9465189846</v>
       </c>
       <c r="AF14" t="n">
         <v>8.311302156398715e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.16276041666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>516569.8804296347</v>
+        <v>636650.1677635179</v>
       </c>
     </row>
     <row r="15">
@@ -17373,28 +17373,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>414.1999365892209</v>
+        <v>511.2219037697843</v>
       </c>
       <c r="AB15" t="n">
-        <v>566.7266264529168</v>
+        <v>699.4763622564664</v>
       </c>
       <c r="AC15" t="n">
-        <v>512.6390326300655</v>
+        <v>632.7193199639487</v>
       </c>
       <c r="AD15" t="n">
-        <v>414199.9365892209</v>
+        <v>511221.9037697843</v>
       </c>
       <c r="AE15" t="n">
-        <v>566726.6264529168</v>
+        <v>699476.3622564664</v>
       </c>
       <c r="AF15" t="n">
         <v>8.344250826988997e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.08463541666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>512639.0326300655</v>
+        <v>632719.3199639487</v>
       </c>
     </row>
     <row r="16">
@@ -17479,28 +17479,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>411.6262044816162</v>
+        <v>508.6481716621796</v>
       </c>
       <c r="AB16" t="n">
-        <v>563.2051326382451</v>
+        <v>695.9548684417948</v>
       </c>
       <c r="AC16" t="n">
-        <v>509.4536252426185</v>
+        <v>629.5339125765017</v>
       </c>
       <c r="AD16" t="n">
-        <v>411626.2044816163</v>
+        <v>508648.1716621796</v>
       </c>
       <c r="AE16" t="n">
-        <v>563205.1326382451</v>
+        <v>695954.8684417948</v>
       </c>
       <c r="AF16" t="n">
         <v>8.370249387376643e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.01953125</v>
       </c>
       <c r="AH16" t="n">
-        <v>509453.6252426185</v>
+        <v>629533.9125765017</v>
       </c>
     </row>
     <row r="17">
@@ -17585,28 +17585,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>400.2009684519539</v>
+        <v>506.9308533014868</v>
       </c>
       <c r="AB17" t="n">
-        <v>547.5726206566212</v>
+        <v>693.6051576979559</v>
       </c>
       <c r="AC17" t="n">
-        <v>495.3130582641524</v>
+        <v>627.4084549282151</v>
       </c>
       <c r="AD17" t="n">
-        <v>400200.9684519539</v>
+        <v>506930.8533014868</v>
       </c>
       <c r="AE17" t="n">
-        <v>547572.6206566212</v>
+        <v>693605.1576979558</v>
       </c>
       <c r="AF17" t="n">
         <v>8.384407019270904e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.98697916666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>495313.0582641524</v>
+        <v>627408.454928215</v>
       </c>
     </row>
     <row r="18">
@@ -17691,28 +17691,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>397.6171897092244</v>
+        <v>504.3470745587572</v>
       </c>
       <c r="AB18" t="n">
-        <v>544.0373805925453</v>
+        <v>690.0699176338801</v>
       </c>
       <c r="AC18" t="n">
-        <v>492.1152165500514</v>
+        <v>624.2106132141141</v>
       </c>
       <c r="AD18" t="n">
-        <v>397617.1897092244</v>
+        <v>504347.0745587572</v>
       </c>
       <c r="AE18" t="n">
-        <v>544037.3805925454</v>
+        <v>690069.91763388</v>
       </c>
       <c r="AF18" t="n">
         <v>8.410662991147534e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.92838541666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>492115.2165500514</v>
+        <v>624210.6132141141</v>
       </c>
     </row>
     <row r="19">
@@ -17797,28 +17797,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>395.313202333948</v>
+        <v>502.0430871834808</v>
       </c>
       <c r="AB19" t="n">
-        <v>540.884963420943</v>
+        <v>686.9175004622776</v>
       </c>
       <c r="AC19" t="n">
-        <v>489.2636616488615</v>
+        <v>621.3590583129242</v>
       </c>
       <c r="AD19" t="n">
-        <v>395313.202333948</v>
+        <v>502043.0871834808</v>
       </c>
       <c r="AE19" t="n">
-        <v>540884.963420943</v>
+        <v>686917.5004622777</v>
       </c>
       <c r="AF19" t="n">
         <v>8.427394737931662e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.8828125</v>
       </c>
       <c r="AH19" t="n">
-        <v>489263.6616488615</v>
+        <v>621359.0583129241</v>
       </c>
     </row>
     <row r="20">
@@ -17903,28 +17903,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>392.3571140818425</v>
+        <v>499.0869989313753</v>
       </c>
       <c r="AB20" t="n">
-        <v>536.8403130610027</v>
+        <v>682.8728501023373</v>
       </c>
       <c r="AC20" t="n">
-        <v>485.6050270425714</v>
+        <v>617.700423706634</v>
       </c>
       <c r="AD20" t="n">
-        <v>392357.1140818425</v>
+        <v>499086.9989313753</v>
       </c>
       <c r="AE20" t="n">
-        <v>536840.3130610026</v>
+        <v>682872.8501023373</v>
       </c>
       <c r="AF20" t="n">
         <v>8.444383896204777e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.84375</v>
       </c>
       <c r="AH20" t="n">
-        <v>485605.0270425714</v>
+        <v>617700.423706634</v>
       </c>
     </row>
     <row r="21">
@@ -18009,28 +18009,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>392.4259158222707</v>
+        <v>499.1558006718037</v>
       </c>
       <c r="AB21" t="n">
-        <v>536.9344506375752</v>
+        <v>682.9669876789098</v>
       </c>
       <c r="AC21" t="n">
-        <v>485.6901802609588</v>
+        <v>617.7855769250214</v>
       </c>
       <c r="AD21" t="n">
-        <v>392425.9158222707</v>
+        <v>499155.8006718036</v>
       </c>
       <c r="AE21" t="n">
-        <v>536934.4506375752</v>
+        <v>682966.9876789098</v>
       </c>
       <c r="AF21" t="n">
         <v>8.442582015781871e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>19.85026041666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>485690.1802609587</v>
+        <v>617785.5769250214</v>
       </c>
     </row>
     <row r="22">
@@ -18115,28 +18115,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>389.896784429752</v>
+        <v>496.6266692792849</v>
       </c>
       <c r="AB22" t="n">
-        <v>533.4739814889288</v>
+        <v>679.5065185302633</v>
       </c>
       <c r="AC22" t="n">
-        <v>482.5599734310601</v>
+        <v>614.6553700951229</v>
       </c>
       <c r="AD22" t="n">
-        <v>389896.784429752</v>
+        <v>496626.6692792849</v>
       </c>
       <c r="AE22" t="n">
-        <v>533473.9814889288</v>
+        <v>679506.5185302633</v>
       </c>
       <c r="AF22" t="n">
         <v>8.462660111922824e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>20</v>
+        <v>19.8046875</v>
       </c>
       <c r="AH22" t="n">
-        <v>482559.9734310601</v>
+        <v>614655.3700951228</v>
       </c>
     </row>
     <row r="23">
@@ -18221,28 +18221,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>390.3051396948038</v>
+        <v>487.3944266830714</v>
       </c>
       <c r="AB23" t="n">
-        <v>534.0327111779354</v>
+        <v>666.8745569123265</v>
       </c>
       <c r="AC23" t="n">
-        <v>483.06537874273</v>
+        <v>603.2289851649323</v>
       </c>
       <c r="AD23" t="n">
-        <v>390305.1396948037</v>
+        <v>487394.4266830714</v>
       </c>
       <c r="AE23" t="n">
-        <v>534032.7111779355</v>
+        <v>666874.5569123265</v>
       </c>
       <c r="AF23" t="n">
         <v>8.464976815323702e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>19.79817708333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>483065.3787427301</v>
+        <v>603228.9851649323</v>
       </c>
     </row>
     <row r="24">
@@ -18327,28 +18327,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>391.274047575761</v>
+        <v>498.0039324252938</v>
       </c>
       <c r="AB24" t="n">
-        <v>535.35841368586</v>
+        <v>681.3909507271945</v>
       </c>
       <c r="AC24" t="n">
-        <v>484.2645580639336</v>
+        <v>616.3599547279962</v>
       </c>
       <c r="AD24" t="n">
-        <v>391274.047575761</v>
+        <v>498003.9324252938</v>
       </c>
       <c r="AE24" t="n">
-        <v>535358.41368586</v>
+        <v>681390.9507271945</v>
       </c>
       <c r="AF24" t="n">
         <v>8.460085997032958e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>19.81119791666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>484264.5580639336</v>
+        <v>616359.9547279961</v>
       </c>
     </row>
   </sheetData>
@@ -18624,28 +18624,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>353.8223972527351</v>
+        <v>464.0624521914963</v>
       </c>
       <c r="AB2" t="n">
-        <v>484.1154134636937</v>
+        <v>634.9507200788856</v>
       </c>
       <c r="AC2" t="n">
-        <v>437.9121178629682</v>
+        <v>574.3519145134887</v>
       </c>
       <c r="AD2" t="n">
-        <v>353822.3972527351</v>
+        <v>464062.4521914963</v>
       </c>
       <c r="AE2" t="n">
-        <v>484115.4134636937</v>
+        <v>634950.7200788857</v>
       </c>
       <c r="AF2" t="n">
         <v>1.306567415025797e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.99479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>437912.1178629682</v>
+        <v>574351.9145134888</v>
       </c>
     </row>
     <row r="3">
@@ -18730,28 +18730,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.4062521608676</v>
+        <v>404.4567887365002</v>
       </c>
       <c r="AB3" t="n">
-        <v>415.1338195456555</v>
+        <v>553.3956217234775</v>
       </c>
       <c r="AC3" t="n">
-        <v>375.5140304521925</v>
+        <v>500.5803202818212</v>
       </c>
       <c r="AD3" t="n">
-        <v>303406.2521608676</v>
+        <v>404456.7887365003</v>
       </c>
       <c r="AE3" t="n">
-        <v>415133.8195456555</v>
+        <v>553395.6217234775</v>
       </c>
       <c r="AF3" t="n">
         <v>1.458191250517208e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.59895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>375514.0304521925</v>
+        <v>500580.3202818212</v>
       </c>
     </row>
     <row r="4">
@@ -18836,28 +18836,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>299.1559440864934</v>
+        <v>390.9838079100739</v>
       </c>
       <c r="AB4" t="n">
-        <v>409.3183605279384</v>
+        <v>534.9612949707966</v>
       </c>
       <c r="AC4" t="n">
-        <v>370.2535906810783</v>
+        <v>483.9053398016761</v>
       </c>
       <c r="AD4" t="n">
-        <v>299155.9440864934</v>
+        <v>390983.807910074</v>
       </c>
       <c r="AE4" t="n">
-        <v>409318.3605279383</v>
+        <v>534961.2949707967</v>
       </c>
       <c r="AF4" t="n">
         <v>1.479416741791112e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.30598958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>370253.5906810783</v>
+        <v>483905.3398016761</v>
       </c>
     </row>
   </sheetData>
@@ -19133,28 +19133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>773.8519729625021</v>
+        <v>936.8213518648031</v>
       </c>
       <c r="AB2" t="n">
-        <v>1058.818409346867</v>
+        <v>1281.800303262569</v>
       </c>
       <c r="AC2" t="n">
-        <v>957.7662664197723</v>
+        <v>1159.467081337213</v>
       </c>
       <c r="AD2" t="n">
-        <v>773851.9729625022</v>
+        <v>936821.3518648031</v>
       </c>
       <c r="AE2" t="n">
-        <v>1058818.409346867</v>
+        <v>1281800.303262569</v>
       </c>
       <c r="AF2" t="n">
         <v>5.708464022643243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.71484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>957766.2664197723</v>
+        <v>1159467.081337213</v>
       </c>
     </row>
     <row r="3">
@@ -19239,28 +19239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>514.7204448485761</v>
+        <v>639.2345633900198</v>
       </c>
       <c r="AB3" t="n">
-        <v>704.2632205052089</v>
+        <v>874.628930668833</v>
       </c>
       <c r="AC3" t="n">
-        <v>637.0493271798289</v>
+        <v>791.1555730752129</v>
       </c>
       <c r="AD3" t="n">
-        <v>514720.4448485762</v>
+        <v>639234.5633900198</v>
       </c>
       <c r="AE3" t="n">
-        <v>704263.2205052089</v>
+        <v>874628.9306688331</v>
       </c>
       <c r="AF3" t="n">
         <v>7.639681401020138e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.44010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>637049.3271798289</v>
+        <v>791155.5730752129</v>
       </c>
     </row>
     <row r="4">
@@ -19345,28 +19345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>456.9462498203389</v>
+        <v>571.8719245781894</v>
       </c>
       <c r="AB4" t="n">
-        <v>625.2140180499765</v>
+        <v>782.4603964166038</v>
       </c>
       <c r="AC4" t="n">
-        <v>565.5444696606717</v>
+        <v>707.7834743726661</v>
       </c>
       <c r="AD4" t="n">
-        <v>456946.2498203389</v>
+        <v>571871.9245781894</v>
       </c>
       <c r="AE4" t="n">
-        <v>625214.0180499766</v>
+        <v>782460.3964166038</v>
       </c>
       <c r="AF4" t="n">
         <v>8.321473129581236e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.44140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>565544.4696606717</v>
+        <v>707783.4743726661</v>
       </c>
     </row>
     <row r="5">
@@ -19451,28 +19451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>430.6989054238323</v>
+        <v>536.1717870433558</v>
       </c>
       <c r="AB5" t="n">
-        <v>589.3012434955657</v>
+        <v>733.613893262533</v>
       </c>
       <c r="AC5" t="n">
-        <v>533.0591599058381</v>
+        <v>663.598812923122</v>
       </c>
       <c r="AD5" t="n">
-        <v>430698.9054238324</v>
+        <v>536171.7870433559</v>
       </c>
       <c r="AE5" t="n">
-        <v>589301.2434955657</v>
+        <v>733613.893262533</v>
       </c>
       <c r="AF5" t="n">
         <v>8.655915348976374e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.57552083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>533059.1599058381</v>
+        <v>663598.812923122</v>
       </c>
     </row>
     <row r="6">
@@ -19557,28 +19557,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>419.642788282892</v>
+        <v>515.4940717298989</v>
       </c>
       <c r="AB6" t="n">
-        <v>574.1737762618674</v>
+        <v>705.3217309342439</v>
       </c>
       <c r="AC6" t="n">
-        <v>519.3754369133902</v>
+        <v>638.0068148591456</v>
       </c>
       <c r="AD6" t="n">
-        <v>419642.788282892</v>
+        <v>515494.0717298989</v>
       </c>
       <c r="AE6" t="n">
-        <v>574173.7762618674</v>
+        <v>705321.7309342439</v>
       </c>
       <c r="AF6" t="n">
         <v>8.881936334296586e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.02213541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>519375.4369133902</v>
+        <v>638006.8148591456</v>
       </c>
     </row>
     <row r="7">
@@ -19663,28 +19663,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>402.4094300513553</v>
+        <v>507.848146252098</v>
       </c>
       <c r="AB7" t="n">
-        <v>550.5943352473716</v>
+        <v>694.8602383810912</v>
       </c>
       <c r="AC7" t="n">
-        <v>498.0463846553647</v>
+        <v>628.5437524724689</v>
       </c>
       <c r="AD7" t="n">
-        <v>402409.4300513553</v>
+        <v>507848.146252098</v>
       </c>
       <c r="AE7" t="n">
-        <v>550594.3352473717</v>
+        <v>694860.2383810913</v>
       </c>
       <c r="AF7" t="n">
         <v>9.031947724299722e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.67708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>498046.3846553647</v>
+        <v>628543.7524724689</v>
       </c>
     </row>
     <row r="8">
@@ -19769,28 +19769,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>396.1108261760206</v>
+        <v>491.9279442042466</v>
       </c>
       <c r="AB8" t="n">
-        <v>541.9763075503471</v>
+        <v>673.0775155894759</v>
       </c>
       <c r="AC8" t="n">
-        <v>490.2508494262663</v>
+        <v>608.8399421718417</v>
       </c>
       <c r="AD8" t="n">
-        <v>396110.8261760205</v>
+        <v>491927.9442042466</v>
       </c>
       <c r="AE8" t="n">
-        <v>541976.3075503471</v>
+        <v>673077.5155894759</v>
       </c>
       <c r="AF8" t="n">
         <v>9.146105531606125e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.41666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>490250.8494262663</v>
+        <v>608839.9421718417</v>
       </c>
     </row>
     <row r="9">
@@ -19875,28 +19875,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>391.1515204981051</v>
+        <v>486.9686385263312</v>
       </c>
       <c r="AB9" t="n">
-        <v>535.1907667326981</v>
+        <v>666.2919747718267</v>
       </c>
       <c r="AC9" t="n">
-        <v>484.1129111006874</v>
+        <v>602.7020038462629</v>
       </c>
       <c r="AD9" t="n">
-        <v>391151.5204981051</v>
+        <v>486968.6385263312</v>
       </c>
       <c r="AE9" t="n">
-        <v>535190.7667326981</v>
+        <v>666291.9747718268</v>
       </c>
       <c r="AF9" t="n">
         <v>9.22641755684681e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.24088541666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>484112.9111006873</v>
+        <v>602702.0038462628</v>
       </c>
     </row>
     <row r="10">
@@ -19981,28 +19981,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>387.8401416027335</v>
+        <v>483.6572596309596</v>
       </c>
       <c r="AB10" t="n">
-        <v>530.6599920403241</v>
+        <v>661.7612000794529</v>
       </c>
       <c r="AC10" t="n">
-        <v>480.0145471859714</v>
+        <v>598.6036399315468</v>
       </c>
       <c r="AD10" t="n">
-        <v>387840.1416027335</v>
+        <v>483657.2596309596</v>
       </c>
       <c r="AE10" t="n">
-        <v>530659.9920403241</v>
+        <v>661761.2000794529</v>
       </c>
       <c r="AF10" t="n">
         <v>9.275752086637515e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.13020833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>480014.5471859714</v>
+        <v>598603.6399315468</v>
       </c>
     </row>
     <row r="11">
@@ -20087,28 +20087,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>383.4439864330373</v>
+        <v>479.2611044612634</v>
       </c>
       <c r="AB11" t="n">
-        <v>524.6449785924675</v>
+        <v>655.7461866315964</v>
       </c>
       <c r="AC11" t="n">
-        <v>474.5735981794538</v>
+        <v>593.1626909250292</v>
       </c>
       <c r="AD11" t="n">
-        <v>383443.9864330373</v>
+        <v>479261.1044612633</v>
       </c>
       <c r="AE11" t="n">
-        <v>524644.9785924675</v>
+        <v>655746.1866315964</v>
       </c>
       <c r="AF11" t="n">
         <v>9.334265133598587e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.00651041666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>474573.5981794538</v>
+        <v>593162.6909250292</v>
       </c>
     </row>
     <row r="12">
@@ -20193,28 +20193,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>370.1538612847541</v>
+        <v>475.5584120667161</v>
       </c>
       <c r="AB12" t="n">
-        <v>506.4608430456454</v>
+        <v>650.6799995461172</v>
       </c>
       <c r="AC12" t="n">
-        <v>458.1249310076259</v>
+        <v>588.58001362455</v>
       </c>
       <c r="AD12" t="n">
-        <v>370153.8612847541</v>
+        <v>475558.4120667161</v>
       </c>
       <c r="AE12" t="n">
-        <v>506460.8430456454</v>
+        <v>650679.9995461171</v>
       </c>
       <c r="AF12" t="n">
         <v>9.37528163220365e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.91536458333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>458124.9310076259</v>
+        <v>588580.0136245501</v>
       </c>
     </row>
     <row r="13">
@@ -20299,28 +20299,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>366.0417304811607</v>
+        <v>471.4462812631227</v>
       </c>
       <c r="AB13" t="n">
-        <v>500.8344442657614</v>
+        <v>645.0536007662332</v>
       </c>
       <c r="AC13" t="n">
-        <v>453.0355078305938</v>
+        <v>583.4905904475178</v>
       </c>
       <c r="AD13" t="n">
-        <v>366041.7304811607</v>
+        <v>471446.2812631227</v>
       </c>
       <c r="AE13" t="n">
-        <v>500834.4442657614</v>
+        <v>645053.6007662332</v>
       </c>
       <c r="AF13" t="n">
         <v>9.419453246086027e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.82421875</v>
       </c>
       <c r="AH13" t="n">
-        <v>453035.5078305937</v>
+        <v>583490.5904475178</v>
       </c>
     </row>
     <row r="14">
@@ -20405,28 +20405,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>364.3141497132901</v>
+        <v>469.7187004952521</v>
       </c>
       <c r="AB14" t="n">
-        <v>498.4706920436764</v>
+        <v>642.689848544148</v>
       </c>
       <c r="AC14" t="n">
-        <v>450.8973488030374</v>
+        <v>581.3524314199616</v>
       </c>
       <c r="AD14" t="n">
-        <v>364314.1497132902</v>
+        <v>469718.7004952521</v>
       </c>
       <c r="AE14" t="n">
-        <v>498470.6920436764</v>
+        <v>642689.848544148</v>
       </c>
       <c r="AF14" t="n">
         <v>9.430065906564262e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.8046875</v>
       </c>
       <c r="AH14" t="n">
-        <v>450897.3488030374</v>
+        <v>581352.4314199616</v>
       </c>
     </row>
     <row r="15">
@@ -20511,28 +20511,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>362.4582868639903</v>
+        <v>458.3427246999208</v>
       </c>
       <c r="AB15" t="n">
-        <v>495.9314186183739</v>
+        <v>627.1247365883443</v>
       </c>
       <c r="AC15" t="n">
-        <v>448.6004200695532</v>
+        <v>567.2728319034477</v>
       </c>
       <c r="AD15" t="n">
-        <v>362458.2868639903</v>
+        <v>458342.7246999209</v>
       </c>
       <c r="AE15" t="n">
-        <v>495931.4186183739</v>
+        <v>627124.7365883442</v>
       </c>
       <c r="AF15" t="n">
         <v>9.453585856813319e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.75260416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>448600.4200695532</v>
+        <v>567272.8319034477</v>
       </c>
     </row>
     <row r="16">
@@ -20617,28 +20617,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>363.4583661985309</v>
+        <v>459.3428040344614</v>
       </c>
       <c r="AB16" t="n">
-        <v>497.2997712842787</v>
+        <v>628.4930892542491</v>
       </c>
       <c r="AC16" t="n">
-        <v>449.8381790775191</v>
+        <v>568.5105909114137</v>
       </c>
       <c r="AD16" t="n">
-        <v>363458.3661985309</v>
+        <v>459342.8040344614</v>
       </c>
       <c r="AE16" t="n">
-        <v>497299.7712842787</v>
+        <v>628493.0892542491</v>
       </c>
       <c r="AF16" t="n">
         <v>9.454446342798038e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.75260416666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>449838.1790775191</v>
+        <v>568510.5909114137</v>
       </c>
     </row>
   </sheetData>
@@ -20914,28 +20914,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>902.4736171942562</v>
+        <v>1076.09175976951</v>
       </c>
       <c r="AB2" t="n">
-        <v>1234.804217371219</v>
+        <v>1472.356219534551</v>
       </c>
       <c r="AC2" t="n">
-        <v>1116.956235923912</v>
+        <v>1331.836608407106</v>
       </c>
       <c r="AD2" t="n">
-        <v>902473.6171942563</v>
+        <v>1076091.75976951</v>
       </c>
       <c r="AE2" t="n">
-        <v>1234804.217371219</v>
+        <v>1472356.219534551</v>
       </c>
       <c r="AF2" t="n">
         <v>4.977844486716082e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.41015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1116956.235923912</v>
+        <v>1331836.608407106</v>
       </c>
     </row>
     <row r="3">
@@ -21020,28 +21020,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>564.4243748407354</v>
+        <v>689.7870652488394</v>
       </c>
       <c r="AB3" t="n">
-        <v>772.2703303031135</v>
+        <v>943.7970939310512</v>
       </c>
       <c r="AC3" t="n">
-        <v>698.5659338671995</v>
+        <v>853.7224239138118</v>
       </c>
       <c r="AD3" t="n">
-        <v>564424.3748407353</v>
+        <v>689787.0652488394</v>
       </c>
       <c r="AE3" t="n">
-        <v>772270.3303031134</v>
+        <v>943797.0939310512</v>
       </c>
       <c r="AF3" t="n">
         <v>6.9301580184092e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.43619791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>698565.9338671996</v>
+        <v>853722.4239138118</v>
       </c>
     </row>
     <row r="4">
@@ -21126,28 +21126,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>496.36951540494</v>
+        <v>602.4983557837458</v>
       </c>
       <c r="AB4" t="n">
-        <v>679.1546692545566</v>
+        <v>824.3648307348318</v>
       </c>
       <c r="AC4" t="n">
-        <v>614.3371008204658</v>
+        <v>745.6886082928054</v>
       </c>
       <c r="AD4" t="n">
-        <v>496369.51540494</v>
+        <v>602498.3557837458</v>
       </c>
       <c r="AE4" t="n">
-        <v>679154.6692545565</v>
+        <v>824364.8307348317</v>
       </c>
       <c r="AF4" t="n">
         <v>7.648704698913088e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>614337.1008204658</v>
+        <v>745688.6082928054</v>
       </c>
     </row>
     <row r="5">
@@ -21232,28 +21232,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>455.2403043898718</v>
+        <v>570.9850587534695</v>
       </c>
       <c r="AB5" t="n">
-        <v>622.8798682510106</v>
+        <v>781.2469474694631</v>
       </c>
       <c r="AC5" t="n">
-        <v>563.4330878425192</v>
+        <v>706.6858352899542</v>
       </c>
       <c r="AD5" t="n">
-        <v>455240.3043898718</v>
+        <v>570985.0587534695</v>
       </c>
       <c r="AE5" t="n">
-        <v>622879.8682510107</v>
+        <v>781246.9474694631</v>
       </c>
       <c r="AF5" t="n">
         <v>8.024493241693569e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.96614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>563433.0878425192</v>
+        <v>706685.8352899542</v>
       </c>
     </row>
     <row r="6">
@@ -21338,28 +21338,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>443.6544424036651</v>
+        <v>549.7149519449093</v>
       </c>
       <c r="AB6" t="n">
-        <v>607.0275807493259</v>
+        <v>752.1442489631055</v>
       </c>
       <c r="AC6" t="n">
-        <v>549.0937204111699</v>
+        <v>680.3606574831496</v>
       </c>
       <c r="AD6" t="n">
-        <v>443654.4424036651</v>
+        <v>549714.9519449093</v>
       </c>
       <c r="AE6" t="n">
-        <v>607027.5807493259</v>
+        <v>752144.2489631055</v>
       </c>
       <c r="AF6" t="n">
         <v>8.237295687389144e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.39973958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>549093.7204111699</v>
+        <v>680360.6574831496</v>
       </c>
     </row>
     <row r="7">
@@ -21444,28 +21444,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>425.2433007774534</v>
+        <v>531.3711301264021</v>
       </c>
       <c r="AB7" t="n">
-        <v>581.8366445340998</v>
+        <v>727.0454226787209</v>
       </c>
       <c r="AC7" t="n">
-        <v>526.3069717926238</v>
+        <v>657.6572279529227</v>
       </c>
       <c r="AD7" t="n">
-        <v>425243.3007774535</v>
+        <v>531371.1301264021</v>
       </c>
       <c r="AE7" t="n">
-        <v>581836.6445340998</v>
+        <v>727045.4226787209</v>
       </c>
       <c r="AF7" t="n">
         <v>8.395679187048064e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.99609375</v>
       </c>
       <c r="AH7" t="n">
-        <v>526306.9717926239</v>
+        <v>657657.2279529227</v>
       </c>
     </row>
     <row r="8">
@@ -21550,28 +21550,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>418.8568617120324</v>
+        <v>524.984691060981</v>
       </c>
       <c r="AB8" t="n">
-        <v>573.0984368549839</v>
+        <v>718.3072149996052</v>
       </c>
       <c r="AC8" t="n">
-        <v>518.4027263902515</v>
+        <v>649.7529825505501</v>
       </c>
       <c r="AD8" t="n">
-        <v>418856.8617120323</v>
+        <v>524984.691060981</v>
       </c>
       <c r="AE8" t="n">
-        <v>573098.4368549839</v>
+        <v>718307.2149996052</v>
       </c>
       <c r="AF8" t="n">
         <v>8.50343411502114e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.72916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>518402.7263902514</v>
+        <v>649752.9825505501</v>
       </c>
     </row>
     <row r="9">
@@ -21656,28 +21656,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>413.6603304539682</v>
+        <v>519.7881598029168</v>
       </c>
       <c r="AB9" t="n">
-        <v>565.9883135329214</v>
+        <v>711.1970916775426</v>
       </c>
       <c r="AC9" t="n">
-        <v>511.9711832589258</v>
+        <v>643.3214394192245</v>
       </c>
       <c r="AD9" t="n">
-        <v>413660.3304539682</v>
+        <v>519788.1598029168</v>
       </c>
       <c r="AE9" t="n">
-        <v>565988.3135329215</v>
+        <v>711197.0916775427</v>
       </c>
       <c r="AF9" t="n">
         <v>8.594944581490739e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.5078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>511971.1832589258</v>
+        <v>643321.4394192245</v>
       </c>
     </row>
     <row r="10">
@@ -21762,28 +21762,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>409.7203415194129</v>
+        <v>506.163926046008</v>
       </c>
       <c r="AB10" t="n">
-        <v>560.5974468526188</v>
+        <v>692.5558139925672</v>
       </c>
       <c r="AC10" t="n">
-        <v>507.0948133284623</v>
+        <v>626.4592591133055</v>
       </c>
       <c r="AD10" t="n">
-        <v>409720.3415194129</v>
+        <v>506163.926046008</v>
       </c>
       <c r="AE10" t="n">
-        <v>560597.4468526187</v>
+        <v>692555.8139925672</v>
       </c>
       <c r="AF10" t="n">
         <v>8.650175750602568e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.37760416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>507094.8133284623</v>
+        <v>626459.2591133055</v>
       </c>
     </row>
     <row r="11">
@@ -21868,28 +21868,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>406.1621609796236</v>
+        <v>502.6057455062187</v>
       </c>
       <c r="AB11" t="n">
-        <v>555.7289872622324</v>
+        <v>687.687354402181</v>
       </c>
       <c r="AC11" t="n">
-        <v>502.6909926884564</v>
+        <v>622.0554384732997</v>
       </c>
       <c r="AD11" t="n">
-        <v>406162.1609796237</v>
+        <v>502605.7455062188</v>
       </c>
       <c r="AE11" t="n">
-        <v>555728.9872622325</v>
+        <v>687687.354402181</v>
       </c>
       <c r="AF11" t="n">
         <v>8.704594696639223e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.24739583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>502690.9926884564</v>
+        <v>622055.4384732996</v>
       </c>
     </row>
     <row r="12">
@@ -21974,28 +21974,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>403.0243070248786</v>
+        <v>499.4678915514737</v>
       </c>
       <c r="AB12" t="n">
-        <v>551.4356370490038</v>
+        <v>683.3940041889524</v>
       </c>
       <c r="AC12" t="n">
-        <v>498.8073937938236</v>
+        <v>618.1718395786668</v>
       </c>
       <c r="AD12" t="n">
-        <v>403024.3070248786</v>
+        <v>499467.8915514737</v>
       </c>
       <c r="AE12" t="n">
-        <v>551435.6370490039</v>
+        <v>683394.0041889524</v>
       </c>
       <c r="AF12" t="n">
         <v>8.744122886297688e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.15625</v>
       </c>
       <c r="AH12" t="n">
-        <v>498807.3937938235</v>
+        <v>618171.8395786667</v>
       </c>
     </row>
     <row r="13">
@@ -22080,28 +22080,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>399.0353464303228</v>
+        <v>495.4789309569178</v>
       </c>
       <c r="AB13" t="n">
-        <v>545.9777651830112</v>
+        <v>677.9361323229596</v>
       </c>
       <c r="AC13" t="n">
-        <v>493.87041355855</v>
+        <v>613.2348593433933</v>
       </c>
       <c r="AD13" t="n">
-        <v>399035.3464303227</v>
+        <v>495478.9309569178</v>
       </c>
       <c r="AE13" t="n">
-        <v>545977.7651830112</v>
+        <v>677936.1323229596</v>
       </c>
       <c r="AF13" t="n">
         <v>8.787170709281908e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.05859375</v>
       </c>
       <c r="AH13" t="n">
-        <v>493870.4135585499</v>
+        <v>613234.8593433932</v>
       </c>
     </row>
     <row r="14">
@@ -22186,28 +22186,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>386.6497500380078</v>
+        <v>492.7434139681757</v>
       </c>
       <c r="AB14" t="n">
-        <v>529.031245785097</v>
+        <v>674.1932772964703</v>
       </c>
       <c r="AC14" t="n">
-        <v>478.5412461873834</v>
+        <v>609.8492171475021</v>
       </c>
       <c r="AD14" t="n">
-        <v>386649.7500380077</v>
+        <v>492743.4139681756</v>
       </c>
       <c r="AE14" t="n">
-        <v>529031.245785097</v>
+        <v>674193.2772964704</v>
       </c>
       <c r="AF14" t="n">
         <v>8.824262229714853e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.97395833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>478541.2461873834</v>
+        <v>609849.2171475021</v>
       </c>
     </row>
     <row r="15">
@@ -22292,28 +22292,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>383.7558742248553</v>
+        <v>489.8495381550233</v>
       </c>
       <c r="AB15" t="n">
-        <v>525.0717172287514</v>
+        <v>670.2337487401247</v>
       </c>
       <c r="AC15" t="n">
-        <v>474.9596094792222</v>
+        <v>606.2675804393409</v>
       </c>
       <c r="AD15" t="n">
-        <v>383755.8742248553</v>
+        <v>489849.5381550232</v>
       </c>
       <c r="AE15" t="n">
-        <v>525071.7172287514</v>
+        <v>670233.7487401247</v>
       </c>
       <c r="AF15" t="n">
         <v>8.843755583519026e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.92838541666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>474959.6094792222</v>
+        <v>606267.5804393409</v>
       </c>
     </row>
     <row r="16">
@@ -22398,28 +22398,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>380.1397871183594</v>
+        <v>486.2334510485272</v>
       </c>
       <c r="AB16" t="n">
-        <v>520.1240273191395</v>
+        <v>665.286058830513</v>
       </c>
       <c r="AC16" t="n">
-        <v>470.4841201504573</v>
+        <v>601.7920911105759</v>
       </c>
       <c r="AD16" t="n">
-        <v>380139.7871183594</v>
+        <v>486233.4510485272</v>
       </c>
       <c r="AE16" t="n">
-        <v>520124.0273191395</v>
+        <v>665286.0588305129</v>
       </c>
       <c r="AF16" t="n">
         <v>8.884637478302781e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.83723958333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>470484.1201504573</v>
+        <v>601792.0911105759</v>
       </c>
     </row>
     <row r="17">
@@ -22504,28 +22504,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>377.2563465515844</v>
+        <v>473.7672508858839</v>
       </c>
       <c r="AB17" t="n">
-        <v>516.1787767272582</v>
+        <v>648.2292537980483</v>
       </c>
       <c r="AC17" t="n">
-        <v>466.9153987378712</v>
+        <v>586.3631636110334</v>
       </c>
       <c r="AD17" t="n">
-        <v>377256.3465515844</v>
+        <v>473767.2508858839</v>
       </c>
       <c r="AE17" t="n">
-        <v>516178.7767272582</v>
+        <v>648229.2537980482</v>
       </c>
       <c r="AF17" t="n">
         <v>8.904672314157073e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>466915.3987378711</v>
+        <v>586363.1636110335</v>
       </c>
     </row>
     <row r="18">
@@ -22610,28 +22610,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>378.1108406766536</v>
+        <v>484.2045046068215</v>
       </c>
       <c r="AB18" t="n">
-        <v>517.3479332867981</v>
+        <v>662.5099647981715</v>
       </c>
       <c r="AC18" t="n">
-        <v>467.9729726362901</v>
+        <v>599.2809435964087</v>
       </c>
       <c r="AD18" t="n">
-        <v>378110.8406766536</v>
+        <v>484204.5046068215</v>
       </c>
       <c r="AE18" t="n">
-        <v>517347.9332867982</v>
+        <v>662509.9647981715</v>
       </c>
       <c r="AF18" t="n">
         <v>8.898174529555681e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.81119791666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>467972.9726362901</v>
+        <v>599280.9435964087</v>
       </c>
     </row>
     <row r="19">
@@ -22716,28 +22716,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>377.6113499127857</v>
+        <v>483.7050138429536</v>
       </c>
       <c r="AB19" t="n">
-        <v>516.6645079876968</v>
+        <v>661.8265394990701</v>
       </c>
       <c r="AC19" t="n">
-        <v>467.3547724885415</v>
+        <v>598.6627434486602</v>
       </c>
       <c r="AD19" t="n">
-        <v>377611.3499127857</v>
+        <v>483705.0138429536</v>
       </c>
       <c r="AE19" t="n">
-        <v>516664.5079876967</v>
+        <v>661826.5394990701</v>
       </c>
       <c r="AF19" t="n">
         <v>8.897903788530624e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.81119791666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>467354.7724885416</v>
+        <v>598662.7434486602</v>
       </c>
     </row>
     <row r="20">
@@ -22822,28 +22822,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>377.9328419710162</v>
+        <v>484.0265059011841</v>
       </c>
       <c r="AB20" t="n">
-        <v>517.1043876049963</v>
+        <v>662.2664191163697</v>
       </c>
       <c r="AC20" t="n">
-        <v>467.7526706125409</v>
+        <v>599.0606415726596</v>
       </c>
       <c r="AD20" t="n">
-        <v>377932.8419710161</v>
+        <v>484026.505901184</v>
       </c>
       <c r="AE20" t="n">
-        <v>517104.3876049963</v>
+        <v>662266.4191163697</v>
       </c>
       <c r="AF20" t="n">
         <v>8.898174529555681e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.81119791666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>467752.6706125409</v>
+        <v>599060.6415726596</v>
       </c>
     </row>
     <row r="21">
@@ -22928,28 +22928,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>378.672114608508</v>
+        <v>484.7657785386759</v>
       </c>
       <c r="AB21" t="n">
-        <v>518.1158930420195</v>
+        <v>663.2779245533929</v>
       </c>
       <c r="AC21" t="n">
-        <v>468.6676393903114</v>
+        <v>599.9756103504302</v>
       </c>
       <c r="AD21" t="n">
-        <v>378672.114608508</v>
+        <v>484765.7785386759</v>
       </c>
       <c r="AE21" t="n">
-        <v>518115.8930420195</v>
+        <v>663277.9245533929</v>
       </c>
       <c r="AF21" t="n">
         <v>8.89709156545545e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>19.81119791666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>468667.6393903114</v>
+        <v>599975.6103504302</v>
       </c>
     </row>
   </sheetData>
@@ -23225,28 +23225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1215.420974058402</v>
+        <v>1430.135012709806</v>
       </c>
       <c r="AB2" t="n">
-        <v>1662.99259729573</v>
+        <v>1956.77381749343</v>
       </c>
       <c r="AC2" t="n">
-        <v>1504.278917834594</v>
+        <v>1770.022070701158</v>
       </c>
       <c r="AD2" t="n">
-        <v>1215420.974058402</v>
+        <v>1430135.012709806</v>
       </c>
       <c r="AE2" t="n">
-        <v>1662992.59729573</v>
+        <v>1956773.81749343</v>
       </c>
       <c r="AF2" t="n">
         <v>3.841409628951639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.71223958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1504278.917834594</v>
+        <v>1770022.070701158</v>
       </c>
     </row>
     <row r="3">
@@ -23331,28 +23331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>666.8531738274039</v>
+        <v>803.4313782757155</v>
       </c>
       <c r="AB3" t="n">
-        <v>912.417931916361</v>
+        <v>1099.290256647669</v>
       </c>
       <c r="AC3" t="n">
-        <v>825.3380450808729</v>
+        <v>994.3755374167803</v>
       </c>
       <c r="AD3" t="n">
-        <v>666853.1738274039</v>
+        <v>803431.3782757155</v>
       </c>
       <c r="AE3" t="n">
-        <v>912417.931916361</v>
+        <v>1099290.256647669</v>
       </c>
       <c r="AF3" t="n">
         <v>5.848009622854939e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.40234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>825338.045080873</v>
+        <v>994375.5374167803</v>
       </c>
     </row>
     <row r="4">
@@ -23437,28 +23437,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>566.2522549680593</v>
+        <v>683.3389548816092</v>
       </c>
       <c r="AB4" t="n">
-        <v>774.771316533698</v>
+        <v>934.9745048560544</v>
       </c>
       <c r="AC4" t="n">
-        <v>700.8282294820933</v>
+        <v>845.7418503575511</v>
       </c>
       <c r="AD4" t="n">
-        <v>566252.2549680594</v>
+        <v>683338.9548816092</v>
       </c>
       <c r="AE4" t="n">
-        <v>774771.316533698</v>
+        <v>934974.5048560544</v>
       </c>
       <c r="AF4" t="n">
         <v>6.599161736358297e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.28385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>700828.2294820934</v>
+        <v>845741.8503575511</v>
       </c>
     </row>
     <row r="5">
@@ -23543,28 +23543,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>516.8628922923911</v>
+        <v>633.9827465948646</v>
       </c>
       <c r="AB5" t="n">
-        <v>707.194611615947</v>
+        <v>867.4431632358969</v>
       </c>
       <c r="AC5" t="n">
-        <v>639.7009504371914</v>
+        <v>784.6556052007883</v>
       </c>
       <c r="AD5" t="n">
-        <v>516862.892292391</v>
+        <v>633982.7465948645</v>
       </c>
       <c r="AE5" t="n">
-        <v>707194.611615947</v>
+        <v>867443.163235897</v>
       </c>
       <c r="AF5" t="n">
         <v>6.994919468505544e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.90364583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>639700.9504371914</v>
+        <v>784655.6052007882</v>
       </c>
     </row>
     <row r="6">
@@ -23649,28 +23649,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>500.2728488066078</v>
+        <v>607.5967137433863</v>
       </c>
       <c r="AB6" t="n">
-        <v>684.4953822176346</v>
+        <v>831.3406290188911</v>
       </c>
       <c r="AC6" t="n">
-        <v>619.1681036340855</v>
+        <v>751.9986461792283</v>
       </c>
       <c r="AD6" t="n">
-        <v>500272.8488066078</v>
+        <v>607596.7137433863</v>
       </c>
       <c r="AE6" t="n">
-        <v>684495.3822176346</v>
+        <v>831340.6290188911</v>
       </c>
       <c r="AF6" t="n">
         <v>7.239068517193399e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.13541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>619168.1036340855</v>
+        <v>751998.6461792283</v>
       </c>
     </row>
     <row r="7">
@@ -23755,28 +23755,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>479.3517779738279</v>
+        <v>586.742962718311</v>
       </c>
       <c r="AB7" t="n">
-        <v>655.8702501317202</v>
+        <v>802.8076068638181</v>
       </c>
       <c r="AC7" t="n">
-        <v>593.2749139788256</v>
+        <v>726.1887756122875</v>
       </c>
       <c r="AD7" t="n">
-        <v>479351.7779738279</v>
+        <v>586742.962718311</v>
       </c>
       <c r="AE7" t="n">
-        <v>655870.2501317202</v>
+        <v>802807.6068638181</v>
       </c>
       <c r="AF7" t="n">
         <v>7.408643814114701e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.62760416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>593274.9139788256</v>
+        <v>726188.7756122875</v>
       </c>
     </row>
     <row r="8">
@@ -23861,28 +23861,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>471.7508525003971</v>
+        <v>579.0405520183949</v>
       </c>
       <c r="AB8" t="n">
-        <v>645.4703285698066</v>
+        <v>792.2688287378153</v>
       </c>
       <c r="AC8" t="n">
-        <v>583.8675463343995</v>
+        <v>716.6558036793624</v>
       </c>
       <c r="AD8" t="n">
-        <v>471750.8525003971</v>
+        <v>579040.5520183949</v>
       </c>
       <c r="AE8" t="n">
-        <v>645470.3285698066</v>
+        <v>792268.8287378153</v>
       </c>
       <c r="AF8" t="n">
         <v>7.524811506635533e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.29557291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>583867.5463343995</v>
+        <v>716655.8036793624</v>
       </c>
     </row>
     <row r="9">
@@ -23967,28 +23967,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>464.9919938545448</v>
+        <v>562.5871892333331</v>
       </c>
       <c r="AB9" t="n">
-        <v>636.2225599907525</v>
+        <v>769.7566119041571</v>
       </c>
       <c r="AC9" t="n">
-        <v>575.5023718092057</v>
+        <v>696.2921212242137</v>
       </c>
       <c r="AD9" t="n">
-        <v>464991.9938545448</v>
+        <v>562587.1892333331</v>
       </c>
       <c r="AE9" t="n">
-        <v>636222.5599907525</v>
+        <v>769756.6119041571</v>
       </c>
       <c r="AF9" t="n">
         <v>7.629903889488068e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.00260416666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>575502.3718092056</v>
+        <v>696292.1212242137</v>
       </c>
     </row>
     <row r="10">
@@ -24073,28 +24073,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>450.2441780974142</v>
+        <v>557.6011974231166</v>
       </c>
       <c r="AB10" t="n">
-        <v>616.0439478441343</v>
+        <v>762.9345579429845</v>
       </c>
       <c r="AC10" t="n">
-        <v>557.2495780850006</v>
+        <v>690.1211545182825</v>
       </c>
       <c r="AD10" t="n">
-        <v>450244.1780974142</v>
+        <v>557601.1974231165</v>
       </c>
       <c r="AE10" t="n">
-        <v>616043.9478441343</v>
+        <v>762934.5579429845</v>
       </c>
       <c r="AF10" t="n">
         <v>7.703247051291475e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.80078125</v>
       </c>
       <c r="AH10" t="n">
-        <v>557249.5780850006</v>
+        <v>690121.1545182825</v>
       </c>
     </row>
     <row r="11">
@@ -24179,28 +24179,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>446.5333809935551</v>
+        <v>553.8904003192575</v>
       </c>
       <c r="AB11" t="n">
-        <v>610.96667153782</v>
+        <v>757.8572816366702</v>
       </c>
       <c r="AC11" t="n">
-        <v>552.6568699033588</v>
+        <v>685.528446336641</v>
       </c>
       <c r="AD11" t="n">
-        <v>446533.3809935551</v>
+        <v>553890.4003192575</v>
       </c>
       <c r="AE11" t="n">
-        <v>610966.67153782</v>
+        <v>757857.2816366702</v>
       </c>
       <c r="AF11" t="n">
         <v>7.757639127662458e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.65755208333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>552656.8699033589</v>
+        <v>685528.446336641</v>
       </c>
     </row>
     <row r="12">
@@ -24285,28 +24285,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>443.7951205923019</v>
+        <v>551.1521399180042</v>
       </c>
       <c r="AB12" t="n">
-        <v>607.2200628533024</v>
+        <v>754.1106729521525</v>
       </c>
       <c r="AC12" t="n">
-        <v>549.2678322932932</v>
+        <v>682.1394087265753</v>
       </c>
       <c r="AD12" t="n">
-        <v>443795.1205923019</v>
+        <v>551152.1399180042</v>
       </c>
       <c r="AE12" t="n">
-        <v>607220.0628533023</v>
+        <v>754110.6729521526</v>
       </c>
       <c r="AF12" t="n">
         <v>7.792341764623132e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.55989583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>549267.8322932932</v>
+        <v>682139.4087265753</v>
       </c>
     </row>
     <row r="13">
@@ -24391,28 +24391,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>439.6666932539391</v>
+        <v>537.2277232139467</v>
       </c>
       <c r="AB13" t="n">
-        <v>601.5713664355947</v>
+        <v>735.0586717157513</v>
       </c>
       <c r="AC13" t="n">
-        <v>544.1582395336964</v>
+        <v>664.9057037485244</v>
       </c>
       <c r="AD13" t="n">
-        <v>439666.6932539391</v>
+        <v>537227.7232139467</v>
       </c>
       <c r="AE13" t="n">
-        <v>601571.3664355946</v>
+        <v>735058.6717157513</v>
       </c>
       <c r="AF13" t="n">
         <v>7.850425610883548e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.41015625</v>
       </c>
       <c r="AH13" t="n">
-        <v>544158.2395336963</v>
+        <v>664905.7037485244</v>
       </c>
     </row>
     <row r="14">
@@ -24497,28 +24497,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>438.1451552795922</v>
+        <v>535.7061852395998</v>
       </c>
       <c r="AB14" t="n">
-        <v>599.4895310535753</v>
+        <v>732.9768363337321</v>
       </c>
       <c r="AC14" t="n">
-        <v>542.2750915986626</v>
+        <v>663.0225558134908</v>
       </c>
       <c r="AD14" t="n">
-        <v>438145.1552795923</v>
+        <v>535706.1852395998</v>
       </c>
       <c r="AE14" t="n">
-        <v>599489.5310535753</v>
+        <v>732976.8363337321</v>
       </c>
       <c r="AF14" t="n">
         <v>7.862485392522364e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.37760416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>542275.0915986625</v>
+        <v>663022.5558134909</v>
       </c>
     </row>
     <row r="15">
@@ -24603,28 +24603,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>434.9999815852685</v>
+        <v>532.5610115452761</v>
       </c>
       <c r="AB15" t="n">
-        <v>595.1861656497309</v>
+        <v>728.6734709298878</v>
       </c>
       <c r="AC15" t="n">
-        <v>538.38243334915</v>
+        <v>659.1298975639781</v>
       </c>
       <c r="AD15" t="n">
-        <v>434999.9815852685</v>
+        <v>532561.011545276</v>
       </c>
       <c r="AE15" t="n">
-        <v>595186.1656497309</v>
+        <v>728673.4709298878</v>
       </c>
       <c r="AF15" t="n">
         <v>7.904817687254533e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.2734375</v>
       </c>
       <c r="AH15" t="n">
-        <v>538382.43334915</v>
+        <v>659129.8975639781</v>
       </c>
     </row>
     <row r="16">
@@ -24709,28 +24709,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>432.7215440929664</v>
+        <v>530.2825740529739</v>
       </c>
       <c r="AB16" t="n">
-        <v>592.0687069551951</v>
+        <v>725.5560122353519</v>
       </c>
       <c r="AC16" t="n">
-        <v>535.5625005370399</v>
+        <v>656.3099647518681</v>
       </c>
       <c r="AD16" t="n">
-        <v>432721.5440929664</v>
+        <v>530282.5740529739</v>
       </c>
       <c r="AE16" t="n">
-        <v>592068.7069551952</v>
+        <v>725556.0122353518</v>
       </c>
       <c r="AF16" t="n">
         <v>7.923522654694328e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.22135416666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>535562.5005370399</v>
+        <v>656309.964751868</v>
       </c>
     </row>
     <row r="17">
@@ -24815,28 +24815,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>429.0222518156312</v>
+        <v>526.5832817756387</v>
       </c>
       <c r="AB17" t="n">
-        <v>587.0071720600881</v>
+        <v>720.4944773402449</v>
       </c>
       <c r="AC17" t="n">
-        <v>530.984031428413</v>
+        <v>651.7314956432411</v>
       </c>
       <c r="AD17" t="n">
-        <v>429022.2518156312</v>
+        <v>526583.2817756387</v>
       </c>
       <c r="AE17" t="n">
-        <v>587007.1720600881</v>
+        <v>720494.4773402449</v>
       </c>
       <c r="AF17" t="n">
         <v>7.964378241470722e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20.1171875</v>
       </c>
       <c r="AH17" t="n">
-        <v>530984.031428413</v>
+        <v>651731.4956432411</v>
       </c>
     </row>
     <row r="18">
@@ -24921,28 +24921,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>428.6458246205498</v>
+        <v>526.2068545805573</v>
       </c>
       <c r="AB18" t="n">
-        <v>586.4921277649819</v>
+        <v>719.9794330451386</v>
       </c>
       <c r="AC18" t="n">
-        <v>530.5181422379625</v>
+        <v>651.2656064527905</v>
       </c>
       <c r="AD18" t="n">
-        <v>428645.8246205498</v>
+        <v>526206.8545805573</v>
       </c>
       <c r="AE18" t="n">
-        <v>586492.1277649819</v>
+        <v>719979.4330451386</v>
       </c>
       <c r="AF18" t="n">
         <v>7.957733055669743e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20.13671875</v>
       </c>
       <c r="AH18" t="n">
-        <v>530518.1422379625</v>
+        <v>651265.6064527906</v>
       </c>
     </row>
     <row r="19">
@@ -25027,28 +25027,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>426.1045837958548</v>
+        <v>523.6656137558622</v>
       </c>
       <c r="AB19" t="n">
-        <v>583.0150899570014</v>
+        <v>716.5023952371582</v>
       </c>
       <c r="AC19" t="n">
-        <v>527.3729480383224</v>
+        <v>648.1204122531506</v>
       </c>
       <c r="AD19" t="n">
-        <v>426104.5837958548</v>
+        <v>523665.6137558622</v>
       </c>
       <c r="AE19" t="n">
-        <v>583015.0899570014</v>
+        <v>716502.3952371582</v>
       </c>
       <c r="AF19" t="n">
         <v>7.982590972925258e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20.07161458333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>527372.9480383224</v>
+        <v>648120.4122531506</v>
       </c>
     </row>
     <row r="20">
@@ -25133,28 +25133,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>423.9036165828714</v>
+        <v>521.464646542879</v>
       </c>
       <c r="AB20" t="n">
-        <v>580.0036295163773</v>
+        <v>713.490934796534</v>
       </c>
       <c r="AC20" t="n">
-        <v>524.6488971555402</v>
+        <v>645.3963613703684</v>
       </c>
       <c r="AD20" t="n">
-        <v>423903.6165828714</v>
+        <v>521464.646542879</v>
       </c>
       <c r="AE20" t="n">
-        <v>580003.6295163772</v>
+        <v>713490.934796534</v>
       </c>
       <c r="AF20" t="n">
         <v>8.001542058357683e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>20.02604166666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>524648.8971555402</v>
+        <v>645396.3613703684</v>
       </c>
     </row>
     <row r="21">
@@ -25239,28 +25239,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>412.8147750258384</v>
+        <v>520.13762893276</v>
       </c>
       <c r="AB21" t="n">
-        <v>564.8313872928815</v>
+        <v>711.675250758484</v>
       </c>
       <c r="AC21" t="n">
-        <v>510.9246724354791</v>
+        <v>643.7539636685813</v>
       </c>
       <c r="AD21" t="n">
-        <v>412814.7750258384</v>
+        <v>520137.62893276</v>
       </c>
       <c r="AE21" t="n">
-        <v>564831.3872928815</v>
+        <v>711675.250758484</v>
       </c>
       <c r="AF21" t="n">
         <v>8.02000090780485e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>19.98046875</v>
       </c>
       <c r="AH21" t="n">
-        <v>510924.6724354791</v>
+        <v>643753.9636685812</v>
       </c>
     </row>
     <row r="22">
@@ -25345,28 +25345,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>409.6322013524202</v>
+        <v>516.9550552593417</v>
       </c>
       <c r="AB22" t="n">
-        <v>560.4768495876696</v>
+        <v>707.3207130532721</v>
       </c>
       <c r="AC22" t="n">
-        <v>506.9857256972206</v>
+        <v>639.8150169303227</v>
       </c>
       <c r="AD22" t="n">
-        <v>409632.2013524202</v>
+        <v>516955.0552593418</v>
       </c>
       <c r="AE22" t="n">
-        <v>560476.8495876696</v>
+        <v>707320.7130532721</v>
       </c>
       <c r="AF22" t="n">
         <v>8.037721403274129e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>20</v>
+        <v>19.93489583333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>506985.7256972207</v>
+        <v>639815.0169303227</v>
       </c>
     </row>
     <row r="23">
@@ -25451,28 +25451,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>409.0485608018734</v>
+        <v>516.3714147087949</v>
       </c>
       <c r="AB23" t="n">
-        <v>559.6782868380075</v>
+        <v>706.5221503036099</v>
       </c>
       <c r="AC23" t="n">
-        <v>506.2633766555964</v>
+        <v>639.0926678886985</v>
       </c>
       <c r="AD23" t="n">
-        <v>409048.5608018734</v>
+        <v>516371.4147087949</v>
       </c>
       <c r="AE23" t="n">
-        <v>559678.2868380075</v>
+        <v>706522.1503036099</v>
       </c>
       <c r="AF23" t="n">
         <v>8.038213639259388e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>19.93489583333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>506263.3766555964</v>
+        <v>639092.6678886985</v>
       </c>
     </row>
     <row r="24">
@@ -25557,28 +25557,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>406.1587922802582</v>
+        <v>513.4816461871798</v>
       </c>
       <c r="AB24" t="n">
-        <v>555.7243780591441</v>
+        <v>702.5682415247464</v>
       </c>
       <c r="AC24" t="n">
-        <v>502.6868233812419</v>
+        <v>635.516114614344</v>
       </c>
       <c r="AD24" t="n">
-        <v>406158.7922802582</v>
+        <v>513481.6461871798</v>
       </c>
       <c r="AE24" t="n">
-        <v>555724.3780591441</v>
+        <v>702568.2415247464</v>
       </c>
       <c r="AF24" t="n">
         <v>8.056918606699183e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>19.88932291666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>502686.8233812419</v>
+        <v>635516.114614344</v>
       </c>
     </row>
     <row r="25">
@@ -25663,28 +25663,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>405.4734604358253</v>
+        <v>512.7963143427469</v>
       </c>
       <c r="AB25" t="n">
-        <v>554.7866767948839</v>
+        <v>701.6305402604862</v>
       </c>
       <c r="AC25" t="n">
-        <v>501.8386150095706</v>
+        <v>634.6679062426729</v>
       </c>
       <c r="AD25" t="n">
-        <v>405473.4604358253</v>
+        <v>512796.3143427469</v>
       </c>
       <c r="AE25" t="n">
-        <v>554786.6767948839</v>
+        <v>701630.5402604862</v>
       </c>
       <c r="AF25" t="n">
         <v>8.055934134728669e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>19.88932291666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>501838.6150095706</v>
+        <v>634667.9062426728</v>
       </c>
     </row>
     <row r="26">
@@ -25769,28 +25769,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>404.2259398929043</v>
+        <v>511.5487937998258</v>
       </c>
       <c r="AB26" t="n">
-        <v>553.0797641513374</v>
+        <v>699.9236276169396</v>
       </c>
       <c r="AC26" t="n">
-        <v>500.2946077130572</v>
+        <v>633.1238989461593</v>
       </c>
       <c r="AD26" t="n">
-        <v>404225.9398929043</v>
+        <v>511548.7937998258</v>
       </c>
       <c r="AE26" t="n">
-        <v>553079.7641513373</v>
+        <v>699923.6276169396</v>
       </c>
       <c r="AF26" t="n">
         <v>8.07734640008738e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>19.83723958333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>500294.6077130572</v>
+        <v>633123.8989461593</v>
       </c>
     </row>
     <row r="27">
@@ -25875,28 +25875,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>404.7502068054817</v>
+        <v>512.0730607124033</v>
       </c>
       <c r="AB27" t="n">
-        <v>553.7970892701496</v>
+        <v>700.6409527357519</v>
       </c>
       <c r="AC27" t="n">
-        <v>500.9434723293022</v>
+        <v>633.7727635624043</v>
       </c>
       <c r="AD27" t="n">
-        <v>404750.2068054817</v>
+        <v>512073.0607124033</v>
       </c>
       <c r="AE27" t="n">
-        <v>553797.0892701496</v>
+        <v>700640.9527357519</v>
       </c>
       <c r="AF27" t="n">
         <v>8.075623574138978e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>20</v>
+        <v>19.84375</v>
       </c>
       <c r="AH27" t="n">
-        <v>500943.4723293022</v>
+        <v>633772.7635624043</v>
       </c>
     </row>
     <row r="28">
@@ -25981,28 +25981,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>405.4243618460797</v>
+        <v>512.7472157530012</v>
       </c>
       <c r="AB28" t="n">
-        <v>554.719497938317</v>
+        <v>701.5633614039194</v>
       </c>
       <c r="AC28" t="n">
-        <v>501.7778476087884</v>
+        <v>634.6071388418904</v>
       </c>
       <c r="AD28" t="n">
-        <v>405424.3618460797</v>
+        <v>512747.2157530013</v>
       </c>
       <c r="AE28" t="n">
-        <v>554719.497938317</v>
+        <v>701563.3614039194</v>
       </c>
       <c r="AF28" t="n">
         <v>8.076361928116865e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>20</v>
+        <v>19.83723958333333</v>
       </c>
       <c r="AH28" t="n">
-        <v>501777.8476087884</v>
+        <v>634607.1388418905</v>
       </c>
     </row>
   </sheetData>
@@ -26278,28 +26278,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>668.9305537375013</v>
+        <v>811.659363767888</v>
       </c>
       <c r="AB2" t="n">
-        <v>915.2602947568898</v>
+        <v>1110.548149391161</v>
       </c>
       <c r="AC2" t="n">
-        <v>827.9091368011831</v>
+        <v>1004.558992677384</v>
       </c>
       <c r="AD2" t="n">
-        <v>668930.5537375014</v>
+        <v>811659.3637678879</v>
       </c>
       <c r="AE2" t="n">
-        <v>915260.2947568898</v>
+        <v>1110548.149391161</v>
       </c>
       <c r="AF2" t="n">
         <v>6.596989970710048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.27994791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>827909.1368011831</v>
+        <v>1004558.992677385</v>
       </c>
     </row>
     <row r="3">
@@ -26384,28 +26384,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>468.3781695552919</v>
+        <v>582.6150734257646</v>
       </c>
       <c r="AB3" t="n">
-        <v>640.8556749720434</v>
+        <v>797.1596466241332</v>
       </c>
       <c r="AC3" t="n">
-        <v>579.6933087992996</v>
+        <v>721.0798487709162</v>
       </c>
       <c r="AD3" t="n">
-        <v>468378.1695552919</v>
+        <v>582615.0734257647</v>
       </c>
       <c r="AE3" t="n">
-        <v>640855.6749720434</v>
+        <v>797159.6466241332</v>
       </c>
       <c r="AF3" t="n">
         <v>8.470141162337638e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.58072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>579693.3087992996</v>
+        <v>721079.8487709162</v>
       </c>
     </row>
     <row r="4">
@@ -26490,28 +26490,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>419.1558460256149</v>
+        <v>533.3244190585261</v>
       </c>
       <c r="AB4" t="n">
-        <v>573.5075203830846</v>
+        <v>729.7179987686789</v>
       </c>
       <c r="AC4" t="n">
-        <v>518.7727675605825</v>
+        <v>660.0747371318391</v>
       </c>
       <c r="AD4" t="n">
-        <v>419155.8460256149</v>
+        <v>533324.4190585262</v>
       </c>
       <c r="AE4" t="n">
-        <v>573507.5203830847</v>
+        <v>729717.9987686789</v>
       </c>
       <c r="AF4" t="n">
         <v>9.112627418728822e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.92057291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>518772.7675605825</v>
+        <v>660074.7371318392</v>
       </c>
     </row>
     <row r="5">
@@ -26596,28 +26596,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>404.3416185159808</v>
+        <v>508.9572951707623</v>
       </c>
       <c r="AB5" t="n">
-        <v>553.2380407468113</v>
+        <v>696.3778248638044</v>
       </c>
       <c r="AC5" t="n">
-        <v>500.4377786124018</v>
+        <v>629.9165026312178</v>
       </c>
       <c r="AD5" t="n">
-        <v>404341.6185159808</v>
+        <v>508957.2951707623</v>
       </c>
       <c r="AE5" t="n">
-        <v>553238.0407468113</v>
+        <v>696377.8248638045</v>
       </c>
       <c r="AF5" t="n">
         <v>9.447984380636923e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.14583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>500437.7786124017</v>
+        <v>629916.5026312178</v>
       </c>
     </row>
     <row r="6">
@@ -26702,28 +26702,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>384.7519519232204</v>
+        <v>489.4349483857063</v>
       </c>
       <c r="AB6" t="n">
-        <v>526.4345946795011</v>
+        <v>669.6664887273357</v>
       </c>
       <c r="AC6" t="n">
-        <v>476.1924158188828</v>
+        <v>605.7544589260178</v>
       </c>
       <c r="AD6" t="n">
-        <v>384751.9519232204</v>
+        <v>489434.9483857063</v>
       </c>
       <c r="AE6" t="n">
-        <v>526434.594679501</v>
+        <v>669666.4887273357</v>
       </c>
       <c r="AF6" t="n">
         <v>9.676873944757183e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.64453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>476192.4158188828</v>
+        <v>605754.4589260179</v>
       </c>
     </row>
     <row r="7">
@@ -26808,28 +26808,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>378.953508286298</v>
+        <v>474.0836083706543</v>
       </c>
       <c r="AB7" t="n">
-        <v>518.5009082861847</v>
+        <v>648.6621080654182</v>
       </c>
       <c r="AC7" t="n">
-        <v>469.0159093199457</v>
+        <v>586.7547068746404</v>
       </c>
       <c r="AD7" t="n">
-        <v>378953.508286298</v>
+        <v>474083.6083706543</v>
       </c>
       <c r="AE7" t="n">
-        <v>518500.9082861847</v>
+        <v>648662.1080654182</v>
       </c>
       <c r="AF7" t="n">
         <v>9.798989288617588e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.38411458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>469015.9093199457</v>
+        <v>586754.7068746404</v>
       </c>
     </row>
     <row r="8">
@@ -26914,28 +26914,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>373.2013159229284</v>
+        <v>468.3314160072845</v>
       </c>
       <c r="AB8" t="n">
-        <v>510.6305049258053</v>
+        <v>640.7917047050388</v>
       </c>
       <c r="AC8" t="n">
-        <v>461.8966462101005</v>
+        <v>579.6354437647951</v>
       </c>
       <c r="AD8" t="n">
-        <v>373201.3159229283</v>
+        <v>468331.4160072845</v>
       </c>
       <c r="AE8" t="n">
-        <v>510630.5049258053</v>
+        <v>640791.7047050388</v>
       </c>
       <c r="AF8" t="n">
         <v>9.90208163921331e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.17578125</v>
       </c>
       <c r="AH8" t="n">
-        <v>461896.6462101005</v>
+        <v>579635.4437647951</v>
       </c>
     </row>
     <row r="9">
@@ -27020,28 +27020,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>368.4892217890868</v>
+        <v>463.6193218734431</v>
       </c>
       <c r="AB9" t="n">
-        <v>504.1832098489618</v>
+        <v>634.3444096281953</v>
       </c>
       <c r="AC9" t="n">
-        <v>456.0646719265555</v>
+        <v>573.8034694812502</v>
       </c>
       <c r="AD9" t="n">
-        <v>368489.2217890868</v>
+        <v>463619.3218734431</v>
       </c>
       <c r="AE9" t="n">
-        <v>504183.2098489618</v>
+        <v>634344.4096281953</v>
       </c>
       <c r="AF9" t="n">
         <v>9.979094079688088e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.01953125</v>
       </c>
       <c r="AH9" t="n">
-        <v>456064.6719265555</v>
+        <v>573803.4694812502</v>
       </c>
     </row>
     <row r="10">
@@ -27126,28 +27126,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>354.7234642988649</v>
+        <v>459.3722953425701</v>
       </c>
       <c r="AB10" t="n">
-        <v>485.348293148481</v>
+        <v>628.5334405630678</v>
       </c>
       <c r="AC10" t="n">
-        <v>439.0273332409969</v>
+        <v>568.5470911479523</v>
       </c>
       <c r="AD10" t="n">
-        <v>354723.4642988649</v>
+        <v>459372.2953425701</v>
       </c>
       <c r="AE10" t="n">
-        <v>485348.293148481</v>
+        <v>628533.4405630678</v>
       </c>
       <c r="AF10" t="n">
         <v>1.003278801229002e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.90885416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>439027.3332409969</v>
+        <v>568547.0911479522</v>
       </c>
     </row>
     <row r="11">
@@ -27232,28 +27232,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>350.8157056184535</v>
+        <v>455.4645366621587</v>
       </c>
       <c r="AB11" t="n">
-        <v>480.0015253237964</v>
+        <v>623.1866727383833</v>
       </c>
       <c r="AC11" t="n">
-        <v>434.1908534332645</v>
+        <v>563.7106113402199</v>
       </c>
       <c r="AD11" t="n">
-        <v>350815.7056184536</v>
+        <v>455464.5366621587</v>
       </c>
       <c r="AE11" t="n">
-        <v>480001.5253237964</v>
+        <v>623186.6727383833</v>
       </c>
       <c r="AF11" t="n">
         <v>1.00791182055637e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.81770833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>434190.8534332645</v>
+        <v>563710.6113402199</v>
       </c>
     </row>
     <row r="12">
@@ -27338,28 +27338,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>349.3741025263831</v>
+        <v>444.5715224184438</v>
       </c>
       <c r="AB12" t="n">
-        <v>478.0290603741859</v>
+        <v>608.2823700842609</v>
       </c>
       <c r="AC12" t="n">
-        <v>432.4066377700729</v>
+        <v>550.2287544130866</v>
       </c>
       <c r="AD12" t="n">
-        <v>349374.1025263831</v>
+        <v>444571.5224184438</v>
       </c>
       <c r="AE12" t="n">
-        <v>478029.0603741859</v>
+        <v>608282.3700842609</v>
       </c>
       <c r="AF12" t="n">
         <v>1.009077745950012e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.79817708333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>432406.6377700729</v>
+        <v>550228.7544130866</v>
       </c>
     </row>
     <row r="13">
@@ -27444,28 +27444,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>349.4842467864415</v>
+        <v>444.6816666785022</v>
       </c>
       <c r="AB13" t="n">
-        <v>478.1797646100196</v>
+        <v>608.4330743200945</v>
       </c>
       <c r="AC13" t="n">
-        <v>432.5429590051533</v>
+        <v>550.365075648167</v>
       </c>
       <c r="AD13" t="n">
-        <v>349484.2467864415</v>
+        <v>444681.6666785022</v>
       </c>
       <c r="AE13" t="n">
-        <v>478179.7646100196</v>
+        <v>608433.0743200945</v>
       </c>
       <c r="AF13" t="n">
         <v>1.009261839433218e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>432542.9590051533</v>
+        <v>550365.0756481671</v>
       </c>
     </row>
   </sheetData>
@@ -27741,28 +27741,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>531.0123850713671</v>
+        <v>653.1913644748521</v>
       </c>
       <c r="AB2" t="n">
-        <v>726.5545718677073</v>
+        <v>893.7252416437084</v>
       </c>
       <c r="AC2" t="n">
-        <v>657.2132232543987</v>
+        <v>808.4293589324869</v>
       </c>
       <c r="AD2" t="n">
-        <v>531012.3850713671</v>
+        <v>653191.3644748521</v>
       </c>
       <c r="AE2" t="n">
-        <v>726554.5718677073</v>
+        <v>893725.2416437084</v>
       </c>
       <c r="AF2" t="n">
         <v>8.397502448102688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.05078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>657213.2232543987</v>
+        <v>808429.358932487</v>
       </c>
     </row>
     <row r="3">
@@ -27847,28 +27847,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>404.7858874549755</v>
+        <v>508.128834702386</v>
       </c>
       <c r="AB3" t="n">
-        <v>553.845909108906</v>
+        <v>695.2442887018756</v>
       </c>
       <c r="AC3" t="n">
-        <v>500.9876328711667</v>
+        <v>628.8911495696556</v>
       </c>
       <c r="AD3" t="n">
-        <v>404785.8874549755</v>
+        <v>508128.834702386</v>
       </c>
       <c r="AE3" t="n">
-        <v>553845.9091089059</v>
+        <v>695244.2887018756</v>
       </c>
       <c r="AF3" t="n">
         <v>1.014991851776699e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.37630208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>500987.6328711667</v>
+        <v>628891.1495696555</v>
       </c>
     </row>
     <row r="4">
@@ -27953,28 +27953,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>374.3758251284186</v>
+        <v>468.3520044259632</v>
       </c>
       <c r="AB4" t="n">
-        <v>512.2375202364464</v>
+        <v>640.8198746877717</v>
       </c>
       <c r="AC4" t="n">
-        <v>463.3502902349542</v>
+        <v>579.660925243913</v>
       </c>
       <c r="AD4" t="n">
-        <v>374375.8251284186</v>
+        <v>468352.0044259632</v>
       </c>
       <c r="AE4" t="n">
-        <v>512237.5202364464</v>
+        <v>640819.8746877718</v>
       </c>
       <c r="AF4" t="n">
         <v>1.075417586052203e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.11979166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>463350.2902349542</v>
+        <v>579660.925243913</v>
       </c>
     </row>
     <row r="5">
@@ -28059,28 +28059,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>352.6449644759389</v>
+        <v>455.9195808857879</v>
       </c>
       <c r="AB5" t="n">
-        <v>482.5043979938133</v>
+        <v>623.8092843202871</v>
       </c>
       <c r="AC5" t="n">
-        <v>436.4548554484588</v>
+        <v>564.2738017465875</v>
       </c>
       <c r="AD5" t="n">
-        <v>352644.9644759389</v>
+        <v>455919.5808857879</v>
       </c>
       <c r="AE5" t="n">
-        <v>482504.3979938133</v>
+        <v>623809.2843202872</v>
       </c>
       <c r="AF5" t="n">
         <v>1.109607666646888e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.46875</v>
       </c>
       <c r="AH5" t="n">
-        <v>436454.8554484588</v>
+        <v>564273.8017465875</v>
       </c>
     </row>
     <row r="6">
@@ -28165,28 +28165,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>345.0803930195236</v>
+        <v>439.0224068982874</v>
       </c>
       <c r="AB6" t="n">
-        <v>472.1542176018063</v>
+        <v>600.6898254198838</v>
       </c>
       <c r="AC6" t="n">
-        <v>427.0924817464955</v>
+        <v>543.3608315552743</v>
       </c>
       <c r="AD6" t="n">
-        <v>345080.3930195236</v>
+        <v>439022.4068982874</v>
       </c>
       <c r="AE6" t="n">
-        <v>472154.2176018063</v>
+        <v>600689.8254198838</v>
       </c>
       <c r="AF6" t="n">
         <v>1.127330688016378e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.14973958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>427092.4817464955</v>
+        <v>543360.8315552743</v>
       </c>
     </row>
     <row r="7">
@@ -28271,28 +28271,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>329.4789732733938</v>
+        <v>432.8209094909471</v>
       </c>
       <c r="AB7" t="n">
-        <v>450.8076668190891</v>
+        <v>592.2046630764045</v>
       </c>
       <c r="AC7" t="n">
-        <v>407.7832158104086</v>
+        <v>535.6854811968566</v>
       </c>
       <c r="AD7" t="n">
-        <v>329478.9732733938</v>
+        <v>432820.9094909471</v>
       </c>
       <c r="AE7" t="n">
-        <v>450807.6668190891</v>
+        <v>592204.6630764045</v>
       </c>
       <c r="AF7" t="n">
         <v>1.140204299995397e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.921875</v>
       </c>
       <c r="AH7" t="n">
-        <v>407783.2158104086</v>
+        <v>535685.4811968566</v>
       </c>
     </row>
     <row r="8">
@@ -28377,28 +28377,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>326.4913163747239</v>
+        <v>429.8332525922772</v>
       </c>
       <c r="AB8" t="n">
-        <v>446.7198228442089</v>
+        <v>588.1168191015244</v>
       </c>
       <c r="AC8" t="n">
-        <v>404.085509927166</v>
+        <v>531.987775313614</v>
       </c>
       <c r="AD8" t="n">
-        <v>326491.3163747239</v>
+        <v>429833.2525922772</v>
       </c>
       <c r="AE8" t="n">
-        <v>446719.8228442089</v>
+        <v>588116.8191015243</v>
       </c>
       <c r="AF8" t="n">
         <v>1.145786353970039e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.82421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>404085.509927166</v>
+        <v>531987.7753136139</v>
       </c>
     </row>
     <row r="9">
@@ -28483,28 +28483,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>327.3564374505008</v>
+        <v>430.6983736680542</v>
       </c>
       <c r="AB9" t="n">
-        <v>447.9035196665352</v>
+        <v>589.3005159238506</v>
       </c>
       <c r="AC9" t="n">
-        <v>405.1562363860983</v>
+        <v>533.0585017725464</v>
       </c>
       <c r="AD9" t="n">
-        <v>327356.4374505008</v>
+        <v>430698.3736680542</v>
       </c>
       <c r="AE9" t="n">
-        <v>447903.5196665352</v>
+        <v>589300.5159238506</v>
       </c>
       <c r="AF9" t="n">
         <v>1.145611914783332e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.82421875</v>
       </c>
       <c r="AH9" t="n">
-        <v>405156.2363860983</v>
+        <v>533058.5017725463</v>
       </c>
     </row>
   </sheetData>
@@ -53681,28 +53681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.3922892393064</v>
+        <v>557.3357002500056</v>
       </c>
       <c r="AB2" t="n">
-        <v>597.0911824062642</v>
+        <v>762.5712929978255</v>
       </c>
       <c r="AC2" t="n">
-        <v>540.1056379801474</v>
+        <v>689.792559069644</v>
       </c>
       <c r="AD2" t="n">
-        <v>436392.2892393064</v>
+        <v>557335.7002500056</v>
       </c>
       <c r="AE2" t="n">
-        <v>597091.1824062642</v>
+        <v>762571.2929978254</v>
       </c>
       <c r="AF2" t="n">
         <v>1.020535340135267e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.99348958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>540105.6379801474</v>
+        <v>689792.559069644</v>
       </c>
     </row>
     <row r="3">
@@ -53787,28 +53787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>356.4814719173806</v>
+        <v>458.8471135115559</v>
       </c>
       <c r="AB3" t="n">
-        <v>487.7536767299565</v>
+        <v>627.8148636124871</v>
       </c>
       <c r="AC3" t="n">
-        <v>441.2031503894335</v>
+        <v>567.8970941730059</v>
       </c>
       <c r="AD3" t="n">
-        <v>356481.4719173806</v>
+        <v>458847.1135115559</v>
       </c>
       <c r="AE3" t="n">
-        <v>487753.6767299565</v>
+        <v>627814.8636124871</v>
       </c>
       <c r="AF3" t="n">
         <v>1.186268994251756e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.50390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>441203.1503894335</v>
+        <v>567897.0941730059</v>
       </c>
     </row>
     <row r="4">
@@ -53893,28 +53893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>330.4723530563249</v>
+        <v>432.8038292317195</v>
       </c>
       <c r="AB4" t="n">
-        <v>452.1668528629184</v>
+        <v>592.1812931122013</v>
       </c>
       <c r="AC4" t="n">
-        <v>409.0126830458445</v>
+        <v>535.6643416292369</v>
       </c>
       <c r="AD4" t="n">
-        <v>330472.3530563249</v>
+        <v>432803.8292317195</v>
       </c>
       <c r="AE4" t="n">
-        <v>452166.8528629184</v>
+        <v>592181.2931122013</v>
       </c>
       <c r="AF4" t="n">
         <v>1.244295363458971e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.50130208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>409012.6830458445</v>
+        <v>535664.3416292369</v>
       </c>
     </row>
     <row r="5">
@@ -53999,28 +53999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>321.451544985214</v>
+        <v>414.4438993540326</v>
       </c>
       <c r="AB5" t="n">
-        <v>439.8241852900596</v>
+        <v>567.0604270706098</v>
       </c>
       <c r="AC5" t="n">
-        <v>397.8479823430966</v>
+        <v>512.940975785298</v>
       </c>
       <c r="AD5" t="n">
-        <v>321451.544985214</v>
+        <v>414443.8993540326</v>
       </c>
       <c r="AE5" t="n">
-        <v>439824.1852900597</v>
+        <v>567060.4270706098</v>
       </c>
       <c r="AF5" t="n">
         <v>1.271290750618843e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.06510416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>397847.9823430966</v>
+        <v>512940.9757852979</v>
       </c>
     </row>
     <row r="6">
@@ -54105,28 +54105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>310.0957205369861</v>
+        <v>412.3930312935998</v>
       </c>
       <c r="AB6" t="n">
-        <v>424.2866452963773</v>
+        <v>564.2543389124123</v>
       </c>
       <c r="AC6" t="n">
-        <v>383.7933233593369</v>
+        <v>510.4026967425496</v>
       </c>
       <c r="AD6" t="n">
-        <v>310095.7205369861</v>
+        <v>412393.0312935999</v>
       </c>
       <c r="AE6" t="n">
-        <v>424286.6452963773</v>
+        <v>564254.3389124123</v>
       </c>
       <c r="AF6" t="n">
         <v>1.277363733216493e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.96744791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>383793.3233593369</v>
+        <v>510402.6967425495</v>
       </c>
     </row>
     <row r="7">
@@ -54211,28 +54211,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>310.9709683198229</v>
+        <v>413.2682790764367</v>
       </c>
       <c r="AB7" t="n">
-        <v>425.4841979260617</v>
+        <v>565.4518915420966</v>
       </c>
       <c r="AC7" t="n">
-        <v>384.8765832468199</v>
+        <v>511.4859566300324</v>
       </c>
       <c r="AD7" t="n">
-        <v>310970.9683198229</v>
+        <v>413268.2790764367</v>
       </c>
       <c r="AE7" t="n">
-        <v>425484.1979260616</v>
+        <v>565451.8915420966</v>
       </c>
       <c r="AF7" t="n">
         <v>1.277755538545373e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.9609375</v>
       </c>
       <c r="AH7" t="n">
-        <v>384876.5832468199</v>
+        <v>511485.9566300325</v>
       </c>
     </row>
   </sheetData>
@@ -54508,28 +54508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.0602970569804</v>
+        <v>419.4045516456862</v>
       </c>
       <c r="AB2" t="n">
-        <v>424.2381773282599</v>
+        <v>573.8478103845837</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.7494811060716</v>
+        <v>519.0805807619386</v>
       </c>
       <c r="AD2" t="n">
-        <v>310060.2970569804</v>
+        <v>419404.5516456863</v>
       </c>
       <c r="AE2" t="n">
-        <v>424238.1773282599</v>
+        <v>573847.8103845837</v>
       </c>
       <c r="AF2" t="n">
         <v>1.53987886610727e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.90755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>383749.4811060716</v>
+        <v>519080.5807619386</v>
       </c>
     </row>
     <row r="3">
@@ -54614,28 +54614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>286.3456322768267</v>
+        <v>386.6063368321243</v>
       </c>
       <c r="AB3" t="n">
-        <v>391.7907267588817</v>
+        <v>528.9718459215517</v>
       </c>
       <c r="AC3" t="n">
-        <v>354.3987696787518</v>
+        <v>478.4875153634467</v>
       </c>
       <c r="AD3" t="n">
-        <v>286345.6322768267</v>
+        <v>386606.3368321243</v>
       </c>
       <c r="AE3" t="n">
-        <v>391790.7267588817</v>
+        <v>528971.8459215517</v>
       </c>
       <c r="AF3" t="n">
         <v>1.63097817444677e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.68359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>354398.7696787518</v>
+        <v>478487.5153634467</v>
       </c>
     </row>
   </sheetData>
@@ -54911,28 +54911,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>829.834808885112</v>
+        <v>1002.93431150746</v>
       </c>
       <c r="AB2" t="n">
-        <v>1135.416595244594</v>
+        <v>1372.258971343581</v>
       </c>
       <c r="AC2" t="n">
-        <v>1027.054028961649</v>
+        <v>1241.292501096111</v>
       </c>
       <c r="AD2" t="n">
-        <v>829834.8088851121</v>
+        <v>1002934.31150746</v>
       </c>
       <c r="AE2" t="n">
-        <v>1135416.595244594</v>
+        <v>1372258.971343581</v>
       </c>
       <c r="AF2" t="n">
         <v>5.334901887478537e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.97135416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1027054.028961649</v>
+        <v>1241292.501096111</v>
       </c>
     </row>
     <row r="3">
@@ -55017,28 +55017,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>534.4189370257899</v>
+        <v>659.4504291058324</v>
       </c>
       <c r="AB3" t="n">
-        <v>731.215566538214</v>
+        <v>902.2891700022593</v>
       </c>
       <c r="AC3" t="n">
-        <v>661.4293791352993</v>
+        <v>816.1759579880465</v>
       </c>
       <c r="AD3" t="n">
-        <v>534418.9370257899</v>
+        <v>659450.4291058325</v>
       </c>
       <c r="AE3" t="n">
-        <v>731215.566538214</v>
+        <v>902289.1700022593</v>
       </c>
       <c r="AF3" t="n">
         <v>7.269652885076942e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.92838541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>661429.3791352994</v>
+        <v>816175.9579880466</v>
       </c>
     </row>
     <row r="4">
@@ -55123,28 +55123,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>471.4780561969516</v>
+        <v>586.889113084777</v>
       </c>
       <c r="AB4" t="n">
-        <v>645.097076632509</v>
+        <v>803.0075762429161</v>
       </c>
       <c r="AC4" t="n">
-        <v>583.529917038135</v>
+        <v>726.3696601945032</v>
       </c>
       <c r="AD4" t="n">
-        <v>471478.0561969516</v>
+        <v>586889.113084777</v>
       </c>
       <c r="AE4" t="n">
-        <v>645097.076632509</v>
+        <v>803007.5762429162</v>
       </c>
       <c r="AF4" t="n">
         <v>7.972566017297945e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>583529.917038135</v>
+        <v>726369.6601945033</v>
       </c>
     </row>
     <row r="5">
@@ -55229,28 +55229,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>442.3137521979795</v>
+        <v>548.1385393123685</v>
       </c>
       <c r="AB5" t="n">
-        <v>605.1931892628293</v>
+        <v>749.9873316528461</v>
       </c>
       <c r="AC5" t="n">
-        <v>547.4344006735598</v>
+        <v>678.4095933337289</v>
       </c>
       <c r="AD5" t="n">
-        <v>442313.7521979795</v>
+        <v>548138.5393123685</v>
       </c>
       <c r="AE5" t="n">
-        <v>605193.1892628293</v>
+        <v>749987.3316528462</v>
       </c>
       <c r="AF5" t="n">
         <v>8.33668893886035e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.73828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>547434.4006735599</v>
+        <v>678409.593333729</v>
       </c>
     </row>
     <row r="6">
@@ -55335,28 +55335,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>431.1052889818013</v>
+        <v>536.8285908697052</v>
       </c>
       <c r="AB6" t="n">
-        <v>589.857275407956</v>
+        <v>734.5125612338837</v>
       </c>
       <c r="AC6" t="n">
-        <v>533.5621249129055</v>
+        <v>664.4117132845755</v>
       </c>
       <c r="AD6" t="n">
-        <v>431105.2889818013</v>
+        <v>536828.5908697052</v>
       </c>
       <c r="AE6" t="n">
-        <v>589857.275407956</v>
+        <v>734512.5612338837</v>
       </c>
       <c r="AF6" t="n">
         <v>8.55828056390903e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.17838541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>533562.1249129055</v>
+        <v>664411.7132845755</v>
       </c>
     </row>
     <row r="7">
@@ -55441,28 +55441,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>413.7741002699486</v>
+        <v>519.5647219655569</v>
       </c>
       <c r="AB7" t="n">
-        <v>566.1439784143158</v>
+        <v>710.8913741710852</v>
       </c>
       <c r="AC7" t="n">
-        <v>512.111991702517</v>
+        <v>643.0448991625062</v>
       </c>
       <c r="AD7" t="n">
-        <v>413774.1002699486</v>
+        <v>519564.721965557</v>
       </c>
       <c r="AE7" t="n">
-        <v>566143.9784143158</v>
+        <v>710891.3741710852</v>
       </c>
       <c r="AF7" t="n">
         <v>8.698584808914728e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>512111.991702517</v>
+        <v>643044.8991625062</v>
       </c>
     </row>
     <row r="8">
@@ -55547,28 +55547,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>408.2612382769664</v>
+        <v>514.0518599725748</v>
       </c>
       <c r="AB8" t="n">
-        <v>558.6010374252115</v>
+        <v>703.3484331819808</v>
       </c>
       <c r="AC8" t="n">
-        <v>505.2889384148286</v>
+        <v>636.2218458748179</v>
       </c>
       <c r="AD8" t="n">
-        <v>408261.2382769664</v>
+        <v>514051.8599725747</v>
       </c>
       <c r="AE8" t="n">
-        <v>558601.0374252115</v>
+        <v>703348.4331819807</v>
       </c>
       <c r="AF8" t="n">
         <v>8.804091374107505e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.5859375</v>
       </c>
       <c r="AH8" t="n">
-        <v>505288.9384148286</v>
+        <v>636221.8458748178</v>
       </c>
     </row>
     <row r="9">
@@ -55653,28 +55653,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>403.0943592058463</v>
+        <v>499.2313913203139</v>
       </c>
       <c r="AB9" t="n">
-        <v>551.531485533488</v>
+        <v>683.0704141390257</v>
       </c>
       <c r="AC9" t="n">
-        <v>498.8940946334728</v>
+        <v>617.8791325089438</v>
       </c>
       <c r="AD9" t="n">
-        <v>403094.3592058463</v>
+        <v>499231.3913203139</v>
       </c>
       <c r="AE9" t="n">
-        <v>551531.485533488</v>
+        <v>683070.4141390257</v>
       </c>
       <c r="AF9" t="n">
         <v>8.884265228396473e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.39713541666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>498894.0946334728</v>
+        <v>617879.1325089438</v>
       </c>
     </row>
     <row r="10">
@@ -55759,28 +55759,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>398.7641084492918</v>
+        <v>494.9011405637594</v>
       </c>
       <c r="AB10" t="n">
-        <v>545.6066454111894</v>
+        <v>677.1455740167272</v>
       </c>
       <c r="AC10" t="n">
-        <v>493.5347129368811</v>
+        <v>612.5197508123521</v>
       </c>
       <c r="AD10" t="n">
-        <v>398764.1084492918</v>
+        <v>494901.1405637594</v>
       </c>
       <c r="AE10" t="n">
-        <v>545606.6454111894</v>
+        <v>677145.5740167272</v>
       </c>
       <c r="AF10" t="n">
         <v>8.95914983535388e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.22786458333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>493534.7129368811</v>
+        <v>612519.7508123521</v>
       </c>
     </row>
     <row r="11">
@@ -55865,28 +55865,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>395.318140785896</v>
+        <v>491.4551729003635</v>
       </c>
       <c r="AB11" t="n">
-        <v>540.8917204287674</v>
+        <v>672.430649034305</v>
       </c>
       <c r="AC11" t="n">
-        <v>489.2697737773425</v>
+        <v>608.2548116528136</v>
       </c>
       <c r="AD11" t="n">
-        <v>395318.140785896</v>
+        <v>491455.1729003635</v>
       </c>
       <c r="AE11" t="n">
-        <v>540891.7204287674</v>
+        <v>672430.649034305</v>
       </c>
       <c r="AF11" t="n">
         <v>8.996731329551834e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.14322916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>489269.7737773425</v>
+        <v>608254.8116528136</v>
       </c>
     </row>
     <row r="12">
@@ -55971,28 +55971,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>392.1940763931115</v>
+        <v>488.331108507579</v>
       </c>
       <c r="AB12" t="n">
-        <v>536.6172377025657</v>
+        <v>668.1561663081035</v>
       </c>
       <c r="AC12" t="n">
-        <v>485.4032416832554</v>
+        <v>604.3882795587264</v>
       </c>
       <c r="AD12" t="n">
-        <v>392194.0763931115</v>
+        <v>488331.108507579</v>
       </c>
       <c r="AE12" t="n">
-        <v>536617.2377025657</v>
+        <v>668156.1663081035</v>
       </c>
       <c r="AF12" t="n">
         <v>9.036539875257817e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.05859375</v>
       </c>
       <c r="AH12" t="n">
-        <v>485403.2416832554</v>
+        <v>604388.2795587264</v>
       </c>
     </row>
     <row r="13">
@@ -56077,28 +56077,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>379.1944370399567</v>
+        <v>484.9508933167842</v>
       </c>
       <c r="AB13" t="n">
-        <v>518.8305576359669</v>
+        <v>663.5312067594883</v>
       </c>
       <c r="AC13" t="n">
-        <v>469.3140973984505</v>
+        <v>600.2047196582598</v>
       </c>
       <c r="AD13" t="n">
-        <v>379194.4370399567</v>
+        <v>484950.8933167842</v>
       </c>
       <c r="AE13" t="n">
-        <v>518830.5576359669</v>
+        <v>663531.2067594883</v>
       </c>
       <c r="AF13" t="n">
         <v>9.072172699386247e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.97395833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>469314.0973984505</v>
+        <v>600204.7196582598</v>
       </c>
     </row>
     <row r="14">
@@ -56183,28 +56183,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>374.9114513968325</v>
+        <v>480.6679076736601</v>
       </c>
       <c r="AB14" t="n">
-        <v>512.9703877270533</v>
+        <v>657.6710368505749</v>
       </c>
       <c r="AC14" t="n">
-        <v>464.0132138808436</v>
+        <v>594.9038361406529</v>
       </c>
       <c r="AD14" t="n">
-        <v>374911.4513968325</v>
+        <v>480667.9076736601</v>
       </c>
       <c r="AE14" t="n">
-        <v>512970.3877270534</v>
+        <v>657671.0368505749</v>
       </c>
       <c r="AF14" t="n">
         <v>9.11866239961631e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.87630208333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>464013.2138808436</v>
+        <v>594903.8361406529</v>
       </c>
     </row>
     <row r="15">
@@ -56289,28 +56289,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>373.0813546921875</v>
+        <v>478.837810969015</v>
       </c>
       <c r="AB15" t="n">
-        <v>510.4663686775897</v>
+        <v>655.1670178011111</v>
       </c>
       <c r="AC15" t="n">
-        <v>461.7481748950479</v>
+        <v>592.6387971548572</v>
       </c>
       <c r="AD15" t="n">
-        <v>373081.3546921875</v>
+        <v>478837.810969015</v>
       </c>
       <c r="AE15" t="n">
-        <v>510466.3686775897</v>
+        <v>655167.0178011111</v>
       </c>
       <c r="AF15" t="n">
         <v>9.134530141611002e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.84375</v>
       </c>
       <c r="AH15" t="n">
-        <v>461748.1748950479</v>
+        <v>592638.7971548572</v>
       </c>
     </row>
     <row r="16">
@@ -56395,28 +56395,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>370.3160279981188</v>
+        <v>466.5203799202907</v>
       </c>
       <c r="AB16" t="n">
-        <v>506.6827266971613</v>
+        <v>638.3137652335405</v>
       </c>
       <c r="AC16" t="n">
-        <v>458.3256383948567</v>
+        <v>577.3939953586469</v>
       </c>
       <c r="AD16" t="n">
-        <v>370316.0279981188</v>
+        <v>466520.3799202907</v>
       </c>
       <c r="AE16" t="n">
-        <v>506682.7266971613</v>
+        <v>638313.7652335404</v>
       </c>
       <c r="AF16" t="n">
         <v>9.155687130937257e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>458325.6383948567</v>
+        <v>577393.9953586468</v>
       </c>
     </row>
     <row r="17">
@@ -56501,28 +56501,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>369.3101617127097</v>
+        <v>465.5145136348817</v>
       </c>
       <c r="AB17" t="n">
-        <v>505.3064560697761</v>
+        <v>636.9374946061552</v>
       </c>
       <c r="AC17" t="n">
-        <v>457.0807171045411</v>
+        <v>576.1490740683313</v>
       </c>
       <c r="AD17" t="n">
-        <v>369310.1617127097</v>
+        <v>465514.5136348816</v>
       </c>
       <c r="AE17" t="n">
-        <v>505306.4560697761</v>
+        <v>636937.4946061552</v>
       </c>
       <c r="AF17" t="n">
         <v>9.172668398685962e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.75911458333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>457080.7171045411</v>
+        <v>576149.0740683313</v>
       </c>
     </row>
     <row r="18">
@@ -56607,28 +56607,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>369.9413338902063</v>
+        <v>466.1456858123782</v>
       </c>
       <c r="AB18" t="n">
-        <v>506.1700536883782</v>
+        <v>637.8010922247573</v>
       </c>
       <c r="AC18" t="n">
-        <v>457.8618941784907</v>
+        <v>576.9302511422809</v>
       </c>
       <c r="AD18" t="n">
-        <v>369941.3338902063</v>
+        <v>466145.6858123782</v>
       </c>
       <c r="AE18" t="n">
-        <v>506170.0536883782</v>
+        <v>637801.0922247573</v>
       </c>
       <c r="AF18" t="n">
         <v>9.173781924439975e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.75911458333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>457861.8941784907</v>
+        <v>576930.2511422809</v>
       </c>
     </row>
   </sheetData>
@@ -56904,28 +56904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1135.749465967226</v>
+        <v>1330.40872201872</v>
       </c>
       <c r="AB2" t="n">
-        <v>1553.982525066513</v>
+        <v>1820.32390695645</v>
       </c>
       <c r="AC2" t="n">
-        <v>1405.672613902336</v>
+        <v>1646.594748117175</v>
       </c>
       <c r="AD2" t="n">
-        <v>1135749.465967226</v>
+        <v>1330408.72201872</v>
       </c>
       <c r="AE2" t="n">
-        <v>1553982.525066513</v>
+        <v>1820323.90695645</v>
       </c>
       <c r="AF2" t="n">
         <v>4.088101790388142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.05859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1405672.613902336</v>
+        <v>1646594.748117175</v>
       </c>
     </row>
     <row r="3">
@@ -57010,28 +57010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>635.0590066340385</v>
+        <v>771.3334443166966</v>
       </c>
       <c r="AB3" t="n">
-        <v>868.9157497027365</v>
+        <v>1055.372447344034</v>
       </c>
       <c r="AC3" t="n">
-        <v>785.9876500820208</v>
+        <v>954.6491821940514</v>
       </c>
       <c r="AD3" t="n">
-        <v>635059.0066340385</v>
+        <v>771333.4443166966</v>
       </c>
       <c r="AE3" t="n">
-        <v>868915.7497027365</v>
+        <v>1055372.447344034</v>
       </c>
       <c r="AF3" t="n">
         <v>6.092911738049569e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>785987.6500820208</v>
+        <v>954649.1821940513</v>
       </c>
     </row>
     <row r="4">
@@ -57116,28 +57116,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>540.151227530509</v>
+        <v>666.6551710014264</v>
       </c>
       <c r="AB4" t="n">
-        <v>739.0587392975798</v>
+        <v>912.1470157145902</v>
       </c>
       <c r="AC4" t="n">
-        <v>668.5240104944733</v>
+        <v>825.0929847411662</v>
       </c>
       <c r="AD4" t="n">
-        <v>540151.227530509</v>
+        <v>666655.1710014264</v>
       </c>
       <c r="AE4" t="n">
-        <v>739058.7392975797</v>
+        <v>912147.0157145902</v>
       </c>
       <c r="AF4" t="n">
         <v>6.843772176414607e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.93229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>668524.0104944733</v>
+        <v>825092.9847411662</v>
       </c>
     </row>
     <row r="5">
@@ -57222,28 +57222,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>504.0066715745376</v>
+        <v>620.8084516712757</v>
       </c>
       <c r="AB5" t="n">
-        <v>689.604163253351</v>
+        <v>849.4175117125704</v>
       </c>
       <c r="AC5" t="n">
-        <v>623.7893097779723</v>
+        <v>768.3502965596872</v>
       </c>
       <c r="AD5" t="n">
-        <v>504006.6715745376</v>
+        <v>620808.4516712758</v>
       </c>
       <c r="AE5" t="n">
-        <v>689604.163253351</v>
+        <v>849417.5117125704</v>
       </c>
       <c r="AF5" t="n">
         <v>7.222598246825914e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.67578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>623789.3097779723</v>
+        <v>768350.2965596872</v>
       </c>
     </row>
     <row r="6">
@@ -57328,28 +57328,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>478.3280022764339</v>
+        <v>595.0956169543914</v>
       </c>
       <c r="AB6" t="n">
-        <v>654.4694750567495</v>
+        <v>814.2360768827212</v>
       </c>
       <c r="AC6" t="n">
-        <v>592.0078269110101</v>
+        <v>736.526528492545</v>
       </c>
       <c r="AD6" t="n">
-        <v>478328.0022764339</v>
+        <v>595095.6169543914</v>
       </c>
       <c r="AE6" t="n">
-        <v>654469.4750567495</v>
+        <v>814236.0768827213</v>
       </c>
       <c r="AF6" t="n">
         <v>7.466344901692151e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.93359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>592007.8269110101</v>
+        <v>736526.528492545</v>
       </c>
     </row>
     <row r="7">
@@ -57434,28 +57434,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>467.842879306728</v>
+        <v>574.841010802802</v>
       </c>
       <c r="AB7" t="n">
-        <v>640.1232672386193</v>
+        <v>786.5228311759582</v>
       </c>
       <c r="AC7" t="n">
-        <v>579.0308010320128</v>
+        <v>711.4581960602508</v>
       </c>
       <c r="AD7" t="n">
-        <v>467842.879306728</v>
+        <v>574841.0108028019</v>
       </c>
       <c r="AE7" t="n">
-        <v>640123.2672386193</v>
+        <v>786522.8311759583</v>
       </c>
       <c r="AF7" t="n">
         <v>7.635382829525085e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.4453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>579030.8010320128</v>
+        <v>711458.1960602507</v>
       </c>
     </row>
     <row r="8">
@@ -57540,28 +57540,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>460.6932462111233</v>
+        <v>567.6913777071974</v>
       </c>
       <c r="AB8" t="n">
-        <v>630.340823817662</v>
+        <v>776.7403877550009</v>
       </c>
       <c r="AC8" t="n">
-        <v>570.1819802814063</v>
+        <v>702.6093753096441</v>
       </c>
       <c r="AD8" t="n">
-        <v>460693.2462111233</v>
+        <v>567691.3777071973</v>
       </c>
       <c r="AE8" t="n">
-        <v>630340.823817662</v>
+        <v>776740.387755001</v>
       </c>
       <c r="AF8" t="n">
         <v>7.751596404910226e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.12630208333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>570181.9802814062</v>
+        <v>702609.375309644</v>
       </c>
     </row>
     <row r="9">
@@ -57646,28 +57646,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>445.6891232626365</v>
+        <v>552.7545745664148</v>
       </c>
       <c r="AB9" t="n">
-        <v>609.8115208643547</v>
+        <v>756.3031947325354</v>
       </c>
       <c r="AC9" t="n">
-        <v>551.6119651889052</v>
+        <v>684.122679305462</v>
       </c>
       <c r="AD9" t="n">
-        <v>445689.1232626365</v>
+        <v>552754.5745664148</v>
       </c>
       <c r="AE9" t="n">
-        <v>609811.5208643548</v>
+        <v>756303.1947325354</v>
       </c>
       <c r="AF9" t="n">
         <v>7.834103012542967e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.90494791666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>551611.9651889051</v>
+        <v>684122.6793054621</v>
       </c>
     </row>
     <row r="10">
@@ -57752,28 +57752,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>440.3855956301665</v>
+        <v>547.4510469339449</v>
       </c>
       <c r="AB10" t="n">
-        <v>602.5550003824835</v>
+        <v>749.046674250664</v>
       </c>
       <c r="AC10" t="n">
-        <v>545.047996837233</v>
+        <v>677.55871095379</v>
       </c>
       <c r="AD10" t="n">
-        <v>440385.5956301665</v>
+        <v>547451.0469339449</v>
       </c>
       <c r="AE10" t="n">
-        <v>602555.0003824835</v>
+        <v>749046.674250664</v>
       </c>
       <c r="AF10" t="n">
         <v>7.91132718493093e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.703125</v>
       </c>
       <c r="AH10" t="n">
-        <v>545047.996837233</v>
+        <v>677558.71095379</v>
       </c>
     </row>
     <row r="11">
@@ -57858,28 +57858,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>436.2274820930162</v>
+        <v>543.2929333967946</v>
       </c>
       <c r="AB11" t="n">
-        <v>596.865685997932</v>
+        <v>743.3573598661125</v>
       </c>
       <c r="AC11" t="n">
-        <v>539.9016626325401</v>
+        <v>672.4123767490971</v>
       </c>
       <c r="AD11" t="n">
-        <v>436227.4820930163</v>
+        <v>543292.9333967946</v>
       </c>
       <c r="AE11" t="n">
-        <v>596865.685997932</v>
+        <v>743357.3598661125</v>
       </c>
       <c r="AF11" t="n">
         <v>7.971949417978157e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.54036458333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>539901.6626325401</v>
+        <v>672412.3767490971</v>
       </c>
     </row>
     <row r="12">
@@ -57964,28 +57964,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>433.5221924382453</v>
+        <v>540.4861585155384</v>
       </c>
       <c r="AB12" t="n">
-        <v>593.1641893433178</v>
+        <v>739.5170066474092</v>
       </c>
       <c r="AC12" t="n">
-        <v>536.5534316235594</v>
+        <v>668.9385414516173</v>
       </c>
       <c r="AD12" t="n">
-        <v>433522.1924382453</v>
+        <v>540486.1585155383</v>
       </c>
       <c r="AE12" t="n">
-        <v>593164.1893433179</v>
+        <v>739517.0066474092</v>
       </c>
       <c r="AF12" t="n">
         <v>8.00263785130497e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.46223958333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>536553.4316235594</v>
+        <v>668938.5414516173</v>
       </c>
     </row>
     <row r="13">
@@ -58070,28 +58070,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>429.1625281794735</v>
+        <v>526.4584963013682</v>
       </c>
       <c r="AB13" t="n">
-        <v>587.1991043696535</v>
+        <v>720.3237403492014</v>
       </c>
       <c r="AC13" t="n">
-        <v>531.1576459877321</v>
+        <v>651.5770535509919</v>
       </c>
       <c r="AD13" t="n">
-        <v>429162.5281794735</v>
+        <v>526458.4963013682</v>
       </c>
       <c r="AE13" t="n">
-        <v>587199.1043696535</v>
+        <v>720323.7403492015</v>
       </c>
       <c r="AF13" t="n">
         <v>8.062756995281265e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.3125</v>
       </c>
       <c r="AH13" t="n">
-        <v>531157.6459877321</v>
+        <v>651577.0535509919</v>
       </c>
     </row>
     <row r="14">
@@ -58176,28 +58176,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>427.6372010351295</v>
+        <v>524.9331691570244</v>
       </c>
       <c r="AB14" t="n">
-        <v>585.1120844780779</v>
+        <v>718.2367204576258</v>
       </c>
       <c r="AC14" t="n">
-        <v>529.2698083454577</v>
+        <v>649.6892159087176</v>
       </c>
       <c r="AD14" t="n">
-        <v>427637.2010351295</v>
+        <v>524933.1691570244</v>
       </c>
       <c r="AE14" t="n">
-        <v>585112.0844780779</v>
+        <v>718236.7204576258</v>
       </c>
       <c r="AF14" t="n">
         <v>8.080365112763862e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.26692708333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>529269.8083454577</v>
+        <v>649689.2159087176</v>
       </c>
     </row>
     <row r="15">
@@ -58282,28 +58282,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>424.4796953455435</v>
+        <v>521.7756634674383</v>
       </c>
       <c r="AB15" t="n">
-        <v>580.7918458942665</v>
+        <v>713.9164818738144</v>
       </c>
       <c r="AC15" t="n">
-        <v>525.3618872685922</v>
+        <v>645.7812948318522</v>
       </c>
       <c r="AD15" t="n">
-        <v>424479.6953455435</v>
+        <v>521775.6634674383</v>
       </c>
       <c r="AE15" t="n">
-        <v>580791.8458942665</v>
+        <v>713916.4818738144</v>
       </c>
       <c r="AF15" t="n">
         <v>8.117845248548249e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.17578125</v>
       </c>
       <c r="AH15" t="n">
-        <v>525361.8872685923</v>
+        <v>645781.2948318522</v>
       </c>
     </row>
     <row r="16">
@@ -58388,28 +58388,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>422.830400757741</v>
+        <v>520.1263688796358</v>
       </c>
       <c r="AB16" t="n">
-        <v>578.5352082774931</v>
+        <v>711.6598442570411</v>
       </c>
       <c r="AC16" t="n">
-        <v>523.320619978753</v>
+        <v>643.7400275420129</v>
       </c>
       <c r="AD16" t="n">
-        <v>422830.400757741</v>
+        <v>520126.3688796358</v>
       </c>
       <c r="AE16" t="n">
-        <v>578535.2082774931</v>
+        <v>711659.8442570411</v>
       </c>
       <c r="AF16" t="n">
         <v>8.133441009747121e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.13671875</v>
       </c>
       <c r="AH16" t="n">
-        <v>523320.619978753</v>
+        <v>643740.0275420129</v>
       </c>
     </row>
     <row r="17">
@@ -58494,28 +58494,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>420.3720370205855</v>
+        <v>517.6680051424804</v>
       </c>
       <c r="AB17" t="n">
-        <v>575.1715665569635</v>
+        <v>708.2962025365114</v>
       </c>
       <c r="AC17" t="n">
-        <v>520.2779995031299</v>
+        <v>640.6974070663897</v>
       </c>
       <c r="AD17" t="n">
-        <v>420372.0370205856</v>
+        <v>517668.0051424804</v>
       </c>
       <c r="AE17" t="n">
-        <v>575171.5665569635</v>
+        <v>708296.2025365114</v>
       </c>
       <c r="AF17" t="n">
         <v>8.157840829687291e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20.078125</v>
       </c>
       <c r="AH17" t="n">
-        <v>520277.9995031299</v>
+        <v>640697.4070663897</v>
       </c>
     </row>
     <row r="18">
@@ -58600,28 +58600,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>417.8644132091566</v>
+        <v>515.1603813310514</v>
       </c>
       <c r="AB18" t="n">
-        <v>571.7405250296115</v>
+        <v>704.8651610091595</v>
       </c>
       <c r="AC18" t="n">
-        <v>517.1744117636514</v>
+        <v>637.5938193269113</v>
       </c>
       <c r="AD18" t="n">
-        <v>417864.4132091566</v>
+        <v>515160.3813310515</v>
       </c>
       <c r="AE18" t="n">
-        <v>571740.5250296115</v>
+        <v>704865.1610091595</v>
       </c>
       <c r="AF18" t="n">
         <v>8.176706669847216e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20.02604166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>517174.4117636514</v>
+        <v>637593.8193269114</v>
       </c>
     </row>
     <row r="19">
@@ -58706,28 +58706,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>405.9824808865042</v>
+        <v>513.0137667715017</v>
       </c>
       <c r="AB19" t="n">
-        <v>555.4831410319002</v>
+        <v>701.9280682668327</v>
       </c>
       <c r="AC19" t="n">
-        <v>502.4686096772997</v>
+        <v>634.9370385936768</v>
       </c>
       <c r="AD19" t="n">
-        <v>405982.4808865042</v>
+        <v>513013.7667715017</v>
       </c>
       <c r="AE19" t="n">
-        <v>555483.1410319002</v>
+        <v>701928.0682668327</v>
       </c>
       <c r="AF19" t="n">
         <v>8.1980879553618e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.97395833333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>502468.6096772997</v>
+        <v>634937.0385936768</v>
       </c>
     </row>
     <row r="20">
@@ -58812,28 +58812,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>404.0766699260212</v>
+        <v>511.1079558110188</v>
       </c>
       <c r="AB20" t="n">
-        <v>552.8755263973219</v>
+        <v>699.3204536322544</v>
       </c>
       <c r="AC20" t="n">
-        <v>500.1098621236355</v>
+        <v>632.5782910400125</v>
       </c>
       <c r="AD20" t="n">
-        <v>404076.6699260212</v>
+        <v>511107.9558110188</v>
       </c>
       <c r="AE20" t="n">
-        <v>552875.5263973218</v>
+        <v>699320.4536322544</v>
       </c>
       <c r="AF20" t="n">
         <v>8.214689894702533e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.93489583333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>500109.8621236355</v>
+        <v>632578.2910400125</v>
       </c>
     </row>
     <row r="21">
@@ -58918,28 +58918,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>400.9196401388019</v>
+        <v>507.9509260237995</v>
       </c>
       <c r="AB21" t="n">
-        <v>548.5559389641238</v>
+        <v>695.0008661990566</v>
       </c>
       <c r="AC21" t="n">
-        <v>496.2025300524829</v>
+        <v>628.6709589688598</v>
       </c>
       <c r="AD21" t="n">
-        <v>400919.6401388019</v>
+        <v>507950.9260237995</v>
       </c>
       <c r="AE21" t="n">
-        <v>548555.9389641238</v>
+        <v>695000.8661990566</v>
       </c>
       <c r="AF21" t="n">
         <v>8.235065002075254e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>19.88932291666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>496202.5300524829</v>
+        <v>628670.9589688599</v>
       </c>
     </row>
     <row r="22">
@@ -59024,28 +59024,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>400.3226735523934</v>
+        <v>507.3539594373909</v>
       </c>
       <c r="AB22" t="n">
-        <v>547.7391429442927</v>
+        <v>694.1840701792254</v>
       </c>
       <c r="AC22" t="n">
-        <v>495.463687898404</v>
+        <v>627.932116814781</v>
       </c>
       <c r="AD22" t="n">
-        <v>400322.6735523934</v>
+        <v>507353.9594373909</v>
       </c>
       <c r="AE22" t="n">
-        <v>547739.1429442926</v>
+        <v>694184.0701792254</v>
       </c>
       <c r="AF22" t="n">
         <v>8.236071180217116e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>20</v>
+        <v>19.8828125</v>
       </c>
       <c r="AH22" t="n">
-        <v>495463.687898404</v>
+        <v>627932.116814781</v>
       </c>
     </row>
     <row r="23">
@@ -59130,28 +59130,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>397.6187185317746</v>
+        <v>504.650004416772</v>
       </c>
       <c r="AB23" t="n">
-        <v>544.0394723950054</v>
+        <v>690.4843996299381</v>
       </c>
       <c r="AC23" t="n">
-        <v>492.1171087138205</v>
+        <v>624.5855376301976</v>
       </c>
       <c r="AD23" t="n">
-        <v>397618.7185317746</v>
+        <v>504650.004416772</v>
       </c>
       <c r="AE23" t="n">
-        <v>544039.4723950054</v>
+        <v>690484.3996299382</v>
       </c>
       <c r="AF23" t="n">
         <v>8.255691653983439e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>19.83723958333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>492117.1087138205</v>
+        <v>624585.5376301976</v>
       </c>
     </row>
     <row r="24">
@@ -59236,28 +59236,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>397.9138316838007</v>
+        <v>504.9451175687983</v>
       </c>
       <c r="AB24" t="n">
-        <v>544.4432592290813</v>
+        <v>690.8881864640138</v>
       </c>
       <c r="AC24" t="n">
-        <v>492.4823586991704</v>
+        <v>624.9507876155474</v>
       </c>
       <c r="AD24" t="n">
-        <v>397913.8316838007</v>
+        <v>504945.1175687983</v>
       </c>
       <c r="AE24" t="n">
-        <v>544443.2592290812</v>
+        <v>690888.1864640138</v>
       </c>
       <c r="AF24" t="n">
         <v>8.251163852345055e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>19.85026041666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>492482.3586991704</v>
+        <v>624950.7876155474</v>
       </c>
     </row>
     <row r="25">
@@ -59342,28 +59342,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>398.3831972511394</v>
+        <v>505.414483136137</v>
       </c>
       <c r="AB25" t="n">
-        <v>545.0854659052612</v>
+        <v>691.530393140194</v>
       </c>
       <c r="AC25" t="n">
-        <v>493.0632740715186</v>
+        <v>625.5317029878955</v>
       </c>
       <c r="AD25" t="n">
-        <v>398383.1972511394</v>
+        <v>505414.483136137</v>
       </c>
       <c r="AE25" t="n">
-        <v>545085.4659052612</v>
+        <v>691530.393140194</v>
       </c>
       <c r="AF25" t="n">
         <v>8.250912307809591e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>19.85026041666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>493063.2740715186</v>
+        <v>625531.7029878956</v>
       </c>
     </row>
     <row r="26">
@@ -59448,28 +59448,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>398.6834820266596</v>
+        <v>505.7147679116572</v>
       </c>
       <c r="AB26" t="n">
-        <v>545.4963287827574</v>
+        <v>691.9412560176901</v>
       </c>
       <c r="AC26" t="n">
-        <v>493.4349247726362</v>
+        <v>625.9033536890133</v>
       </c>
       <c r="AD26" t="n">
-        <v>398683.4820266597</v>
+        <v>505714.7679116572</v>
       </c>
       <c r="AE26" t="n">
-        <v>545496.3287827574</v>
+        <v>691941.2560176901</v>
       </c>
       <c r="AF26" t="n">
         <v>8.251918485951454e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>19.84375</v>
       </c>
       <c r="AH26" t="n">
-        <v>493434.9247726362</v>
+        <v>625903.3536890133</v>
       </c>
     </row>
   </sheetData>
@@ -59745,28 +59745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.8275358615146</v>
+        <v>378.1538987966233</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.5041355684464</v>
+        <v>517.4068473061308</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.0939163142103</v>
+        <v>468.0262639843039</v>
       </c>
       <c r="AD2" t="n">
-        <v>278827.5358615146</v>
+        <v>378153.8987966233</v>
       </c>
       <c r="AE2" t="n">
-        <v>381504.1355684464</v>
+        <v>517406.8473061307</v>
       </c>
       <c r="AF2" t="n">
         <v>1.846143796735753e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.5234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>345093.9163142103</v>
+        <v>468026.2639843039</v>
       </c>
     </row>
   </sheetData>
@@ -60042,28 +60042,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>574.3533692332155</v>
+        <v>706.4895594727145</v>
       </c>
       <c r="AB2" t="n">
-        <v>785.8556184672224</v>
+        <v>966.6501833901972</v>
       </c>
       <c r="AC2" t="n">
-        <v>710.8546611959977</v>
+        <v>874.3944465894893</v>
       </c>
       <c r="AD2" t="n">
-        <v>574353.3692332155</v>
+        <v>706489.5594727146</v>
       </c>
       <c r="AE2" t="n">
-        <v>785855.6184672223</v>
+        <v>966650.1833901972</v>
       </c>
       <c r="AF2" t="n">
         <v>7.719424033012579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.05989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>710854.6611959976</v>
+        <v>874394.4465894894</v>
       </c>
     </row>
     <row r="3">
@@ -60148,28 +60148,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>422.8832370930693</v>
+        <v>536.1663660004629</v>
       </c>
       <c r="AB3" t="n">
-        <v>578.607501282464</v>
+        <v>733.6064759524872</v>
       </c>
       <c r="AC3" t="n">
-        <v>523.3860134407932</v>
+        <v>663.5921035107367</v>
       </c>
       <c r="AD3" t="n">
-        <v>422883.2370930694</v>
+        <v>536166.3660004629</v>
       </c>
       <c r="AE3" t="n">
-        <v>578607.501282464</v>
+        <v>733606.4759524872</v>
       </c>
       <c r="AF3" t="n">
         <v>9.511961924228016e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.7734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>523386.0134407933</v>
+        <v>663592.1035107367</v>
       </c>
     </row>
     <row r="4">
@@ -60254,28 +60254,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>389.1887294154084</v>
+        <v>492.9614306545831</v>
       </c>
       <c r="AB4" t="n">
-        <v>532.5051893811213</v>
+        <v>674.4915773450306</v>
       </c>
       <c r="AC4" t="n">
-        <v>481.6836414823136</v>
+        <v>610.1190478580943</v>
       </c>
       <c r="AD4" t="n">
-        <v>389188.7294154085</v>
+        <v>492961.4306545831</v>
       </c>
       <c r="AE4" t="n">
-        <v>532505.1893811213</v>
+        <v>674491.5773450306</v>
       </c>
       <c r="AF4" t="n">
         <v>1.014740130288828e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.34765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>481683.6414823136</v>
+        <v>610119.0478580943</v>
       </c>
     </row>
     <row r="5">
@@ -60360,28 +60360,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>367.5529008293064</v>
+        <v>471.3929218761855</v>
       </c>
       <c r="AB5" t="n">
-        <v>502.9020942042249</v>
+        <v>644.9805920989755</v>
       </c>
       <c r="AC5" t="n">
-        <v>454.9058241608952</v>
+        <v>583.4245496249951</v>
       </c>
       <c r="AD5" t="n">
-        <v>367552.9008293064</v>
+        <v>471392.9218761855</v>
       </c>
       <c r="AE5" t="n">
-        <v>502902.0942042249</v>
+        <v>644980.5920989756</v>
       </c>
       <c r="AF5" t="n">
         <v>1.046379022912174e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.69661458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>454905.8241608952</v>
+        <v>583424.5496249951</v>
       </c>
     </row>
     <row r="6">
@@ -60466,28 +60466,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>358.915630375545</v>
+        <v>453.2793891729859</v>
       </c>
       <c r="AB6" t="n">
-        <v>491.0841997199093</v>
+        <v>620.1968575417937</v>
       </c>
       <c r="AC6" t="n">
-        <v>444.2158129396436</v>
+        <v>561.0061399097607</v>
       </c>
       <c r="AD6" t="n">
-        <v>358915.6303755451</v>
+        <v>453279.3891729859</v>
       </c>
       <c r="AE6" t="n">
-        <v>491084.1997199093</v>
+        <v>620196.8575417937</v>
       </c>
       <c r="AF6" t="n">
         <v>1.066407007517068e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.3125</v>
       </c>
       <c r="AH6" t="n">
-        <v>444215.8129396436</v>
+        <v>561006.1399097607</v>
       </c>
     </row>
     <row r="7">
@@ -60572,28 +60572,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>353.2782796327773</v>
+        <v>447.6420384302182</v>
       </c>
       <c r="AB7" t="n">
-        <v>483.3709277312923</v>
+        <v>612.4835855531767</v>
       </c>
       <c r="AC7" t="n">
-        <v>437.2386848039749</v>
+        <v>554.0290117740919</v>
       </c>
       <c r="AD7" t="n">
-        <v>353278.2796327773</v>
+        <v>447642.0384302182</v>
       </c>
       <c r="AE7" t="n">
-        <v>483370.9277312923</v>
+        <v>612483.5855531767</v>
       </c>
       <c r="AF7" t="n">
         <v>1.077485610296851e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>437238.6848039749</v>
+        <v>554029.011774092</v>
       </c>
     </row>
     <row r="8">
@@ -60678,28 +60678,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>338.2785607889736</v>
+        <v>442.0844164170718</v>
       </c>
       <c r="AB8" t="n">
-        <v>462.8476506683079</v>
+        <v>604.8794019298109</v>
       </c>
       <c r="AC8" t="n">
-        <v>418.6741204992815</v>
+        <v>547.1505607632015</v>
       </c>
       <c r="AD8" t="n">
-        <v>338278.5607889736</v>
+        <v>442084.4164170718</v>
       </c>
       <c r="AE8" t="n">
-        <v>462847.6506683079</v>
+        <v>604879.4019298109</v>
       </c>
       <c r="AF8" t="n">
         <v>1.087732486141216e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.91536458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>418674.1204992815</v>
+        <v>547150.5607632014</v>
       </c>
     </row>
     <row r="9">
@@ -60784,28 +60784,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>334.4476553223</v>
+        <v>428.8787339274454</v>
       </c>
       <c r="AB9" t="n">
-        <v>457.6060368011841</v>
+        <v>586.81080455391</v>
       </c>
       <c r="AC9" t="n">
-        <v>413.9327589029847</v>
+        <v>530.8064049614208</v>
       </c>
       <c r="AD9" t="n">
-        <v>334447.6553223</v>
+        <v>428878.7339274454</v>
       </c>
       <c r="AE9" t="n">
-        <v>457606.0368011841</v>
+        <v>586810.8045539099</v>
       </c>
       <c r="AF9" t="n">
         <v>1.09448610885682e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>413932.7589029847</v>
+        <v>530806.4049614208</v>
       </c>
     </row>
     <row r="10">
@@ -60890,28 +60890,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>335.0549893221499</v>
+        <v>429.4860679272952</v>
       </c>
       <c r="AB10" t="n">
-        <v>458.4370179734636</v>
+        <v>587.6417857261895</v>
       </c>
       <c r="AC10" t="n">
-        <v>414.6844323984713</v>
+        <v>531.5580784569075</v>
       </c>
       <c r="AD10" t="n">
-        <v>335054.9893221499</v>
+        <v>429486.0679272952</v>
       </c>
       <c r="AE10" t="n">
-        <v>458437.0179734636</v>
+        <v>587641.7857261895</v>
       </c>
       <c r="AF10" t="n">
         <v>1.093987072695568e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.79817708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>414684.4323984713</v>
+        <v>531558.0784569075</v>
       </c>
     </row>
   </sheetData>
@@ -61187,28 +61187,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>719.7044341973213</v>
+        <v>872.4821161567911</v>
       </c>
       <c r="AB2" t="n">
-        <v>984.7313579875307</v>
+        <v>1193.768522520115</v>
       </c>
       <c r="AC2" t="n">
-        <v>890.7499792603414</v>
+        <v>1079.836930195439</v>
       </c>
       <c r="AD2" t="n">
-        <v>719704.4341973213</v>
+        <v>872482.1161567911</v>
       </c>
       <c r="AE2" t="n">
-        <v>984731.3579875308</v>
+        <v>1193768.522520115</v>
       </c>
       <c r="AF2" t="n">
         <v>6.13010517413159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.45833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>890749.9792603414</v>
+        <v>1079836.930195439</v>
       </c>
     </row>
     <row r="3">
@@ -61293,28 +61293,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>497.2584918428481</v>
+        <v>611.85054742461</v>
       </c>
       <c r="AB3" t="n">
-        <v>680.3710060357749</v>
+        <v>837.1609119274383</v>
       </c>
       <c r="AC3" t="n">
-        <v>615.4373521264242</v>
+        <v>757.2634494558023</v>
       </c>
       <c r="AD3" t="n">
-        <v>497258.4918428481</v>
+        <v>611850.54742461</v>
       </c>
       <c r="AE3" t="n">
-        <v>680371.0060357749</v>
+        <v>837160.9119274383</v>
       </c>
       <c r="AF3" t="n">
         <v>8.017749796446697e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.05598958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>615437.3521264242</v>
+        <v>757263.4494558023</v>
       </c>
     </row>
     <row r="4">
@@ -61399,28 +61399,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>443.1700734974273</v>
+        <v>548.2071811300669</v>
       </c>
       <c r="AB4" t="n">
-        <v>606.3648458429633</v>
+        <v>750.0812504160846</v>
       </c>
       <c r="AC4" t="n">
-        <v>548.4942359941161</v>
+        <v>678.4945486220195</v>
       </c>
       <c r="AD4" t="n">
-        <v>443170.0734974273</v>
+        <v>548207.181130067</v>
       </c>
       <c r="AE4" t="n">
-        <v>606364.8458429633</v>
+        <v>750081.2504160845</v>
       </c>
       <c r="AF4" t="n">
         <v>8.692881951854122e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>548494.2359941162</v>
+        <v>678494.5486220195</v>
       </c>
     </row>
     <row r="5">
@@ -61505,28 +61505,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>417.4958380201321</v>
+        <v>522.4987802339909</v>
       </c>
       <c r="AB5" t="n">
-        <v>571.2362241955984</v>
+        <v>714.9058821354718</v>
       </c>
       <c r="AC5" t="n">
-        <v>516.7182406934458</v>
+        <v>646.6762681211692</v>
       </c>
       <c r="AD5" t="n">
-        <v>417495.838020132</v>
+        <v>522498.780233991</v>
       </c>
       <c r="AE5" t="n">
-        <v>571236.2241955984</v>
+        <v>714905.8821354718</v>
       </c>
       <c r="AF5" t="n">
         <v>9.032077352442761e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.35416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>516718.2406934457</v>
+        <v>646676.2681211692</v>
       </c>
     </row>
     <row r="6">
@@ -61611,28 +61611,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>397.6544425414646</v>
+        <v>502.7247045630278</v>
       </c>
       <c r="AB6" t="n">
-        <v>544.0883515610956</v>
+        <v>687.8501194318104</v>
       </c>
       <c r="AC6" t="n">
-        <v>492.1613229209012</v>
+        <v>622.2026694369437</v>
       </c>
       <c r="AD6" t="n">
-        <v>397654.4425414646</v>
+        <v>502724.7045630278</v>
       </c>
       <c r="AE6" t="n">
-        <v>544088.3515610956</v>
+        <v>687850.1194318105</v>
       </c>
       <c r="AF6" t="n">
         <v>9.252480302694241e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.84635416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>492161.3229209012</v>
+        <v>622202.6694369437</v>
       </c>
     </row>
     <row r="7">
@@ -61717,28 +61717,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>390.3500960278949</v>
+        <v>495.4203580494582</v>
       </c>
       <c r="AB7" t="n">
-        <v>534.0942224162042</v>
+        <v>677.8559902869192</v>
       </c>
       <c r="AC7" t="n">
-        <v>483.1210194347499</v>
+        <v>613.1623659507925</v>
       </c>
       <c r="AD7" t="n">
-        <v>390350.0960278949</v>
+        <v>495420.3580494582</v>
       </c>
       <c r="AE7" t="n">
-        <v>534094.2224162042</v>
+        <v>677855.9902869192</v>
       </c>
       <c r="AF7" t="n">
         <v>9.402378008107211e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.51432291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>483121.01943475</v>
+        <v>613162.3659507924</v>
       </c>
     </row>
     <row r="8">
@@ -61823,28 +61823,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>385.5197964841038</v>
+        <v>481.0019561676214</v>
       </c>
       <c r="AB8" t="n">
-        <v>527.4851934826131</v>
+        <v>658.1280967371922</v>
       </c>
       <c r="AC8" t="n">
-        <v>477.1427469467505</v>
+        <v>595.3172748731789</v>
       </c>
       <c r="AD8" t="n">
-        <v>385519.7964841038</v>
+        <v>481001.9561676214</v>
       </c>
       <c r="AE8" t="n">
-        <v>527485.1934826131</v>
+        <v>658128.0967371922</v>
       </c>
       <c r="AF8" t="n">
         <v>9.48384415235339e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.33854166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>477142.7469467506</v>
+        <v>595317.2748731789</v>
       </c>
     </row>
     <row r="9">
@@ -61929,28 +61929,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>381.022086912279</v>
+        <v>476.5042465957965</v>
       </c>
       <c r="AB9" t="n">
-        <v>521.3312288215002</v>
+        <v>651.9741320760794</v>
       </c>
       <c r="AC9" t="n">
-        <v>471.5761080357506</v>
+        <v>589.7506359621791</v>
       </c>
       <c r="AD9" t="n">
-        <v>381022.086912279</v>
+        <v>476504.2465957965</v>
       </c>
       <c r="AE9" t="n">
-        <v>521331.2288215002</v>
+        <v>651974.1320760794</v>
       </c>
       <c r="AF9" t="n">
         <v>9.566199018173164e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.16276041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>471576.1080357506</v>
+        <v>589750.635962179</v>
       </c>
     </row>
     <row r="10">
@@ -62035,28 +62035,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>365.4900962342118</v>
+        <v>470.5261928369944</v>
       </c>
       <c r="AB10" t="n">
-        <v>500.0796739527005</v>
+        <v>643.7946951901678</v>
       </c>
       <c r="AC10" t="n">
-        <v>452.3527717368846</v>
+        <v>582.3518330527472</v>
       </c>
       <c r="AD10" t="n">
-        <v>365490.0962342118</v>
+        <v>470526.1928369944</v>
       </c>
       <c r="AE10" t="n">
-        <v>500079.6739527006</v>
+        <v>643794.6951901678</v>
       </c>
       <c r="AF10" t="n">
         <v>9.647961402943874e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.99348958333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>452352.7717368846</v>
+        <v>582351.8330527472</v>
       </c>
     </row>
     <row r="11">
@@ -62141,28 +62141,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>362.9902293525112</v>
+        <v>468.0263259552937</v>
       </c>
       <c r="AB11" t="n">
-        <v>496.6592457988147</v>
+        <v>640.3742670362817</v>
       </c>
       <c r="AC11" t="n">
-        <v>449.2587844454044</v>
+        <v>579.257845761267</v>
       </c>
       <c r="AD11" t="n">
-        <v>362990.2293525112</v>
+        <v>468026.3259552937</v>
       </c>
       <c r="AE11" t="n">
-        <v>496659.2457988147</v>
+        <v>640374.2670362818</v>
       </c>
       <c r="AF11" t="n">
         <v>9.687065152182041e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.90885416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>449258.7844454044</v>
+        <v>579257.845761267</v>
       </c>
     </row>
     <row r="12">
@@ -62247,28 +62247,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>358.9818461772495</v>
+        <v>464.0179427800319</v>
       </c>
       <c r="AB12" t="n">
-        <v>491.1747991010363</v>
+        <v>634.8898203385035</v>
       </c>
       <c r="AC12" t="n">
-        <v>444.2977656429927</v>
+        <v>574.2968269588553</v>
       </c>
       <c r="AD12" t="n">
-        <v>358981.8461772494</v>
+        <v>464017.9427800319</v>
       </c>
       <c r="AE12" t="n">
-        <v>491174.7991010363</v>
+        <v>634889.8203385035</v>
       </c>
       <c r="AF12" t="n">
         <v>9.725576420371144e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.83072916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>444297.7656429927</v>
+        <v>574296.8269588553</v>
       </c>
     </row>
     <row r="13">
@@ -62353,28 +62353,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>356.3137938094303</v>
+        <v>451.8632733006522</v>
       </c>
       <c r="AB13" t="n">
-        <v>487.5242521452229</v>
+        <v>618.2592653306436</v>
       </c>
       <c r="AC13" t="n">
-        <v>440.9956217650674</v>
+        <v>559.253468779815</v>
       </c>
       <c r="AD13" t="n">
-        <v>356313.7938094303</v>
+        <v>451863.2733006522</v>
       </c>
       <c r="AE13" t="n">
-        <v>487524.2521452229</v>
+        <v>618259.2653306436</v>
       </c>
       <c r="AF13" t="n">
         <v>9.747201978661948e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.78515625</v>
       </c>
       <c r="AH13" t="n">
-        <v>440995.6217650674</v>
+        <v>559253.468779815</v>
       </c>
     </row>
     <row r="14">
@@ -62459,28 +62459,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>356.0024812919585</v>
+        <v>451.5519607831804</v>
       </c>
       <c r="AB14" t="n">
-        <v>487.0983006246792</v>
+        <v>617.8333138100998</v>
       </c>
       <c r="AC14" t="n">
-        <v>440.6103224598175</v>
+        <v>558.8681694745652</v>
       </c>
       <c r="AD14" t="n">
-        <v>356002.4812919585</v>
+        <v>451551.9607831804</v>
       </c>
       <c r="AE14" t="n">
-        <v>487098.3006246792</v>
+        <v>617833.3138100997</v>
       </c>
       <c r="AF14" t="n">
         <v>9.762606485937588e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.75260416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>440610.3224598175</v>
+        <v>558868.1694745652</v>
       </c>
     </row>
     <row r="15">
@@ -62565,28 +62565,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>356.7799931664406</v>
+        <v>452.3294726576624</v>
       </c>
       <c r="AB15" t="n">
-        <v>488.1621266727485</v>
+        <v>618.8971398581691</v>
       </c>
       <c r="AC15" t="n">
-        <v>441.5726184429485</v>
+        <v>559.8304654576962</v>
       </c>
       <c r="AD15" t="n">
-        <v>356779.9931664406</v>
+        <v>452329.4726576625</v>
       </c>
       <c r="AE15" t="n">
-        <v>488162.1266727485</v>
+        <v>618897.1398581691</v>
       </c>
       <c r="AF15" t="n">
         <v>9.764087688560245e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.75260416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>441572.6184429484</v>
+        <v>559830.4654576961</v>
       </c>
     </row>
   </sheetData>
